--- a/resources/NoteAudit.xlsx
+++ b/resources/NoteAudit.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -45,9 +45,6 @@
     <t>click</t>
   </si>
   <si>
-    <t>(//button[@aria-label="Operation"])[3]</t>
-  </si>
-  <si>
     <t>Auditing</t>
   </si>
   <si>
@@ -60,46 +57,115 @@
     <t>(//button[@aria-label="Note Audit"])[1]</t>
   </si>
   <si>
-    <t>NoteAuditSessions</t>
-  </si>
-  <si>
-    <t>(//button[@class="_md-no-style md-button md-cs-content-theme-theme md-ink-ripple"])[2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visit Type </t>
-  </si>
-  <si>
-    <t>(//button[@class="_md-no-style md-button md-cs-content-theme-theme md-ink-ripple"])[3]</t>
-  </si>
-  <si>
-    <t>Assign</t>
-  </si>
-  <si>
-    <t>(//button[@class="md-primary md-button md-cs-content-theme-theme md-ink-ripple"])[1]</t>
-  </si>
-  <si>
-    <t>Assign to Search</t>
-  </si>
-  <si>
-    <t>//input[@aria-label="Please choose a user to assign:"]</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>select first</t>
-  </si>
-  <si>
-    <t>//md-virtual-repeat-container[@class="md-autocomplete-suggestions-container md-whiteframe-z1 md-virtual-repeat-container md-orient-vertical md-cs-content-theme-theme ng-hide"]/div/div[2]/ul/li[1]</t>
-  </si>
-  <si>
-    <t>select assign</t>
-  </si>
-  <si>
-    <t>(//button[@class="md-primary md-button ng-scope md-cs-content-theme-theme md-ink-ripple"])[1]</t>
-  </si>
-  <si>
     <t>control</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.searchName"]</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>Click Search</t>
+  </si>
+  <si>
+    <t>click assigned to me</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.assignToMe(exchange)"]</t>
+  </si>
+  <si>
+    <t>verify assigned to me</t>
+  </si>
+  <si>
+    <t>visible</t>
+  </si>
+  <si>
+    <t>checked people tab</t>
+  </si>
+  <si>
+    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/md-list-item/div[1]/md-card/md-card-content/div/div[1]/div[2]/div[1]/md-table-container/table/tbody/tr[1]/td[2]</t>
+  </si>
+  <si>
+    <t>match_text</t>
+  </si>
+  <si>
+    <t>auditor user1</t>
+  </si>
+  <si>
+    <t>Click notes button</t>
+  </si>
+  <si>
+    <t>(//button[@class="_md-no-style md-button md-cs-content-theme-theme md-ink-ripple"])[4]</t>
+  </si>
+  <si>
+    <t>(//button[@ng-click="vm.filterShow = false"])</t>
+  </si>
+  <si>
+    <t>Click Selected Search</t>
+  </si>
+  <si>
+    <t>//md-toast/div/span</t>
+  </si>
+  <si>
+    <t>close Notes</t>
+  </si>
+  <si>
+    <t>(//button[@ng-click="vm.cancel()"])[2]</t>
+  </si>
+  <si>
+    <t>clicked comments</t>
+  </si>
+  <si>
+    <t>input comment</t>
+  </si>
+  <si>
+    <t>(//input[@ng-model="vm.newChatComment"])[2]</t>
+  </si>
+  <si>
+    <t>comment verify</t>
+  </si>
+  <si>
+    <t>//md-toast/div</t>
+  </si>
+  <si>
+    <t>click activities</t>
+  </si>
+  <si>
+    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/md-list-item/div[1]/md-card/md-card-content/div/div[2]/div/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[1]/span</t>
+  </si>
+  <si>
+    <t>input activity</t>
+  </si>
+  <si>
+    <t>(//input[@ng-model="vm.newChatComment"])[1]</t>
+  </si>
+  <si>
+    <t>chvcares</t>
+  </si>
+  <si>
+    <t>activity verify</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div/md-content/md-content/div[3]/md-content/md-list/md-list[2]/md-list-item/div/button</t>
+  </si>
+  <si>
+    <t>enter</t>
+  </si>
+  <si>
+    <t>helloworld njkk</t>
+  </si>
+  <si>
+    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/md-list-item/div[1]/md-card/md-card-content/div/div[2]/div/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[2]</t>
+  </si>
+  <si>
+    <t>(//button[@aria-label="Operations"])[1]</t>
+  </si>
+  <si>
+    <t>lastname</t>
   </si>
 </sst>
 </file>
@@ -115,17 +181,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -159,16 +225,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,17 +527,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="2" width="92.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
@@ -504,7 +569,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -521,10 +586,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -541,10 +606,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -564,11 +629,12 @@
         <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
+      <c r="D5" s="7"/>
       <c r="E5">
         <v>1</v>
       </c>
@@ -581,34 +647,32 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
+      <c r="D6" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:7" ht="30">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
+      <c r="D7" s="7"/>
       <c r="E7">
         <v>1</v>
       </c>
@@ -621,44 +685,41 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="12" customHeight="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="7" t="s">
         <v>26</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -670,11 +731,205 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="12" customHeight="1">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="12" customHeight="1">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="39.75" customHeight="1">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/NoteAudit.xlsx
+++ b/resources/NoteAudit.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="1219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="1217">
   <si>
     <t>Name</t>
   </si>
@@ -324,18 +324,12 @@
     <t>Xpath Not found.</t>
   </si>
   <si>
-    <t>//md-slider[@ng-model="vm.charts.notifyphysician.temperature.lessThan" and @aria-valuenow="73"]</t>
-  </si>
-  <si>
     <t>Temperature Slider</t>
   </si>
   <si>
     <t>or Greater</t>
   </si>
   <si>
-    <t>//md-slider[@ng-model="vm.charts.notifyphysician.temperature.greaterThan" and @aria-valuenow="108"]</t>
-  </si>
-  <si>
     <t>Pulse (Beats / minute)</t>
   </si>
   <si>
@@ -2034,9 +2028,6 @@
     <t>//md-checkbox[@ng-model="vm.charts.diet.appropriatelyMeals.value" and @aria-checked="true"]</t>
   </si>
   <si>
-    <t>//md-select[@ng-model="vm.charts.diet.appropriatelyMeals.type" and @aria-label="diet type: Heart Healthy, Calorie ADA Diet, High Protein, Low Protein, Carbohydrate, Mechanical Soft, High Fiber, Renal Diet, Coumadin Diet, Fluid Restriction, No Concentrated Sweets, Low Cholesterol, Low Fat"]</t>
-  </si>
-  <si>
     <t>Other discipline order</t>
   </si>
   <si>
@@ -2547,9 +2538,6 @@
     <t>M1302</t>
   </si>
   <si>
-    <t>M1306</t>
-  </si>
-  <si>
     <t>Standing orders available</t>
   </si>
   <si>
@@ -2562,9 +2550,6 @@
     <t>//md-radio-group[@ng-model="vm.charts.m1302.value"]//md-radio-button[@aria-checked="true" and @aria-label="0 - No"]</t>
   </si>
   <si>
-    <t>//md-radio-group[@ng-model="vm.charts.m1306.value"]//md-radio-button[@aria-checked="true" and @aria-label="0 - No"]</t>
-  </si>
-  <si>
     <t>M1322</t>
   </si>
   <si>
@@ -3673,6 +3658,15 @@
   </si>
   <si>
     <t>S36.400D: Unspecified injury of duodenum, subsequent encounter</t>
+  </si>
+  <si>
+    <t>//md-slider[@ng-model="vm.charts.notifyphysician.temperature.lessThan" and @aria-valuenow="729"]</t>
+  </si>
+  <si>
+    <t>//md-slider[@ng-model="vm.charts.notifyphysician.temperature.greaterThan" and @aria-valuenow="1080"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.diet.appropriatelyMeals.type" and @aria-label="diet type: Sodium, No added salt, Calorie ADA Diet, Regular, High Protein, Low Protein, Carbohydrate low, Carbohydrate high, Mechanical Soft, High Fiber, Supplement, Renal Diet, Coumadin Diet"]</t>
   </si>
 </sst>
 </file>
@@ -4031,10 +4025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J777"/>
+  <dimension ref="A1:J776"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A756" workbookViewId="0">
-      <selection activeCell="B761" sqref="B761"/>
+    <sheetView tabSelected="1" topLeftCell="A725" workbookViewId="0">
+      <selection activeCell="B748" sqref="B748"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4283,7 +4277,7 @@
         <v>40</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4">
@@ -4293,7 +4287,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4301,7 +4295,7 @@
         <v>33</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
@@ -4321,7 +4315,7 @@
         <v>34</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
@@ -4341,7 +4335,7 @@
         <v>35</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="C13" t="s">
         <v>30</v>
@@ -5094,7 +5088,7 @@
         <v>87</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C49" t="s">
         <v>30</v>
@@ -5131,10 +5125,10 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>102</v>
+        <v>1214</v>
       </c>
       <c r="C51" t="s">
         <v>30</v>
@@ -5151,10 +5145,10 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>105</v>
+        <v>1215</v>
       </c>
       <c r="C52" t="s">
         <v>30</v>
@@ -5171,10 +5165,10 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C53" t="s">
         <v>30</v>
@@ -5191,10 +5185,10 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C54" t="s">
         <v>30</v>
@@ -5211,10 +5205,10 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C55" t="s">
         <v>30</v>
@@ -5231,10 +5225,10 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C56" t="s">
         <v>30</v>
@@ -5251,10 +5245,10 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C57" t="s">
         <v>30</v>
@@ -5271,10 +5265,10 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C58" t="s">
         <v>30</v>
@@ -5291,10 +5285,10 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C59" t="s">
         <v>30</v>
@@ -5311,10 +5305,10 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C60" t="s">
         <v>30</v>
@@ -5331,10 +5325,10 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C61" t="s">
         <v>30</v>
@@ -5351,10 +5345,10 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C62" t="s">
         <v>30</v>
@@ -5371,10 +5365,10 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C63" t="s">
         <v>30</v>
@@ -5391,10 +5385,10 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B64" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C64" t="s">
         <v>30</v>
@@ -5411,10 +5405,10 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C65" t="s">
         <v>30</v>
@@ -5431,10 +5425,10 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C66" t="s">
         <v>30</v>
@@ -5448,10 +5442,10 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C67" t="s">
         <v>30</v>
@@ -5465,10 +5459,10 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C68" t="s">
         <v>30</v>
@@ -5482,10 +5476,10 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C69" t="s">
         <v>30</v>
@@ -5499,10 +5493,10 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C70" t="s">
         <v>30</v>
@@ -5516,10 +5510,10 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C71" t="s">
         <v>30</v>
@@ -5533,10 +5527,10 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C72" t="s">
         <v>30</v>
@@ -5550,10 +5544,10 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
+        <v>133</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="C73" t="s">
         <v>30</v>
@@ -5567,10 +5561,10 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C74" t="s">
         <v>30</v>
@@ -5584,10 +5578,10 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C75" t="s">
         <v>30</v>
@@ -5601,10 +5595,10 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C76" t="s">
         <v>30</v>
@@ -5618,10 +5612,10 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C77" t="s">
         <v>30</v>
@@ -5635,10 +5629,10 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C78" t="s">
         <v>30</v>
@@ -5652,10 +5646,10 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="C79" t="s">
         <v>30</v>
@@ -5669,10 +5663,10 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C80" t="s">
         <v>30</v>
@@ -5686,7 +5680,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="B81" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C81" t="s">
         <v>30</v>
@@ -5700,7 +5694,7 @@
     </row>
     <row r="82" spans="1:7">
       <c r="B82" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C82" t="s">
         <v>30</v>
@@ -5714,7 +5708,7 @@
     </row>
     <row r="83" spans="1:7">
       <c r="B83" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C83" t="s">
         <v>30</v>
@@ -5728,10 +5722,10 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="C84" t="s">
         <v>30</v>
@@ -5745,7 +5739,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="B85" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C85" t="s">
         <v>30</v>
@@ -5759,7 +5753,7 @@
     </row>
     <row r="86" spans="1:7">
       <c r="B86" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C86" t="s">
         <v>30</v>
@@ -5773,7 +5767,7 @@
     </row>
     <row r="87" spans="1:7" ht="30">
       <c r="B87" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C87" t="s">
         <v>30</v>
@@ -5787,7 +5781,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="B88" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C88" t="s">
         <v>30</v>
@@ -5801,7 +5795,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="B89" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C89" t="s">
         <v>30</v>
@@ -5815,7 +5809,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="B90" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C90" t="s">
         <v>30</v>
@@ -5829,10 +5823,10 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C91" t="s">
         <v>30</v>
@@ -5846,10 +5840,10 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C92" t="s">
         <v>30</v>
@@ -5863,7 +5857,7 @@
     </row>
     <row r="93" spans="1:7">
       <c r="B93" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C93" t="s">
         <v>30</v>
@@ -5877,7 +5871,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="B94" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C94" t="s">
         <v>30</v>
@@ -5891,7 +5885,7 @@
     </row>
     <row r="95" spans="1:7">
       <c r="B95" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C95" t="s">
         <v>30</v>
@@ -5905,7 +5899,7 @@
     </row>
     <row r="96" spans="1:7">
       <c r="B96" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C96" t="s">
         <v>30</v>
@@ -5919,7 +5913,7 @@
     </row>
     <row r="97" spans="1:7">
       <c r="B97" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C97" t="s">
         <v>30</v>
@@ -5933,7 +5927,7 @@
     </row>
     <row r="98" spans="1:7">
       <c r="B98" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C98" t="s">
         <v>30</v>
@@ -5947,10 +5941,10 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C99" t="s">
         <v>30</v>
@@ -5964,7 +5958,7 @@
     </row>
     <row r="100" spans="1:7">
       <c r="B100" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C100" t="s">
         <v>30</v>
@@ -5978,7 +5972,7 @@
     </row>
     <row r="101" spans="1:7">
       <c r="B101" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C101" t="s">
         <v>30</v>
@@ -5992,7 +5986,7 @@
     </row>
     <row r="102" spans="1:7">
       <c r="B102" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C102" t="s">
         <v>30</v>
@@ -6006,7 +6000,7 @@
     </row>
     <row r="103" spans="1:7">
       <c r="B103" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C103" t="s">
         <v>30</v>
@@ -6020,7 +6014,7 @@
     </row>
     <row r="104" spans="1:7">
       <c r="B104" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C104" t="s">
         <v>30</v>
@@ -6034,7 +6028,7 @@
     </row>
     <row r="105" spans="1:7">
       <c r="B105" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C105" t="s">
         <v>30</v>
@@ -6048,10 +6042,10 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C106" t="s">
         <v>30</v>
@@ -6065,7 +6059,7 @@
     </row>
     <row r="107" spans="1:7">
       <c r="B107" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C107" t="s">
         <v>30</v>
@@ -6079,7 +6073,7 @@
     </row>
     <row r="108" spans="1:7">
       <c r="B108" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C108" t="s">
         <v>30</v>
@@ -6093,7 +6087,7 @@
     </row>
     <row r="109" spans="1:7">
       <c r="B109" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C109" t="s">
         <v>30</v>
@@ -6107,7 +6101,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="B110" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C110" t="s">
         <v>30</v>
@@ -6121,7 +6115,7 @@
     </row>
     <row r="111" spans="1:7">
       <c r="B111" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C111" t="s">
         <v>30</v>
@@ -6135,7 +6129,7 @@
     </row>
     <row r="112" spans="1:7">
       <c r="B112" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C112" t="s">
         <v>30</v>
@@ -6149,7 +6143,7 @@
     </row>
     <row r="113" spans="1:7">
       <c r="B113" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C113" t="s">
         <v>30</v>
@@ -6163,7 +6157,7 @@
     </row>
     <row r="114" spans="1:7">
       <c r="B114" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C114" t="s">
         <v>30</v>
@@ -6177,7 +6171,7 @@
     </row>
     <row r="115" spans="1:7">
       <c r="B115" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C115" t="s">
         <v>30</v>
@@ -6191,10 +6185,10 @@
     </row>
     <row r="116" spans="1:7" ht="30">
       <c r="A116" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C116" t="s">
         <v>30</v>
@@ -6208,7 +6202,7 @@
     </row>
     <row r="117" spans="1:7">
       <c r="B117" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C117" t="s">
         <v>30</v>
@@ -6222,10 +6216,10 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C118" t="s">
         <v>30</v>
@@ -6239,7 +6233,7 @@
     </row>
     <row r="119" spans="1:7">
       <c r="B119" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C119" t="s">
         <v>30</v>
@@ -6253,7 +6247,7 @@
     </row>
     <row r="120" spans="1:7">
       <c r="B120" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C120" t="s">
         <v>30</v>
@@ -6267,7 +6261,7 @@
     </row>
     <row r="121" spans="1:7">
       <c r="B121" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C121" t="s">
         <v>30</v>
@@ -6281,7 +6275,7 @@
     </row>
     <row r="122" spans="1:7">
       <c r="B122" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C122" t="s">
         <v>30</v>
@@ -6295,7 +6289,7 @@
     </row>
     <row r="123" spans="1:7">
       <c r="B123" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C123" t="s">
         <v>30</v>
@@ -6309,7 +6303,7 @@
     </row>
     <row r="124" spans="1:7">
       <c r="B124" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C124" t="s">
         <v>30</v>
@@ -6323,7 +6317,7 @@
     </row>
     <row r="125" spans="1:7">
       <c r="B125" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C125" t="s">
         <v>30</v>
@@ -6337,7 +6331,7 @@
     </row>
     <row r="126" spans="1:7">
       <c r="B126" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C126" t="s">
         <v>30</v>
@@ -6351,7 +6345,7 @@
     </row>
     <row r="127" spans="1:7">
       <c r="B127" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C127" t="s">
         <v>30</v>
@@ -6365,7 +6359,7 @@
     </row>
     <row r="128" spans="1:7">
       <c r="B128" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C128" t="s">
         <v>30</v>
@@ -6379,7 +6373,7 @@
     </row>
     <row r="129" spans="1:7">
       <c r="B129" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C129" t="s">
         <v>30</v>
@@ -6393,10 +6387,10 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C130" t="s">
         <v>30</v>
@@ -6410,7 +6404,7 @@
     </row>
     <row r="131" spans="1:7">
       <c r="B131" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C131" t="s">
         <v>30</v>
@@ -6424,7 +6418,7 @@
     </row>
     <row r="132" spans="1:7">
       <c r="B132" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C132" t="s">
         <v>30</v>
@@ -6438,7 +6432,7 @@
     </row>
     <row r="133" spans="1:7">
       <c r="B133" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C133" t="s">
         <v>30</v>
@@ -6452,7 +6446,7 @@
     </row>
     <row r="134" spans="1:7">
       <c r="B134" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C134" t="s">
         <v>30</v>
@@ -6466,7 +6460,7 @@
     </row>
     <row r="135" spans="1:7">
       <c r="B135" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C135" t="s">
         <v>30</v>
@@ -6480,7 +6474,7 @@
     </row>
     <row r="136" spans="1:7">
       <c r="B136" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C136" t="s">
         <v>30</v>
@@ -6494,10 +6488,10 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C137" t="s">
         <v>30</v>
@@ -6511,7 +6505,7 @@
     </row>
     <row r="138" spans="1:7">
       <c r="B138" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C138" t="s">
         <v>30</v>
@@ -6525,7 +6519,7 @@
     </row>
     <row r="139" spans="1:7">
       <c r="B139" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C139" t="s">
         <v>30</v>
@@ -6539,7 +6533,7 @@
     </row>
     <row r="140" spans="1:7">
       <c r="B140" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C140" t="s">
         <v>30</v>
@@ -6553,7 +6547,7 @@
     </row>
     <row r="141" spans="1:7">
       <c r="B141" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C141" t="s">
         <v>30</v>
@@ -6567,10 +6561,10 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C142" t="s">
         <v>30</v>
@@ -6584,7 +6578,7 @@
     </row>
     <row r="143" spans="1:7">
       <c r="B143" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C143" t="s">
         <v>30</v>
@@ -6598,7 +6592,7 @@
     </row>
     <row r="144" spans="1:7">
       <c r="B144" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C144" t="s">
         <v>30</v>
@@ -6612,7 +6606,7 @@
     </row>
     <row r="145" spans="1:7">
       <c r="B145" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C145" t="s">
         <v>30</v>
@@ -6626,7 +6620,7 @@
     </row>
     <row r="146" spans="1:7">
       <c r="B146" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C146" t="s">
         <v>30</v>
@@ -6640,7 +6634,7 @@
     </row>
     <row r="147" spans="1:7">
       <c r="B147" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C147" t="s">
         <v>30</v>
@@ -6654,10 +6648,10 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C148" t="s">
         <v>30</v>
@@ -6671,7 +6665,7 @@
     </row>
     <row r="149" spans="1:7">
       <c r="B149" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C149" t="s">
         <v>30</v>
@@ -6685,7 +6679,7 @@
     </row>
     <row r="150" spans="1:7">
       <c r="B150" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C150" t="s">
         <v>30</v>
@@ -6699,7 +6693,7 @@
     </row>
     <row r="151" spans="1:7">
       <c r="B151" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C151" t="s">
         <v>30</v>
@@ -6713,7 +6707,7 @@
     </row>
     <row r="152" spans="1:7">
       <c r="B152" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C152" t="s">
         <v>30</v>
@@ -6727,7 +6721,7 @@
     </row>
     <row r="153" spans="1:7">
       <c r="B153" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C153" t="s">
         <v>30</v>
@@ -6741,7 +6735,7 @@
     </row>
     <row r="154" spans="1:7">
       <c r="B154" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C154" t="s">
         <v>30</v>
@@ -6755,7 +6749,7 @@
     </row>
     <row r="155" spans="1:7">
       <c r="B155" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C155" t="s">
         <v>30</v>
@@ -6769,10 +6763,10 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C156" t="s">
         <v>30</v>
@@ -6786,7 +6780,7 @@
     </row>
     <row r="157" spans="1:7">
       <c r="B157" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C157" t="s">
         <v>30</v>
@@ -6800,7 +6794,7 @@
     </row>
     <row r="158" spans="1:7">
       <c r="B158" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C158" t="s">
         <v>30</v>
@@ -6814,7 +6808,7 @@
     </row>
     <row r="159" spans="1:7">
       <c r="B159" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C159" t="s">
         <v>30</v>
@@ -6828,7 +6822,7 @@
     </row>
     <row r="160" spans="1:7">
       <c r="B160" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C160" t="s">
         <v>30</v>
@@ -6842,10 +6836,10 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C161" t="s">
         <v>30</v>
@@ -6859,7 +6853,7 @@
     </row>
     <row r="162" spans="1:7">
       <c r="B162" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C162" t="s">
         <v>30</v>
@@ -6873,7 +6867,7 @@
     </row>
     <row r="163" spans="1:7">
       <c r="B163" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C163" t="s">
         <v>30</v>
@@ -6887,7 +6881,7 @@
     </row>
     <row r="164" spans="1:7">
       <c r="B164" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C164" t="s">
         <v>30</v>
@@ -6901,10 +6895,10 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C165" t="s">
         <v>30</v>
@@ -6918,7 +6912,7 @@
     </row>
     <row r="166" spans="1:7">
       <c r="B166" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C166" t="s">
         <v>30</v>
@@ -6932,10 +6926,10 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C167" t="s">
         <v>30</v>
@@ -6949,7 +6943,7 @@
     </row>
     <row r="168" spans="1:7">
       <c r="B168" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C168" t="s">
         <v>30</v>
@@ -6963,10 +6957,10 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C169" t="s">
         <v>30</v>
@@ -6980,7 +6974,7 @@
     </row>
     <row r="170" spans="1:7">
       <c r="B170" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C170" t="s">
         <v>30</v>
@@ -6994,7 +6988,7 @@
     </row>
     <row r="171" spans="1:7">
       <c r="B171" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C171" t="s">
         <v>30</v>
@@ -7008,10 +7002,10 @@
     </row>
     <row r="172" spans="1:7">
       <c r="A172" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C172" t="s">
         <v>30</v>
@@ -7025,10 +7019,10 @@
     </row>
     <row r="173" spans="1:7">
       <c r="A173" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C173" t="s">
         <v>30</v>
@@ -7042,7 +7036,7 @@
     </row>
     <row r="174" spans="1:7">
       <c r="B174" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C174" t="s">
         <v>30</v>
@@ -7056,10 +7050,10 @@
     </row>
     <row r="175" spans="1:7">
       <c r="A175" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C175" t="s">
         <v>30</v>
@@ -7073,7 +7067,7 @@
     </row>
     <row r="176" spans="1:7">
       <c r="B176" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C176" t="s">
         <v>30</v>
@@ -7087,7 +7081,7 @@
     </row>
     <row r="177" spans="1:7">
       <c r="B177" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C177" t="s">
         <v>30</v>
@@ -7101,10 +7095,10 @@
     </row>
     <row r="178" spans="1:7">
       <c r="A178" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C178" t="s">
         <v>30</v>
@@ -7118,7 +7112,7 @@
     </row>
     <row r="179" spans="1:7">
       <c r="B179" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C179" t="s">
         <v>30</v>
@@ -7132,7 +7126,7 @@
     </row>
     <row r="180" spans="1:7">
       <c r="B180" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C180" t="s">
         <v>30</v>
@@ -7146,7 +7140,7 @@
     </row>
     <row r="181" spans="1:7">
       <c r="B181" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C181" t="s">
         <v>30</v>
@@ -7160,7 +7154,7 @@
     </row>
     <row r="182" spans="1:7">
       <c r="B182" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C182" t="s">
         <v>30</v>
@@ -7174,7 +7168,7 @@
     </row>
     <row r="183" spans="1:7">
       <c r="B183" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C183" t="s">
         <v>30</v>
@@ -7188,7 +7182,7 @@
     </row>
     <row r="184" spans="1:7">
       <c r="B184" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C184" t="s">
         <v>30</v>
@@ -7202,7 +7196,7 @@
     </row>
     <row r="185" spans="1:7">
       <c r="B185" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C185" t="s">
         <v>30</v>
@@ -7216,7 +7210,7 @@
     </row>
     <row r="186" spans="1:7">
       <c r="B186" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C186" t="s">
         <v>30</v>
@@ -7230,7 +7224,7 @@
     </row>
     <row r="187" spans="1:7">
       <c r="B187" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C187" t="s">
         <v>30</v>
@@ -7244,10 +7238,10 @@
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C188" t="s">
         <v>30</v>
@@ -7261,10 +7255,10 @@
     </row>
     <row r="189" spans="1:7">
       <c r="A189" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C189" t="s">
         <v>30</v>
@@ -7278,7 +7272,7 @@
     </row>
     <row r="190" spans="1:7">
       <c r="B190" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C190" t="s">
         <v>30</v>
@@ -7292,7 +7286,7 @@
     </row>
     <row r="191" spans="1:7">
       <c r="B191" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C191" t="s">
         <v>30</v>
@@ -7306,7 +7300,7 @@
     </row>
     <row r="192" spans="1:7">
       <c r="B192" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C192" t="s">
         <v>30</v>
@@ -7320,7 +7314,7 @@
     </row>
     <row r="193" spans="1:7">
       <c r="B193" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C193" t="s">
         <v>30</v>
@@ -7334,7 +7328,7 @@
     </row>
     <row r="194" spans="1:7">
       <c r="B194" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C194" t="s">
         <v>30</v>
@@ -7348,10 +7342,10 @@
     </row>
     <row r="195" spans="1:7">
       <c r="A195" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C195" t="s">
         <v>30</v>
@@ -7365,10 +7359,10 @@
     </row>
     <row r="196" spans="1:7">
       <c r="A196" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C196" t="s">
         <v>30</v>
@@ -7382,10 +7376,10 @@
     </row>
     <row r="197" spans="1:7">
       <c r="A197" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C197" t="s">
         <v>30</v>
@@ -7399,10 +7393,10 @@
     </row>
     <row r="198" spans="1:7">
       <c r="A198" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C198" t="s">
         <v>30</v>
@@ -7416,10 +7410,10 @@
     </row>
     <row r="199" spans="1:7">
       <c r="A199" t="s">
+        <v>291</v>
+      </c>
+      <c r="B199" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="C199" t="s">
         <v>30</v>
@@ -7433,10 +7427,10 @@
     </row>
     <row r="200" spans="1:7">
       <c r="A200" t="s">
+        <v>292</v>
+      </c>
+      <c r="B200" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>296</v>
       </c>
       <c r="C200" t="s">
         <v>30</v>
@@ -7450,10 +7444,10 @@
     </row>
     <row r="201" spans="1:7">
       <c r="A201" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C201" t="s">
         <v>30</v>
@@ -7467,7 +7461,7 @@
     </row>
     <row r="202" spans="1:7">
       <c r="B202" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C202" t="s">
         <v>30</v>
@@ -7481,7 +7475,7 @@
     </row>
     <row r="203" spans="1:7">
       <c r="B203" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C203" t="s">
         <v>30</v>
@@ -7495,7 +7489,7 @@
     </row>
     <row r="204" spans="1:7">
       <c r="B204" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C204" t="s">
         <v>30</v>
@@ -7509,7 +7503,7 @@
     </row>
     <row r="205" spans="1:7">
       <c r="B205" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C205" t="s">
         <v>30</v>
@@ -7523,7 +7517,7 @@
     </row>
     <row r="206" spans="1:7">
       <c r="B206" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C206" t="s">
         <v>30</v>
@@ -7537,7 +7531,7 @@
     </row>
     <row r="207" spans="1:7">
       <c r="B207" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C207" t="s">
         <v>30</v>
@@ -7551,10 +7545,10 @@
     </row>
     <row r="208" spans="1:7">
       <c r="A208" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C208" t="s">
         <v>30</v>
@@ -7568,10 +7562,10 @@
     </row>
     <row r="209" spans="1:7">
       <c r="A209" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C209" t="s">
         <v>30</v>
@@ -7585,10 +7579,10 @@
     </row>
     <row r="210" spans="1:7">
       <c r="A210" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C210" t="s">
         <v>30</v>
@@ -7602,10 +7596,10 @@
     </row>
     <row r="211" spans="1:7">
       <c r="A211" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C211" t="s">
         <v>30</v>
@@ -7619,10 +7613,10 @@
     </row>
     <row r="212" spans="1:7">
       <c r="A212" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C212" t="s">
         <v>30</v>
@@ -7636,10 +7630,10 @@
     </row>
     <row r="213" spans="1:7">
       <c r="A213" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C213" t="s">
         <v>30</v>
@@ -7653,10 +7647,10 @@
     </row>
     <row r="214" spans="1:7">
       <c r="A214" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C214" t="s">
         <v>30</v>
@@ -7670,10 +7664,10 @@
     </row>
     <row r="215" spans="1:7">
       <c r="A215" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C215" t="s">
         <v>30</v>
@@ -7687,10 +7681,10 @@
     </row>
     <row r="216" spans="1:7">
       <c r="A216" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C216" t="s">
         <v>30</v>
@@ -7704,10 +7698,10 @@
     </row>
     <row r="217" spans="1:7">
       <c r="A217" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C217" t="s">
         <v>30</v>
@@ -7721,10 +7715,10 @@
     </row>
     <row r="218" spans="1:7">
       <c r="A218" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C218" t="s">
         <v>30</v>
@@ -7738,10 +7732,10 @@
     </row>
     <row r="219" spans="1:7">
       <c r="A219" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C219" t="s">
         <v>30</v>
@@ -7755,10 +7749,10 @@
     </row>
     <row r="220" spans="1:7">
       <c r="A220" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C220" t="s">
         <v>30</v>
@@ -7772,10 +7766,10 @@
     </row>
     <row r="221" spans="1:7">
       <c r="A221" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C221" t="s">
         <v>30</v>
@@ -7789,10 +7783,10 @@
     </row>
     <row r="222" spans="1:7">
       <c r="A222" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C222" t="s">
         <v>30</v>
@@ -7806,10 +7800,10 @@
     </row>
     <row r="223" spans="1:7">
       <c r="A223" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C223" t="s">
         <v>30</v>
@@ -7823,10 +7817,10 @@
     </row>
     <row r="224" spans="1:7">
       <c r="A224" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C224" t="s">
         <v>30</v>
@@ -7840,10 +7834,10 @@
     </row>
     <row r="225" spans="1:7">
       <c r="A225" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C225" t="s">
         <v>30</v>
@@ -7857,10 +7851,10 @@
     </row>
     <row r="226" spans="1:7">
       <c r="A226" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C226" t="s">
         <v>30</v>
@@ -7874,10 +7868,10 @@
     </row>
     <row r="227" spans="1:7">
       <c r="A227" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C227" t="s">
         <v>30</v>
@@ -7891,10 +7885,10 @@
     </row>
     <row r="228" spans="1:7">
       <c r="A228" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C228" t="s">
         <v>30</v>
@@ -7908,10 +7902,10 @@
     </row>
     <row r="229" spans="1:7">
       <c r="A229" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C229" t="s">
         <v>30</v>
@@ -7925,10 +7919,10 @@
     </row>
     <row r="230" spans="1:7">
       <c r="A230" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C230" t="s">
         <v>30</v>
@@ -7942,10 +7936,10 @@
     </row>
     <row r="231" spans="1:7">
       <c r="A231" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C231" t="s">
         <v>30</v>
@@ -7959,10 +7953,10 @@
     </row>
     <row r="232" spans="1:7">
       <c r="A232" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C232" t="s">
         <v>30</v>
@@ -7976,10 +7970,10 @@
     </row>
     <row r="233" spans="1:7">
       <c r="A233" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C233" t="s">
         <v>30</v>
@@ -7993,10 +7987,10 @@
     </row>
     <row r="234" spans="1:7">
       <c r="A234" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C234" t="s">
         <v>30</v>
@@ -8010,10 +8004,10 @@
     </row>
     <row r="235" spans="1:7">
       <c r="A235" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C235" t="s">
         <v>30</v>
@@ -8027,10 +8021,10 @@
     </row>
     <row r="236" spans="1:7">
       <c r="A236" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C236" t="s">
         <v>30</v>
@@ -8044,10 +8038,10 @@
     </row>
     <row r="237" spans="1:7">
       <c r="A237" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C237" t="s">
         <v>30</v>
@@ -8061,10 +8055,10 @@
     </row>
     <row r="238" spans="1:7">
       <c r="A238" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C238" t="s">
         <v>30</v>
@@ -8078,7 +8072,7 @@
     </row>
     <row r="239" spans="1:7">
       <c r="B239" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C239" t="s">
         <v>30</v>
@@ -8092,10 +8086,10 @@
     </row>
     <row r="240" spans="1:7">
       <c r="A240" t="s">
+        <v>365</v>
+      </c>
+      <c r="B240" s="3" t="s">
         <v>367</v>
-      </c>
-      <c r="B240" s="3" t="s">
-        <v>369</v>
       </c>
       <c r="C240" t="s">
         <v>30</v>
@@ -8109,10 +8103,10 @@
     </row>
     <row r="241" spans="1:7">
       <c r="A241" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C241" t="s">
         <v>30</v>
@@ -8126,10 +8120,10 @@
     </row>
     <row r="242" spans="1:7">
       <c r="A242" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C242" t="s">
         <v>30</v>
@@ -8143,10 +8137,10 @@
     </row>
     <row r="243" spans="1:7">
       <c r="A243" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C243" t="s">
         <v>30</v>
@@ -8160,10 +8154,10 @@
     </row>
     <row r="244" spans="1:7">
       <c r="A244" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C244" t="s">
         <v>30</v>
@@ -8177,7 +8171,7 @@
     </row>
     <row r="245" spans="1:7">
       <c r="B245" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C245" t="s">
         <v>30</v>
@@ -8191,7 +8185,7 @@
     </row>
     <row r="246" spans="1:7">
       <c r="B246" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C246" t="s">
         <v>30</v>
@@ -8205,7 +8199,7 @@
     </row>
     <row r="247" spans="1:7">
       <c r="B247" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C247" t="s">
         <v>30</v>
@@ -8219,7 +8213,7 @@
     </row>
     <row r="248" spans="1:7">
       <c r="B248" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C248" t="s">
         <v>30</v>
@@ -8233,7 +8227,7 @@
     </row>
     <row r="249" spans="1:7">
       <c r="B249" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C249" t="s">
         <v>30</v>
@@ -8247,7 +8241,7 @@
     </row>
     <row r="250" spans="1:7">
       <c r="B250" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C250" t="s">
         <v>30</v>
@@ -8261,10 +8255,10 @@
     </row>
     <row r="251" spans="1:7">
       <c r="A251" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C251" t="s">
         <v>30</v>
@@ -8278,10 +8272,10 @@
     </row>
     <row r="252" spans="1:7">
       <c r="A252" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C252" t="s">
         <v>30</v>
@@ -8295,10 +8289,10 @@
     </row>
     <row r="253" spans="1:7">
       <c r="A253" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C253" t="s">
         <v>30</v>
@@ -8312,10 +8306,10 @@
     </row>
     <row r="254" spans="1:7">
       <c r="A254" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C254" t="s">
         <v>30</v>
@@ -8329,10 +8323,10 @@
     </row>
     <row r="255" spans="1:7">
       <c r="A255" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C255" t="s">
         <v>30</v>
@@ -8346,10 +8340,10 @@
     </row>
     <row r="256" spans="1:7">
       <c r="A256" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C256" t="s">
         <v>30</v>
@@ -8363,10 +8357,10 @@
     </row>
     <row r="257" spans="1:7">
       <c r="A257" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C257" t="s">
         <v>30</v>
@@ -8380,10 +8374,10 @@
     </row>
     <row r="258" spans="1:7">
       <c r="A258" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C258" t="s">
         <v>30</v>
@@ -8397,10 +8391,10 @@
     </row>
     <row r="259" spans="1:7">
       <c r="A259" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C259" t="s">
         <v>30</v>
@@ -8414,10 +8408,10 @@
     </row>
     <row r="260" spans="1:7">
       <c r="A260" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C260" t="s">
         <v>30</v>
@@ -8431,10 +8425,10 @@
     </row>
     <row r="261" spans="1:7">
       <c r="A261" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C261" t="s">
         <v>30</v>
@@ -8448,10 +8442,10 @@
     </row>
     <row r="262" spans="1:7">
       <c r="A262" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C262" t="s">
         <v>30</v>
@@ -8465,10 +8459,10 @@
     </row>
     <row r="263" spans="1:7">
       <c r="A263" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C263" t="s">
         <v>30</v>
@@ -8482,10 +8476,10 @@
     </row>
     <row r="264" spans="1:7">
       <c r="A264" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C264" t="s">
         <v>30</v>
@@ -8499,10 +8493,10 @@
     </row>
     <row r="265" spans="1:7">
       <c r="A265" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C265" t="s">
         <v>30</v>
@@ -8516,10 +8510,10 @@
     </row>
     <row r="266" spans="1:7">
       <c r="A266" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C266" t="s">
         <v>30</v>
@@ -8533,10 +8527,10 @@
     </row>
     <row r="267" spans="1:7">
       <c r="A267" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C267" t="s">
         <v>30</v>
@@ -8550,10 +8544,10 @@
     </row>
     <row r="268" spans="1:7">
       <c r="A268" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C268" t="s">
         <v>30</v>
@@ -8567,10 +8561,10 @@
     </row>
     <row r="269" spans="1:7">
       <c r="A269" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C269" t="s">
         <v>30</v>
@@ -8584,10 +8578,10 @@
     </row>
     <row r="270" spans="1:7">
       <c r="A270" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C270" t="s">
         <v>30</v>
@@ -8601,10 +8595,10 @@
     </row>
     <row r="271" spans="1:7">
       <c r="A271" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C271" t="s">
         <v>30</v>
@@ -8618,10 +8612,10 @@
     </row>
     <row r="272" spans="1:7">
       <c r="A272" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C272" t="s">
         <v>30</v>
@@ -8635,10 +8629,10 @@
     </row>
     <row r="273" spans="1:8">
       <c r="A273" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C273" t="s">
         <v>30</v>
@@ -8652,7 +8646,7 @@
     </row>
     <row r="274" spans="1:8">
       <c r="B274" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C274" t="s">
         <v>30</v>
@@ -8666,7 +8660,7 @@
     </row>
     <row r="275" spans="1:8">
       <c r="B275" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C275" t="s">
         <v>30</v>
@@ -8680,7 +8674,7 @@
     </row>
     <row r="276" spans="1:8">
       <c r="B276" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C276" t="s">
         <v>30</v>
@@ -8694,7 +8688,7 @@
     </row>
     <row r="277" spans="1:8">
       <c r="B277" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C277" t="s">
         <v>30</v>
@@ -8708,13 +8702,13 @@
     </row>
     <row r="278" spans="1:8">
       <c r="B278" t="s">
+        <v>432</v>
+      </c>
+      <c r="C278" t="s">
         <v>434</v>
       </c>
-      <c r="C278" t="s">
-        <v>436</v>
-      </c>
       <c r="D278" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G278">
         <v>1</v>
@@ -8725,10 +8719,10 @@
     </row>
     <row r="279" spans="1:8">
       <c r="A279" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C279" t="s">
         <v>30</v>
@@ -8742,10 +8736,10 @@
     </row>
     <row r="280" spans="1:8">
       <c r="A280" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C280" t="s">
         <v>30</v>
@@ -8759,10 +8753,10 @@
     </row>
     <row r="281" spans="1:8">
       <c r="A281" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C281" t="s">
         <v>30</v>
@@ -8776,10 +8770,10 @@
     </row>
     <row r="282" spans="1:8">
       <c r="A282" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C282" t="s">
         <v>30</v>
@@ -8793,10 +8787,10 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C283" t="s">
         <v>30</v>
@@ -8810,10 +8804,10 @@
     </row>
     <row r="284" spans="1:8">
       <c r="A284" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C284" t="s">
         <v>30</v>
@@ -8827,10 +8821,10 @@
     </row>
     <row r="285" spans="1:8">
       <c r="A285" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C285" t="s">
         <v>30</v>
@@ -8844,10 +8838,10 @@
     </row>
     <row r="286" spans="1:8">
       <c r="A286" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C286" t="s">
         <v>30</v>
@@ -8861,10 +8855,10 @@
     </row>
     <row r="287" spans="1:8">
       <c r="A287" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C287" t="s">
         <v>30</v>
@@ -8878,10 +8872,10 @@
     </row>
     <row r="288" spans="1:8">
       <c r="A288" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C288" t="s">
         <v>30</v>
@@ -8895,10 +8889,10 @@
     </row>
     <row r="289" spans="1:7">
       <c r="A289" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C289" t="s">
         <v>30</v>
@@ -8912,10 +8906,10 @@
     </row>
     <row r="290" spans="1:7">
       <c r="A290" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C290" t="s">
         <v>30</v>
@@ -8929,10 +8923,10 @@
     </row>
     <row r="291" spans="1:7">
       <c r="A291" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C291" t="s">
         <v>30</v>
@@ -8946,10 +8940,10 @@
     </row>
     <row r="292" spans="1:7">
       <c r="A292" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C292" t="s">
         <v>30</v>
@@ -8963,10 +8957,10 @@
     </row>
     <row r="293" spans="1:7">
       <c r="A293" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C293" t="s">
         <v>30</v>
@@ -8980,10 +8974,10 @@
     </row>
     <row r="294" spans="1:7">
       <c r="A294" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C294" t="s">
         <v>30</v>
@@ -8997,10 +8991,10 @@
     </row>
     <row r="295" spans="1:7">
       <c r="A295" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C295" t="s">
         <v>30</v>
@@ -9014,10 +9008,10 @@
     </row>
     <row r="296" spans="1:7">
       <c r="A296" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C296" t="s">
         <v>30</v>
@@ -9031,10 +9025,10 @@
     </row>
     <row r="297" spans="1:7">
       <c r="A297" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C297" t="s">
         <v>30</v>
@@ -9048,10 +9042,10 @@
     </row>
     <row r="298" spans="1:7">
       <c r="A298" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C298" t="s">
         <v>30</v>
@@ -9065,10 +9059,10 @@
     </row>
     <row r="299" spans="1:7">
       <c r="A299" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C299" t="s">
         <v>30</v>
@@ -9082,10 +9076,10 @@
     </row>
     <row r="300" spans="1:7">
       <c r="A300" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C300" t="s">
         <v>30</v>
@@ -9099,10 +9093,10 @@
     </row>
     <row r="301" spans="1:7">
       <c r="A301" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C301" t="s">
         <v>30</v>
@@ -9116,10 +9110,10 @@
     </row>
     <row r="302" spans="1:7">
       <c r="A302" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C302" t="s">
         <v>30</v>
@@ -9133,10 +9127,10 @@
     </row>
     <row r="303" spans="1:7">
       <c r="A303" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C303" t="s">
         <v>30</v>
@@ -9150,10 +9144,10 @@
     </row>
     <row r="304" spans="1:7" ht="30">
       <c r="A304" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C304" t="s">
         <v>30</v>
@@ -9167,10 +9161,10 @@
     </row>
     <row r="305" spans="1:7" ht="30">
       <c r="A305" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C305" t="s">
         <v>30</v>
@@ -9184,10 +9178,10 @@
     </row>
     <row r="306" spans="1:7" ht="30">
       <c r="A306" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C306" t="s">
         <v>30</v>
@@ -9201,10 +9195,10 @@
     </row>
     <row r="307" spans="1:7" ht="30">
       <c r="A307" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C307" t="s">
         <v>30</v>
@@ -9218,10 +9212,10 @@
     </row>
     <row r="308" spans="1:7">
       <c r="A308" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C308" t="s">
         <v>30</v>
@@ -9235,10 +9229,10 @@
     </row>
     <row r="309" spans="1:7">
       <c r="A309" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C309" t="s">
         <v>30</v>
@@ -9252,10 +9246,10 @@
     </row>
     <row r="310" spans="1:7">
       <c r="A310" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C310" t="s">
         <v>30</v>
@@ -9269,13 +9263,13 @@
     </row>
     <row r="311" spans="1:7">
       <c r="B311" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C311" t="s">
         <v>40</v>
       </c>
       <c r="D311" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F311" s="4">
         <v>1</v>
@@ -9286,13 +9280,13 @@
     </row>
     <row r="312" spans="1:7">
       <c r="B312" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C312" t="s">
         <v>40</v>
       </c>
       <c r="D312" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F312" s="4">
         <v>1</v>
@@ -9303,10 +9297,10 @@
     </row>
     <row r="313" spans="1:7">
       <c r="A313" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C313" t="s">
         <v>30</v>
@@ -9320,10 +9314,10 @@
     </row>
     <row r="314" spans="1:7">
       <c r="A314" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C314" t="s">
         <v>30</v>
@@ -9337,10 +9331,10 @@
     </row>
     <row r="315" spans="1:7">
       <c r="A315" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C315" t="s">
         <v>30</v>
@@ -9354,10 +9348,10 @@
     </row>
     <row r="316" spans="1:7">
       <c r="A316" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C316" t="s">
         <v>30</v>
@@ -9371,10 +9365,10 @@
     </row>
     <row r="317" spans="1:7" ht="30">
       <c r="A317" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C317" t="s">
         <v>30</v>
@@ -9388,10 +9382,10 @@
     </row>
     <row r="318" spans="1:7">
       <c r="A318" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C318" t="s">
         <v>30</v>
@@ -9405,10 +9399,10 @@
     </row>
     <row r="319" spans="1:7">
       <c r="A319" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C319" t="s">
         <v>30</v>
@@ -9422,10 +9416,10 @@
     </row>
     <row r="320" spans="1:7">
       <c r="A320" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C320" t="s">
         <v>30</v>
@@ -9439,10 +9433,10 @@
     </row>
     <row r="321" spans="1:7">
       <c r="A321" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C321" t="s">
         <v>30</v>
@@ -9456,10 +9450,10 @@
     </row>
     <row r="322" spans="1:7">
       <c r="A322" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C322" t="s">
         <v>30</v>
@@ -9473,10 +9467,10 @@
     </row>
     <row r="323" spans="1:7">
       <c r="A323" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C323" t="s">
         <v>30</v>
@@ -9490,10 +9484,10 @@
     </row>
     <row r="324" spans="1:7">
       <c r="A324" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C324" t="s">
         <v>30</v>
@@ -9507,10 +9501,10 @@
     </row>
     <row r="325" spans="1:7">
       <c r="A325" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C325" t="s">
         <v>30</v>
@@ -9524,10 +9518,10 @@
     </row>
     <row r="326" spans="1:7">
       <c r="A326" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C326" t="s">
         <v>30</v>
@@ -9541,10 +9535,10 @@
     </row>
     <row r="327" spans="1:7">
       <c r="A327" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C327" t="s">
         <v>30</v>
@@ -9558,13 +9552,13 @@
     </row>
     <row r="328" spans="1:7">
       <c r="B328" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C328" t="s">
         <v>40</v>
       </c>
       <c r="D328" s="6" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="F328" s="4">
         <v>1</v>
@@ -9575,13 +9569,13 @@
     </row>
     <row r="329" spans="1:7">
       <c r="B329" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C329" t="s">
         <v>40</v>
       </c>
       <c r="D329" s="6" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="F329" s="4">
         <v>1</v>
@@ -9592,13 +9586,13 @@
     </row>
     <row r="330" spans="1:7">
       <c r="B330" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C330" t="s">
         <v>40</v>
       </c>
       <c r="D330" s="6" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="F330" s="4">
         <v>1</v>
@@ -9609,13 +9603,13 @@
     </row>
     <row r="331" spans="1:7">
       <c r="B331" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C331" t="s">
         <v>40</v>
       </c>
       <c r="D331" s="6" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="F331" s="4">
         <v>1</v>
@@ -9626,13 +9620,13 @@
     </row>
     <row r="332" spans="1:7">
       <c r="B332" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C332" t="s">
         <v>40</v>
       </c>
       <c r="D332" s="6" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="F332" s="4">
         <v>1</v>
@@ -9643,13 +9637,13 @@
     </row>
     <row r="333" spans="1:7">
       <c r="B333" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C333" t="s">
         <v>40</v>
       </c>
       <c r="D333" s="6" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="F333" s="4">
         <v>1</v>
@@ -9660,13 +9654,13 @@
     </row>
     <row r="334" spans="1:7">
       <c r="B334" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C334" t="s">
         <v>40</v>
       </c>
       <c r="D334" s="6" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="F334" s="4">
         <v>1</v>
@@ -9677,13 +9671,13 @@
     </row>
     <row r="335" spans="1:7">
       <c r="B335" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C335" t="s">
         <v>40</v>
       </c>
       <c r="D335" s="6" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="F335" s="4">
         <v>1</v>
@@ -9694,13 +9688,13 @@
     </row>
     <row r="336" spans="1:7">
       <c r="B336" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C336" t="s">
         <v>40</v>
       </c>
       <c r="D336" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F336" s="4">
         <v>1</v>
@@ -9711,13 +9705,13 @@
     </row>
     <row r="337" spans="1:7">
       <c r="B337" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C337" t="s">
         <v>40</v>
       </c>
       <c r="D337" s="6" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F337" s="4">
         <v>1</v>
@@ -9728,13 +9722,13 @@
     </row>
     <row r="338" spans="1:7">
       <c r="B338" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C338" t="s">
         <v>40</v>
       </c>
       <c r="D338" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F338" s="4">
         <v>1</v>
@@ -9745,10 +9739,10 @@
     </row>
     <row r="339" spans="1:7">
       <c r="A339" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C339" t="s">
         <v>30</v>
@@ -9762,10 +9756,10 @@
     </row>
     <row r="340" spans="1:7">
       <c r="A340" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C340" t="s">
         <v>30</v>
@@ -9779,10 +9773,10 @@
     </row>
     <row r="341" spans="1:7">
       <c r="A341" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C341" t="s">
         <v>30</v>
@@ -9796,10 +9790,10 @@
     </row>
     <row r="342" spans="1:7">
       <c r="A342" t="s">
+        <v>543</v>
+      </c>
+      <c r="B342" s="3" t="s">
         <v>545</v>
-      </c>
-      <c r="B342" s="3" t="s">
-        <v>547</v>
       </c>
       <c r="C342" t="s">
         <v>30</v>
@@ -9813,10 +9807,10 @@
     </row>
     <row r="343" spans="1:7">
       <c r="A343" t="s">
+        <v>544</v>
+      </c>
+      <c r="B343" s="3" t="s">
         <v>546</v>
-      </c>
-      <c r="B343" s="3" t="s">
-        <v>548</v>
       </c>
       <c r="C343" t="s">
         <v>30</v>
@@ -9830,7 +9824,7 @@
     </row>
     <row r="344" spans="1:7">
       <c r="B344" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C344" t="s">
         <v>30</v>
@@ -9844,7 +9838,7 @@
     </row>
     <row r="345" spans="1:7">
       <c r="B345" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C345" t="s">
         <v>30</v>
@@ -9858,7 +9852,7 @@
     </row>
     <row r="346" spans="1:7">
       <c r="B346" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C346" t="s">
         <v>30</v>
@@ -9872,7 +9866,7 @@
     </row>
     <row r="347" spans="1:7">
       <c r="B347" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C347" t="s">
         <v>30</v>
@@ -9886,7 +9880,7 @@
     </row>
     <row r="348" spans="1:7">
       <c r="B348" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C348" t="s">
         <v>30</v>
@@ -9900,7 +9894,7 @@
     </row>
     <row r="349" spans="1:7">
       <c r="B349" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C349" t="s">
         <v>30</v>
@@ -9914,13 +9908,13 @@
     </row>
     <row r="350" spans="1:7">
       <c r="B350" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C350" t="s">
         <v>40</v>
       </c>
       <c r="D350" s="6" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F350" s="4">
         <v>1</v>
@@ -9931,10 +9925,10 @@
     </row>
     <row r="351" spans="1:7" ht="30">
       <c r="A351" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C351" t="s">
         <v>30</v>
@@ -9948,10 +9942,10 @@
     </row>
     <row r="352" spans="1:7">
       <c r="A352" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C352" t="s">
         <v>30</v>
@@ -9965,10 +9959,10 @@
     </row>
     <row r="353" spans="1:7">
       <c r="A353" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C353" t="s">
         <v>30</v>
@@ -9982,10 +9976,10 @@
     </row>
     <row r="354" spans="1:7">
       <c r="A354" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C354" t="s">
         <v>30</v>
@@ -9999,10 +9993,10 @@
     </row>
     <row r="355" spans="1:7">
       <c r="A355" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C355" t="s">
         <v>30</v>
@@ -10016,10 +10010,10 @@
     </row>
     <row r="356" spans="1:7">
       <c r="A356" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C356" t="s">
         <v>30</v>
@@ -10033,10 +10027,10 @@
     </row>
     <row r="357" spans="1:7">
       <c r="A357" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C357" t="s">
         <v>30</v>
@@ -10050,10 +10044,10 @@
     </row>
     <row r="358" spans="1:7">
       <c r="A358" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C358" t="s">
         <v>30</v>
@@ -10067,10 +10061,10 @@
     </row>
     <row r="359" spans="1:7">
       <c r="A359" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C359" t="s">
         <v>30</v>
@@ -10084,10 +10078,10 @@
     </row>
     <row r="360" spans="1:7">
       <c r="A360" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C360" t="s">
         <v>30</v>
@@ -10101,10 +10095,10 @@
     </row>
     <row r="361" spans="1:7">
       <c r="A361" t="s">
+        <v>575</v>
+      </c>
+      <c r="B361" s="3" t="s">
         <v>577</v>
-      </c>
-      <c r="B361" s="3" t="s">
-        <v>579</v>
       </c>
       <c r="C361" t="s">
         <v>30</v>
@@ -10118,10 +10112,10 @@
     </row>
     <row r="362" spans="1:7">
       <c r="A362" t="s">
+        <v>576</v>
+      </c>
+      <c r="B362" s="3" t="s">
         <v>578</v>
-      </c>
-      <c r="B362" s="3" t="s">
-        <v>580</v>
       </c>
       <c r="C362" t="s">
         <v>30</v>
@@ -10135,7 +10129,7 @@
     </row>
     <row r="363" spans="1:7">
       <c r="B363" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C363" t="s">
         <v>30</v>
@@ -10149,10 +10143,10 @@
     </row>
     <row r="364" spans="1:7">
       <c r="A364" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C364" t="s">
         <v>30</v>
@@ -10166,10 +10160,10 @@
     </row>
     <row r="365" spans="1:7">
       <c r="A365" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C365" t="s">
         <v>30</v>
@@ -10183,10 +10177,10 @@
     </row>
     <row r="366" spans="1:7">
       <c r="A366" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C366" t="s">
         <v>30</v>
@@ -10200,10 +10194,10 @@
     </row>
     <row r="367" spans="1:7">
       <c r="A367" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C367" t="s">
         <v>30</v>
@@ -10217,10 +10211,10 @@
     </row>
     <row r="368" spans="1:7">
       <c r="A368" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C368" t="s">
         <v>30</v>
@@ -10234,10 +10228,10 @@
     </row>
     <row r="369" spans="1:7">
       <c r="A369" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C369" t="s">
         <v>30</v>
@@ -10251,10 +10245,10 @@
     </row>
     <row r="370" spans="1:7">
       <c r="A370" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C370" t="s">
         <v>30</v>
@@ -10268,10 +10262,10 @@
     </row>
     <row r="371" spans="1:7">
       <c r="A371" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C371" t="s">
         <v>30</v>
@@ -10285,10 +10279,10 @@
     </row>
     <row r="372" spans="1:7">
       <c r="A372" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C372" t="s">
         <v>30</v>
@@ -10302,10 +10296,10 @@
     </row>
     <row r="373" spans="1:7">
       <c r="A373" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C373" t="s">
         <v>30</v>
@@ -10319,10 +10313,10 @@
     </row>
     <row r="374" spans="1:7">
       <c r="A374" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C374" t="s">
         <v>30</v>
@@ -10336,10 +10330,10 @@
     </row>
     <row r="375" spans="1:7">
       <c r="A375" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C375" t="s">
         <v>30</v>
@@ -10353,10 +10347,10 @@
     </row>
     <row r="376" spans="1:7">
       <c r="A376" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C376" t="s">
         <v>30</v>
@@ -10370,10 +10364,10 @@
     </row>
     <row r="377" spans="1:7">
       <c r="A377" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C377" t="s">
         <v>30</v>
@@ -10387,10 +10381,10 @@
     </row>
     <row r="378" spans="1:7">
       <c r="A378" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C378" t="s">
         <v>30</v>
@@ -10404,10 +10398,10 @@
     </row>
     <row r="379" spans="1:7">
       <c r="A379" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C379" t="s">
         <v>30</v>
@@ -10421,10 +10415,10 @@
     </row>
     <row r="380" spans="1:7">
       <c r="A380" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C380" t="s">
         <v>30</v>
@@ -10438,21 +10432,21 @@
     </row>
     <row r="381" spans="1:7">
       <c r="B381" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C381" t="s">
         <v>40</v>
       </c>
       <c r="D381" s="6" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="382" spans="1:7">
       <c r="A382" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C382" t="s">
         <v>30</v>
@@ -10466,32 +10460,32 @@
     </row>
     <row r="383" spans="1:7">
       <c r="B383" s="3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C383" t="s">
         <v>40</v>
       </c>
       <c r="D383" s="6" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="384" spans="1:7">
       <c r="B384" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C384" t="s">
         <v>40</v>
       </c>
       <c r="D384" s="6" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="385" spans="1:7">
       <c r="A385" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C385" t="s">
         <v>30</v>
@@ -10505,18 +10499,18 @@
     </row>
     <row r="386" spans="1:7">
       <c r="B386" s="3" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C386" t="s">
         <v>40</v>
       </c>
       <c r="D386" s="6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="387" spans="1:7">
       <c r="B387" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C387" t="s">
         <v>30</v>
@@ -10530,10 +10524,10 @@
     </row>
     <row r="388" spans="1:7">
       <c r="A388" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C388" t="s">
         <v>30</v>
@@ -10547,24 +10541,24 @@
     </row>
     <row r="389" spans="1:7">
       <c r="A389" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C389" t="s">
         <v>40</v>
       </c>
       <c r="D389" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="390" spans="1:7">
       <c r="A390" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C390" t="s">
         <v>30</v>
@@ -10578,10 +10572,10 @@
     </row>
     <row r="391" spans="1:7" ht="30">
       <c r="A391" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C391" t="s">
         <v>30</v>
@@ -10595,10 +10589,10 @@
     </row>
     <row r="392" spans="1:7" ht="30">
       <c r="A392" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C392" t="s">
         <v>30</v>
@@ -10612,10 +10606,10 @@
     </row>
     <row r="393" spans="1:7" ht="30">
       <c r="A393" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C393" t="s">
         <v>30</v>
@@ -10629,10 +10623,10 @@
     </row>
     <row r="394" spans="1:7" ht="30">
       <c r="A394" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C394" t="s">
         <v>30</v>
@@ -10646,10 +10640,10 @@
     </row>
     <row r="395" spans="1:7">
       <c r="A395" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C395" t="s">
         <v>30</v>
@@ -10663,10 +10657,10 @@
     </row>
     <row r="396" spans="1:7">
       <c r="A396" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C396" t="s">
         <v>30</v>
@@ -10680,10 +10674,10 @@
     </row>
     <row r="397" spans="1:7">
       <c r="A397" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C397" t="s">
         <v>30</v>
@@ -10697,10 +10691,10 @@
     </row>
     <row r="398" spans="1:7">
       <c r="A398" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C398" t="s">
         <v>30</v>
@@ -10714,10 +10708,10 @@
     </row>
     <row r="399" spans="1:7">
       <c r="A399" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C399" t="s">
         <v>30</v>
@@ -10731,10 +10725,10 @@
     </row>
     <row r="400" spans="1:7">
       <c r="A400" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C400" t="s">
         <v>30</v>
@@ -10748,10 +10742,10 @@
     </row>
     <row r="401" spans="1:7">
       <c r="A401" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C401" t="s">
         <v>30</v>
@@ -10765,10 +10759,10 @@
     </row>
     <row r="402" spans="1:7">
       <c r="A402" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C402" t="s">
         <v>30</v>
@@ -10782,10 +10776,10 @@
     </row>
     <row r="403" spans="1:7">
       <c r="A403" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C403" t="s">
         <v>30</v>
@@ -10799,10 +10793,10 @@
     </row>
     <row r="404" spans="1:7">
       <c r="A404" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C404" t="s">
         <v>30</v>
@@ -10816,10 +10810,10 @@
     </row>
     <row r="405" spans="1:7">
       <c r="A405" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C405" t="s">
         <v>30</v>
@@ -10833,10 +10827,10 @@
     </row>
     <row r="406" spans="1:7">
       <c r="A406" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C406" t="s">
         <v>30</v>
@@ -10850,10 +10844,10 @@
     </row>
     <row r="407" spans="1:7">
       <c r="A407" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C407" t="s">
         <v>30</v>
@@ -10867,10 +10861,10 @@
     </row>
     <row r="408" spans="1:7">
       <c r="A408" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C408" t="s">
         <v>30</v>
@@ -10884,10 +10878,10 @@
     </row>
     <row r="409" spans="1:7">
       <c r="A409" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C409" t="s">
         <v>30</v>
@@ -10901,21 +10895,21 @@
     </row>
     <row r="410" spans="1:7">
       <c r="B410" s="3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C410" t="s">
         <v>40</v>
       </c>
       <c r="D410" s="6" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="411" spans="1:7">
       <c r="A411" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C411" t="s">
         <v>30</v>
@@ -10929,7 +10923,7 @@
     </row>
     <row r="412" spans="1:7" ht="30">
       <c r="B412" s="3" t="s">
-        <v>672</v>
+        <v>1216</v>
       </c>
       <c r="C412" t="s">
         <v>30</v>
@@ -10943,10 +10937,10 @@
     </row>
     <row r="413" spans="1:7">
       <c r="A413" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C413" t="s">
         <v>30</v>
@@ -10960,10 +10954,10 @@
     </row>
     <row r="414" spans="1:7">
       <c r="A414" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C414" t="s">
         <v>30</v>
@@ -10977,10 +10971,10 @@
     </row>
     <row r="415" spans="1:7">
       <c r="A415" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C415" t="s">
         <v>30</v>
@@ -10994,10 +10988,10 @@
     </row>
     <row r="416" spans="1:7">
       <c r="A416" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C416" t="s">
         <v>30</v>
@@ -11011,10 +11005,10 @@
     </row>
     <row r="417" spans="1:7">
       <c r="A417" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C417" t="s">
         <v>30</v>
@@ -11028,10 +11022,10 @@
     </row>
     <row r="418" spans="1:7">
       <c r="A418" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C418" t="s">
         <v>30</v>
@@ -11045,32 +11039,32 @@
     </row>
     <row r="419" spans="1:7">
       <c r="B419" s="3" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C419" t="s">
         <v>40</v>
       </c>
       <c r="D419" s="6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="420" spans="1:7">
       <c r="B420" s="3" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C420" t="s">
         <v>40</v>
       </c>
       <c r="D420" s="6" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="421" spans="1:7">
       <c r="A421" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C421" t="s">
         <v>30</v>
@@ -11084,10 +11078,10 @@
     </row>
     <row r="422" spans="1:7">
       <c r="A422" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C422" t="s">
         <v>30</v>
@@ -11101,10 +11095,10 @@
     </row>
     <row r="423" spans="1:7">
       <c r="A423" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C423" t="s">
         <v>30</v>
@@ -11118,10 +11112,10 @@
     </row>
     <row r="424" spans="1:7">
       <c r="A424" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C424" t="s">
         <v>30</v>
@@ -11135,10 +11129,10 @@
     </row>
     <row r="425" spans="1:7">
       <c r="A425" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C425" t="s">
         <v>30</v>
@@ -11152,10 +11146,10 @@
     </row>
     <row r="426" spans="1:7">
       <c r="A426" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C426" t="s">
         <v>30</v>
@@ -11169,10 +11163,10 @@
     </row>
     <row r="427" spans="1:7">
       <c r="A427" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C427" t="s">
         <v>30</v>
@@ -11186,10 +11180,10 @@
     </row>
     <row r="428" spans="1:7">
       <c r="A428" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C428" t="s">
         <v>30</v>
@@ -11203,10 +11197,10 @@
     </row>
     <row r="429" spans="1:7">
       <c r="A429" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C429" t="s">
         <v>30</v>
@@ -11220,7 +11214,7 @@
     </row>
     <row r="430" spans="1:7">
       <c r="B430" s="3" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C430" t="s">
         <v>30</v>
@@ -11234,7 +11228,7 @@
     </row>
     <row r="431" spans="1:7">
       <c r="B431" s="3" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C431" t="s">
         <v>30</v>
@@ -11248,7 +11242,7 @@
     </row>
     <row r="432" spans="1:7">
       <c r="B432" s="3" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C432" t="s">
         <v>30</v>
@@ -11262,7 +11256,7 @@
     </row>
     <row r="433" spans="1:7">
       <c r="B433" s="3" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C433" t="s">
         <v>30</v>
@@ -11276,7 +11270,7 @@
     </row>
     <row r="434" spans="1:7">
       <c r="B434" s="3" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C434" t="s">
         <v>30</v>
@@ -11290,7 +11284,7 @@
     </row>
     <row r="435" spans="1:7">
       <c r="B435" s="3" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C435" t="s">
         <v>30</v>
@@ -11304,7 +11298,7 @@
     </row>
     <row r="436" spans="1:7">
       <c r="B436" s="3" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C436" t="s">
         <v>30</v>
@@ -11318,7 +11312,7 @@
     </row>
     <row r="437" spans="1:7">
       <c r="B437" s="3" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C437" t="s">
         <v>30</v>
@@ -11332,7 +11326,7 @@
     </row>
     <row r="438" spans="1:7">
       <c r="B438" s="3" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C438" t="s">
         <v>30</v>
@@ -11346,7 +11340,7 @@
     </row>
     <row r="439" spans="1:7">
       <c r="B439" s="3" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C439" t="s">
         <v>30</v>
@@ -11360,7 +11354,7 @@
     </row>
     <row r="440" spans="1:7">
       <c r="B440" s="3" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C440" t="s">
         <v>30</v>
@@ -11374,7 +11368,7 @@
     </row>
     <row r="441" spans="1:7">
       <c r="B441" s="3" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C441" t="s">
         <v>30</v>
@@ -11388,7 +11382,7 @@
     </row>
     <row r="442" spans="1:7">
       <c r="B442" s="3" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C442" t="s">
         <v>30</v>
@@ -11402,10 +11396,10 @@
     </row>
     <row r="443" spans="1:7">
       <c r="A443" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C443" t="s">
         <v>30</v>
@@ -11419,10 +11413,10 @@
     </row>
     <row r="444" spans="1:7">
       <c r="A444" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C444" t="s">
         <v>30</v>
@@ -11436,10 +11430,10 @@
     </row>
     <row r="445" spans="1:7">
       <c r="A445" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C445" t="s">
         <v>30</v>
@@ -11453,10 +11447,10 @@
     </row>
     <row r="446" spans="1:7">
       <c r="A446" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C446" t="s">
         <v>30</v>
@@ -11470,10 +11464,10 @@
     </row>
     <row r="447" spans="1:7">
       <c r="A447" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C447" t="s">
         <v>30</v>
@@ -11487,10 +11481,10 @@
     </row>
     <row r="448" spans="1:7">
       <c r="A448" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C448" t="s">
         <v>30</v>
@@ -11504,10 +11498,10 @@
     </row>
     <row r="449" spans="1:7">
       <c r="A449" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C449" t="s">
         <v>30</v>
@@ -11521,10 +11515,10 @@
     </row>
     <row r="450" spans="1:7">
       <c r="A450" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C450" t="s">
         <v>30</v>
@@ -11538,10 +11532,10 @@
     </row>
     <row r="451" spans="1:7">
       <c r="A451" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C451" t="s">
         <v>30</v>
@@ -11555,10 +11549,10 @@
     </row>
     <row r="452" spans="1:7">
       <c r="A452" t="s">
+        <v>732</v>
+      </c>
+      <c r="B452" s="3" t="s">
         <v>735</v>
-      </c>
-      <c r="B452" s="3" t="s">
-        <v>738</v>
       </c>
       <c r="C452" t="s">
         <v>30</v>
@@ -11572,10 +11566,10 @@
     </row>
     <row r="453" spans="1:7">
       <c r="A453" t="s">
+        <v>733</v>
+      </c>
+      <c r="B453" s="3" t="s">
         <v>736</v>
-      </c>
-      <c r="B453" s="3" t="s">
-        <v>739</v>
       </c>
       <c r="C453" t="s">
         <v>30</v>
@@ -11589,10 +11583,10 @@
     </row>
     <row r="454" spans="1:7">
       <c r="A454" t="s">
+        <v>734</v>
+      </c>
+      <c r="B454" s="3" t="s">
         <v>737</v>
-      </c>
-      <c r="B454" s="3" t="s">
-        <v>740</v>
       </c>
       <c r="C454" t="s">
         <v>30</v>
@@ -11606,10 +11600,10 @@
     </row>
     <row r="455" spans="1:7">
       <c r="A455" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C455" t="s">
         <v>30</v>
@@ -11623,21 +11617,21 @@
     </row>
     <row r="456" spans="1:7">
       <c r="B456" s="3" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C456" t="s">
         <v>40</v>
       </c>
       <c r="D456" s="6" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="457" spans="1:7">
       <c r="A457" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C457" t="s">
         <v>30</v>
@@ -11651,10 +11645,10 @@
     </row>
     <row r="458" spans="1:7">
       <c r="A458" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C458" t="s">
         <v>30</v>
@@ -11668,7 +11662,7 @@
     </row>
     <row r="459" spans="1:7">
       <c r="B459" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C459" t="s">
         <v>30</v>
@@ -11682,7 +11676,7 @@
     </row>
     <row r="460" spans="1:7">
       <c r="B460" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C460" t="s">
         <v>30</v>
@@ -11696,18 +11690,18 @@
     </row>
     <row r="461" spans="1:7">
       <c r="B461" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C461" t="s">
         <v>40</v>
       </c>
       <c r="D461" s="6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="462" spans="1:7">
       <c r="B462" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C462" t="s">
         <v>30</v>
@@ -11721,10 +11715,10 @@
     </row>
     <row r="463" spans="1:7">
       <c r="A463" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C463" t="s">
         <v>30</v>
@@ -11738,10 +11732,10 @@
     </row>
     <row r="464" spans="1:7">
       <c r="A464" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C464" t="s">
         <v>30</v>
@@ -11755,10 +11749,10 @@
     </row>
     <row r="465" spans="1:7">
       <c r="A465" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C465" t="s">
         <v>30</v>
@@ -11772,10 +11766,10 @@
     </row>
     <row r="466" spans="1:7">
       <c r="A466" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C466" t="s">
         <v>30</v>
@@ -11789,10 +11783,10 @@
     </row>
     <row r="467" spans="1:7">
       <c r="A467" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C467" t="s">
         <v>30</v>
@@ -11806,10 +11800,10 @@
     </row>
     <row r="468" spans="1:7">
       <c r="A468" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C468" t="s">
         <v>30</v>
@@ -11823,10 +11817,10 @@
     </row>
     <row r="469" spans="1:7">
       <c r="A469" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C469" t="s">
         <v>30</v>
@@ -11840,10 +11834,10 @@
     </row>
     <row r="470" spans="1:7">
       <c r="A470" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C470" t="s">
         <v>30</v>
@@ -11857,10 +11851,10 @@
     </row>
     <row r="471" spans="1:7">
       <c r="A471" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C471" t="s">
         <v>30</v>
@@ -11874,10 +11868,10 @@
     </row>
     <row r="472" spans="1:7">
       <c r="A472" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C472" t="s">
         <v>30</v>
@@ -11891,10 +11885,10 @@
     </row>
     <row r="473" spans="1:7">
       <c r="A473" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C473" t="s">
         <v>30</v>
@@ -11908,10 +11902,10 @@
     </row>
     <row r="474" spans="1:7">
       <c r="A474" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C474" t="s">
         <v>30</v>
@@ -11925,10 +11919,10 @@
     </row>
     <row r="475" spans="1:7">
       <c r="A475" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C475" t="s">
         <v>30</v>
@@ -11942,10 +11936,10 @@
     </row>
     <row r="476" spans="1:7" ht="30">
       <c r="A476" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C476" t="s">
         <v>30</v>
@@ -11959,10 +11953,10 @@
     </row>
     <row r="477" spans="1:7" ht="30">
       <c r="A477" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C477" t="s">
         <v>30</v>
@@ -11976,10 +11970,10 @@
     </row>
     <row r="478" spans="1:7">
       <c r="A478" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C478" t="s">
         <v>30</v>
@@ -11993,10 +11987,10 @@
     </row>
     <row r="479" spans="1:7">
       <c r="A479" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C479" t="s">
         <v>30</v>
@@ -12010,7 +12004,7 @@
     </row>
     <row r="480" spans="1:7">
       <c r="B480" s="3" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C480" t="s">
         <v>30</v>
@@ -12024,10 +12018,10 @@
     </row>
     <row r="481" spans="1:7">
       <c r="A481" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C481" t="s">
         <v>30</v>
@@ -12041,10 +12035,10 @@
     </row>
     <row r="482" spans="1:7">
       <c r="A482" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C482" t="s">
         <v>30</v>
@@ -12058,10 +12052,10 @@
     </row>
     <row r="483" spans="1:7">
       <c r="A483" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C483" t="s">
         <v>30</v>
@@ -12075,10 +12069,10 @@
     </row>
     <row r="484" spans="1:7">
       <c r="A484" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C484" t="s">
         <v>30</v>
@@ -12092,10 +12086,10 @@
     </row>
     <row r="485" spans="1:7">
       <c r="A485" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C485" t="s">
         <v>30</v>
@@ -12109,10 +12103,10 @@
     </row>
     <row r="486" spans="1:7">
       <c r="A486" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C486" t="s">
         <v>30</v>
@@ -12126,16 +12120,16 @@
     </row>
     <row r="487" spans="1:7">
       <c r="A487" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C487" t="s">
         <v>40</v>
       </c>
       <c r="D487" s="6" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="F487" s="4">
         <v>1</v>
@@ -12146,16 +12140,16 @@
     </row>
     <row r="488" spans="1:7">
       <c r="A488" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C488" t="s">
         <v>40</v>
       </c>
       <c r="D488" s="6" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="F488" s="4">
         <v>1</v>
@@ -12166,16 +12160,16 @@
     </row>
     <row r="489" spans="1:7">
       <c r="A489" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C489" t="s">
         <v>40</v>
       </c>
       <c r="D489" s="6" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="F489" s="4">
         <v>1</v>
@@ -12186,16 +12180,16 @@
     </row>
     <row r="490" spans="1:7">
       <c r="A490" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C490" t="s">
         <v>40</v>
       </c>
       <c r="D490" s="6" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="F490" s="4">
         <v>1</v>
@@ -12206,10 +12200,10 @@
     </row>
     <row r="491" spans="1:7">
       <c r="A491" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C491" t="s">
         <v>30</v>
@@ -12223,7 +12217,7 @@
     </row>
     <row r="492" spans="1:7">
       <c r="B492" s="3" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C492" t="s">
         <v>30</v>
@@ -12237,7 +12231,7 @@
     </row>
     <row r="493" spans="1:7">
       <c r="B493" s="3" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="C493" t="s">
         <v>30</v>
@@ -12251,7 +12245,7 @@
     </row>
     <row r="494" spans="1:7">
       <c r="B494" s="3" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C494" t="s">
         <v>30</v>
@@ -12265,10 +12259,10 @@
     </row>
     <row r="495" spans="1:7">
       <c r="A495" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C495" t="s">
         <v>30</v>
@@ -12282,10 +12276,10 @@
     </row>
     <row r="496" spans="1:7">
       <c r="A496" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C496" t="s">
         <v>30</v>
@@ -12299,10 +12293,10 @@
     </row>
     <row r="497" spans="1:7">
       <c r="A497" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C497" t="s">
         <v>30</v>
@@ -12316,10 +12310,10 @@
     </row>
     <row r="498" spans="1:7">
       <c r="A498" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C498" t="s">
         <v>30</v>
@@ -12333,10 +12327,10 @@
     </row>
     <row r="499" spans="1:7">
       <c r="A499" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C499" t="s">
         <v>30</v>
@@ -12350,10 +12344,10 @@
     </row>
     <row r="500" spans="1:7">
       <c r="A500" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C500" t="s">
         <v>30</v>
@@ -12367,10 +12361,10 @@
     </row>
     <row r="501" spans="1:7">
       <c r="A501" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C501" t="s">
         <v>30</v>
@@ -12384,10 +12378,10 @@
     </row>
     <row r="502" spans="1:7">
       <c r="A502" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C502" t="s">
         <v>30</v>
@@ -12401,10 +12395,10 @@
     </row>
     <row r="503" spans="1:7">
       <c r="A503" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C503" t="s">
         <v>30</v>
@@ -12418,7 +12412,7 @@
     </row>
     <row r="504" spans="1:7">
       <c r="B504" s="3" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C504" t="s">
         <v>30</v>
@@ -12432,10 +12426,10 @@
     </row>
     <row r="505" spans="1:7">
       <c r="A505" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C505" t="s">
         <v>30</v>
@@ -12449,10 +12443,10 @@
     </row>
     <row r="506" spans="1:7">
       <c r="A506" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C506" t="s">
         <v>30</v>
@@ -12466,10 +12460,10 @@
     </row>
     <row r="507" spans="1:7">
       <c r="A507" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C507" t="s">
         <v>30</v>
@@ -12483,10 +12477,10 @@
     </row>
     <row r="508" spans="1:7">
       <c r="A508" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="B508" s="3" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C508" t="s">
         <v>30</v>
@@ -12500,10 +12494,10 @@
     </row>
     <row r="509" spans="1:7">
       <c r="A509" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C509" t="s">
         <v>30</v>
@@ -12517,10 +12511,10 @@
     </row>
     <row r="510" spans="1:7">
       <c r="A510" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C510" t="s">
         <v>30</v>
@@ -12534,13 +12528,13 @@
     </row>
     <row r="511" spans="1:7">
       <c r="B511" s="3" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C511" t="s">
         <v>40</v>
       </c>
       <c r="D511" s="6" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F511" s="4">
         <v>1</v>
@@ -12551,10 +12545,10 @@
     </row>
     <row r="512" spans="1:7">
       <c r="A512" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="C512" t="s">
         <v>30</v>
@@ -12568,10 +12562,10 @@
     </row>
     <row r="513" spans="1:7" ht="30">
       <c r="A513" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="C513" t="s">
         <v>30</v>
@@ -12585,10 +12579,10 @@
     </row>
     <row r="514" spans="1:7">
       <c r="A514" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="C514" t="s">
         <v>30</v>
@@ -12602,10 +12596,10 @@
     </row>
     <row r="515" spans="1:7">
       <c r="A515" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="C515" t="s">
         <v>30</v>
@@ -12619,10 +12613,10 @@
     </row>
     <row r="516" spans="1:7">
       <c r="A516" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="C516" t="s">
         <v>30</v>
@@ -12634,12 +12628,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:7">
+    <row r="517" spans="1:7" ht="30">
       <c r="A517" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="C517" t="s">
         <v>30</v>
@@ -12651,12 +12645,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:7" ht="30">
+    <row r="518" spans="1:7">
       <c r="A518" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="C518" t="s">
         <v>30</v>
@@ -12670,10 +12664,10 @@
     </row>
     <row r="519" spans="1:7">
       <c r="A519" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="C519" t="s">
         <v>30</v>
@@ -12685,12 +12679,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:7">
+    <row r="520" spans="1:7" ht="30">
       <c r="A520" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C520" t="s">
         <v>30</v>
@@ -12702,12 +12696,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:7" ht="30">
+    <row r="521" spans="1:7">
       <c r="A521" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="C521" t="s">
         <v>30</v>
@@ -12721,10 +12715,10 @@
     </row>
     <row r="522" spans="1:7">
       <c r="A522" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="C522" t="s">
         <v>30</v>
@@ -12738,10 +12732,10 @@
     </row>
     <row r="523" spans="1:7">
       <c r="A523" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C523" t="s">
         <v>30</v>
@@ -12754,11 +12748,8 @@
       </c>
     </row>
     <row r="524" spans="1:7">
-      <c r="A524" t="s">
-        <v>864</v>
-      </c>
       <c r="B524" s="3" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="C524" t="s">
         <v>30</v>
@@ -12772,7 +12763,7 @@
     </row>
     <row r="525" spans="1:7">
       <c r="B525" s="3" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="C525" t="s">
         <v>30</v>
@@ -12786,7 +12777,7 @@
     </row>
     <row r="526" spans="1:7">
       <c r="B526" s="3" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="C526" t="s">
         <v>30</v>
@@ -12800,7 +12791,7 @@
     </row>
     <row r="527" spans="1:7">
       <c r="B527" s="3" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="C527" t="s">
         <v>30</v>
@@ -12814,7 +12805,7 @@
     </row>
     <row r="528" spans="1:7">
       <c r="B528" s="3" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="C528" t="s">
         <v>30</v>
@@ -12828,7 +12819,7 @@
     </row>
     <row r="529" spans="1:7">
       <c r="B529" s="3" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="C529" t="s">
         <v>30</v>
@@ -12842,7 +12833,7 @@
     </row>
     <row r="530" spans="1:7">
       <c r="B530" s="3" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="C530" t="s">
         <v>30</v>
@@ -12856,7 +12847,7 @@
     </row>
     <row r="531" spans="1:7">
       <c r="B531" s="3" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="C531" t="s">
         <v>30</v>
@@ -12870,7 +12861,7 @@
     </row>
     <row r="532" spans="1:7">
       <c r="B532" s="3" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="C532" t="s">
         <v>30</v>
@@ -12884,7 +12875,7 @@
     </row>
     <row r="533" spans="1:7">
       <c r="B533" s="3" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="C533" t="s">
         <v>30</v>
@@ -12898,7 +12889,7 @@
     </row>
     <row r="534" spans="1:7">
       <c r="B534" s="3" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="C534" t="s">
         <v>30</v>
@@ -12911,8 +12902,11 @@
       </c>
     </row>
     <row r="535" spans="1:7">
+      <c r="A535" t="s">
+        <v>872</v>
+      </c>
       <c r="B535" s="3" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="C535" t="s">
         <v>30</v>
@@ -12926,10 +12920,10 @@
     </row>
     <row r="536" spans="1:7">
       <c r="A536" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="C536" t="s">
         <v>30</v>
@@ -12942,11 +12936,8 @@
       </c>
     </row>
     <row r="537" spans="1:7">
-      <c r="A537" t="s">
-        <v>887</v>
-      </c>
       <c r="B537" s="3" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="C537" t="s">
         <v>30</v>
@@ -12960,7 +12951,7 @@
     </row>
     <row r="538" spans="1:7">
       <c r="B538" s="3" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="C538" t="s">
         <v>30</v>
@@ -12974,7 +12965,7 @@
     </row>
     <row r="539" spans="1:7">
       <c r="B539" s="3" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="C539" t="s">
         <v>30</v>
@@ -12987,8 +12978,11 @@
       </c>
     </row>
     <row r="540" spans="1:7">
+      <c r="A540" t="s">
+        <v>883</v>
+      </c>
       <c r="B540" s="3" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="C540" t="s">
         <v>30</v>
@@ -13001,11 +12995,8 @@
       </c>
     </row>
     <row r="541" spans="1:7">
-      <c r="A541" t="s">
-        <v>888</v>
-      </c>
       <c r="B541" s="3" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="C541" t="s">
         <v>30</v>
@@ -13019,7 +13010,7 @@
     </row>
     <row r="542" spans="1:7">
       <c r="B542" s="3" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="C542" t="s">
         <v>30</v>
@@ -13033,38 +13024,38 @@
     </row>
     <row r="543" spans="1:7">
       <c r="B543" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="C543" t="s">
+        <v>30</v>
+      </c>
+      <c r="F543" s="4">
+        <v>1</v>
+      </c>
+      <c r="G543" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7">
+      <c r="A544" t="s">
+        <v>884</v>
+      </c>
+      <c r="B544" s="3" t="s">
         <v>885</v>
       </c>
-      <c r="C543" t="s">
-        <v>30</v>
-      </c>
-      <c r="F543" s="4">
-        <v>1</v>
-      </c>
-      <c r="G543" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="544" spans="1:7">
-      <c r="B544" s="3" t="s">
+      <c r="C544" t="s">
+        <v>30</v>
+      </c>
+      <c r="F544" s="4">
+        <v>1</v>
+      </c>
+      <c r="G544" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7">
+      <c r="B545" s="3" t="s">
         <v>886</v>
-      </c>
-      <c r="C544" t="s">
-        <v>30</v>
-      </c>
-      <c r="F544" s="4">
-        <v>1</v>
-      </c>
-      <c r="G544" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="545" spans="1:7">
-      <c r="A545" t="s">
-        <v>889</v>
-      </c>
-      <c r="B545" s="3" t="s">
-        <v>890</v>
       </c>
       <c r="C545" t="s">
         <v>30</v>
@@ -13078,7 +13069,7 @@
     </row>
     <row r="546" spans="1:7">
       <c r="B546" s="3" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="C546" t="s">
         <v>30</v>
@@ -13092,7 +13083,7 @@
     </row>
     <row r="547" spans="1:7">
       <c r="B547" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="C547" t="s">
         <v>30</v>
@@ -13105,8 +13096,11 @@
       </c>
     </row>
     <row r="548" spans="1:7">
+      <c r="A548" t="s">
+        <v>889</v>
+      </c>
       <c r="B548" s="3" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C548" t="s">
         <v>30</v>
@@ -13119,11 +13113,8 @@
       </c>
     </row>
     <row r="549" spans="1:7">
-      <c r="A549" t="s">
-        <v>894</v>
-      </c>
       <c r="B549" s="3" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="C549" t="s">
         <v>30</v>
@@ -13137,7 +13128,7 @@
     </row>
     <row r="550" spans="1:7">
       <c r="B550" s="3" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="C550" t="s">
         <v>30</v>
@@ -13151,7 +13142,7 @@
     </row>
     <row r="551" spans="1:7">
       <c r="B551" s="3" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="C551" t="s">
         <v>30</v>
@@ -13164,8 +13155,11 @@
       </c>
     </row>
     <row r="552" spans="1:7">
+      <c r="A552" t="s">
+        <v>894</v>
+      </c>
       <c r="B552" s="3" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C552" t="s">
         <v>30</v>
@@ -13178,11 +13172,8 @@
       </c>
     </row>
     <row r="553" spans="1:7">
-      <c r="A553" t="s">
-        <v>899</v>
-      </c>
       <c r="B553" s="3" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="C553" t="s">
         <v>30</v>
@@ -13196,7 +13187,7 @@
     </row>
     <row r="554" spans="1:7">
       <c r="B554" s="3" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="C554" t="s">
         <v>30</v>
@@ -13210,7 +13201,7 @@
     </row>
     <row r="555" spans="1:7">
       <c r="B555" s="3" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="C555" t="s">
         <v>30</v>
@@ -13224,10 +13215,13 @@
     </row>
     <row r="556" spans="1:7">
       <c r="B556" s="3" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="C556" t="s">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="D556" s="6" t="s">
+        <v>433</v>
       </c>
       <c r="F556" s="4">
         <v>1</v>
@@ -13238,13 +13232,13 @@
     </row>
     <row r="557" spans="1:7">
       <c r="B557" s="3" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="C557" t="s">
         <v>40</v>
       </c>
       <c r="D557" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F557" s="4">
         <v>1</v>
@@ -13254,14 +13248,14 @@
       </c>
     </row>
     <row r="558" spans="1:7">
+      <c r="A558" t="s">
+        <v>901</v>
+      </c>
       <c r="B558" s="3" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C558" t="s">
-        <v>40</v>
-      </c>
-      <c r="D558" s="6" t="s">
-        <v>435</v>
+        <v>30</v>
       </c>
       <c r="F558" s="4">
         <v>1</v>
@@ -13271,11 +13265,8 @@
       </c>
     </row>
     <row r="559" spans="1:7">
-      <c r="A559" t="s">
-        <v>906</v>
-      </c>
       <c r="B559" s="3" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="C559" t="s">
         <v>30</v>
@@ -13289,7 +13280,7 @@
     </row>
     <row r="560" spans="1:7">
       <c r="B560" s="3" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="C560" t="s">
         <v>30</v>
@@ -13303,7 +13294,7 @@
     </row>
     <row r="561" spans="1:7">
       <c r="B561" s="3" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="C561" t="s">
         <v>30</v>
@@ -13316,8 +13307,11 @@
       </c>
     </row>
     <row r="562" spans="1:7">
+      <c r="A562" t="s">
+        <v>906</v>
+      </c>
       <c r="B562" s="3" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="C562" t="s">
         <v>30</v>
@@ -13330,11 +13324,8 @@
       </c>
     </row>
     <row r="563" spans="1:7">
-      <c r="A563" t="s">
-        <v>911</v>
-      </c>
       <c r="B563" s="3" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="C563" t="s">
         <v>30</v>
@@ -13348,7 +13339,7 @@
     </row>
     <row r="564" spans="1:7">
       <c r="B564" s="3" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C564" t="s">
         <v>30</v>
@@ -13362,7 +13353,7 @@
     </row>
     <row r="565" spans="1:7">
       <c r="B565" s="3" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="C565" t="s">
         <v>30</v>
@@ -13376,7 +13367,7 @@
     </row>
     <row r="566" spans="1:7">
       <c r="B566" s="3" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="C566" t="s">
         <v>30</v>
@@ -13390,7 +13381,7 @@
     </row>
     <row r="567" spans="1:7">
       <c r="B567" s="3" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="C567" t="s">
         <v>30</v>
@@ -13404,7 +13395,7 @@
     </row>
     <row r="568" spans="1:7">
       <c r="B568" s="3" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="C568" t="s">
         <v>30</v>
@@ -13417,8 +13408,11 @@
       </c>
     </row>
     <row r="569" spans="1:7">
+      <c r="A569" t="s">
+        <v>914</v>
+      </c>
       <c r="B569" s="3" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C569" t="s">
         <v>30</v>
@@ -13432,10 +13426,10 @@
     </row>
     <row r="570" spans="1:7">
       <c r="A570" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B570" s="3" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C570" t="s">
         <v>30</v>
@@ -13448,11 +13442,8 @@
       </c>
     </row>
     <row r="571" spans="1:7">
-      <c r="A571" t="s">
-        <v>921</v>
-      </c>
       <c r="B571" s="3" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="C571" t="s">
         <v>30</v>
@@ -13466,7 +13457,7 @@
     </row>
     <row r="572" spans="1:7">
       <c r="B572" s="3" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C572" t="s">
         <v>30</v>
@@ -13480,7 +13471,7 @@
     </row>
     <row r="573" spans="1:7">
       <c r="B573" s="3" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="C573" t="s">
         <v>30</v>
@@ -13494,7 +13485,7 @@
     </row>
     <row r="574" spans="1:7">
       <c r="B574" s="3" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="C574" t="s">
         <v>30</v>
@@ -13508,7 +13499,7 @@
     </row>
     <row r="575" spans="1:7">
       <c r="B575" s="3" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="C575" t="s">
         <v>30</v>
@@ -13522,7 +13513,7 @@
     </row>
     <row r="576" spans="1:7">
       <c r="B576" s="3" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="C576" t="s">
         <v>30</v>
@@ -13536,10 +13527,13 @@
     </row>
     <row r="577" spans="1:7">
       <c r="B577" s="3" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="C577" t="s">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="D577" s="6" t="s">
+        <v>433</v>
       </c>
       <c r="F577" s="4">
         <v>1</v>
@@ -13550,13 +13544,13 @@
     </row>
     <row r="578" spans="1:7">
       <c r="B578" s="3" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="C578" t="s">
         <v>40</v>
       </c>
       <c r="D578" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F578" s="4">
         <v>1</v>
@@ -13566,14 +13560,14 @@
       </c>
     </row>
     <row r="579" spans="1:7">
+      <c r="A579" t="s">
+        <v>926</v>
+      </c>
       <c r="B579" s="3" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C579" t="s">
-        <v>40</v>
-      </c>
-      <c r="D579" s="6" t="s">
-        <v>435</v>
+        <v>30</v>
       </c>
       <c r="F579" s="4">
         <v>1</v>
@@ -13583,11 +13577,8 @@
       </c>
     </row>
     <row r="580" spans="1:7">
-      <c r="A580" t="s">
-        <v>931</v>
-      </c>
       <c r="B580" s="3" t="s">
-        <v>932</v>
+        <v>937</v>
       </c>
       <c r="C580" t="s">
         <v>30</v>
@@ -13601,7 +13592,7 @@
     </row>
     <row r="581" spans="1:7">
       <c r="B581" s="3" t="s">
-        <v>942</v>
+        <v>947</v>
       </c>
       <c r="C581" t="s">
         <v>30</v>
@@ -13615,7 +13606,7 @@
     </row>
     <row r="582" spans="1:7">
       <c r="B582" s="3" t="s">
-        <v>952</v>
+        <v>928</v>
       </c>
       <c r="C582" t="s">
         <v>30</v>
@@ -13629,7 +13620,7 @@
     </row>
     <row r="583" spans="1:7">
       <c r="B583" s="3" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="C583" t="s">
         <v>30</v>
@@ -13643,7 +13634,7 @@
     </row>
     <row r="584" spans="1:7">
       <c r="B584" s="3" t="s">
-        <v>943</v>
+        <v>948</v>
       </c>
       <c r="C584" t="s">
         <v>30</v>
@@ -13657,7 +13648,7 @@
     </row>
     <row r="585" spans="1:7">
       <c r="B585" s="3" t="s">
-        <v>953</v>
+        <v>929</v>
       </c>
       <c r="C585" t="s">
         <v>30</v>
@@ -13671,7 +13662,7 @@
     </row>
     <row r="586" spans="1:7">
       <c r="B586" s="3" t="s">
-        <v>934</v>
+        <v>939</v>
       </c>
       <c r="C586" t="s">
         <v>30</v>
@@ -13685,7 +13676,7 @@
     </row>
     <row r="587" spans="1:7">
       <c r="B587" s="3" t="s">
-        <v>944</v>
+        <v>949</v>
       </c>
       <c r="C587" t="s">
         <v>30</v>
@@ -13699,7 +13690,7 @@
     </row>
     <row r="588" spans="1:7">
       <c r="B588" s="3" t="s">
-        <v>954</v>
+        <v>930</v>
       </c>
       <c r="C588" t="s">
         <v>30</v>
@@ -13713,7 +13704,7 @@
     </row>
     <row r="589" spans="1:7">
       <c r="B589" s="3" t="s">
-        <v>935</v>
+        <v>940</v>
       </c>
       <c r="C589" t="s">
         <v>30</v>
@@ -13727,7 +13718,7 @@
     </row>
     <row r="590" spans="1:7">
       <c r="B590" s="3" t="s">
-        <v>945</v>
+        <v>950</v>
       </c>
       <c r="C590" t="s">
         <v>30</v>
@@ -13741,7 +13732,7 @@
     </row>
     <row r="591" spans="1:7">
       <c r="B591" s="3" t="s">
-        <v>955</v>
+        <v>931</v>
       </c>
       <c r="C591" t="s">
         <v>30</v>
@@ -13755,7 +13746,7 @@
     </row>
     <row r="592" spans="1:7">
       <c r="B592" s="3" t="s">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="C592" t="s">
         <v>30</v>
@@ -13769,7 +13760,7 @@
     </row>
     <row r="593" spans="2:7">
       <c r="B593" s="3" t="s">
-        <v>946</v>
+        <v>951</v>
       </c>
       <c r="C593" t="s">
         <v>30</v>
@@ -13783,7 +13774,7 @@
     </row>
     <row r="594" spans="2:7">
       <c r="B594" s="3" t="s">
-        <v>956</v>
+        <v>936</v>
       </c>
       <c r="C594" t="s">
         <v>30</v>
@@ -13797,7 +13788,7 @@
     </row>
     <row r="595" spans="2:7">
       <c r="B595" s="3" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C595" t="s">
         <v>30</v>
@@ -13811,7 +13802,7 @@
     </row>
     <row r="596" spans="2:7">
       <c r="B596" s="3" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="C596" t="s">
         <v>30</v>
@@ -13825,7 +13816,7 @@
     </row>
     <row r="597" spans="2:7">
       <c r="B597" s="3" t="s">
-        <v>957</v>
+        <v>935</v>
       </c>
       <c r="C597" t="s">
         <v>30</v>
@@ -13839,7 +13830,7 @@
     </row>
     <row r="598" spans="2:7">
       <c r="B598" s="3" t="s">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="C598" t="s">
         <v>30</v>
@@ -13853,7 +13844,7 @@
     </row>
     <row r="599" spans="2:7">
       <c r="B599" s="3" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="C599" t="s">
         <v>30</v>
@@ -13867,7 +13858,7 @@
     </row>
     <row r="600" spans="2:7">
       <c r="B600" s="3" t="s">
-        <v>958</v>
+        <v>934</v>
       </c>
       <c r="C600" t="s">
         <v>30</v>
@@ -13881,7 +13872,7 @@
     </row>
     <row r="601" spans="2:7">
       <c r="B601" s="3" t="s">
-        <v>939</v>
+        <v>945</v>
       </c>
       <c r="C601" t="s">
         <v>30</v>
@@ -13895,7 +13886,7 @@
     </row>
     <row r="602" spans="2:7">
       <c r="B602" s="3" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="C602" t="s">
         <v>30</v>
@@ -13909,7 +13900,7 @@
     </row>
     <row r="603" spans="2:7">
       <c r="B603" s="3" t="s">
-        <v>959</v>
+        <v>933</v>
       </c>
       <c r="C603" t="s">
         <v>30</v>
@@ -13923,7 +13914,7 @@
     </row>
     <row r="604" spans="2:7">
       <c r="B604" s="3" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="C604" t="s">
         <v>30</v>
@@ -13937,7 +13928,7 @@
     </row>
     <row r="605" spans="2:7">
       <c r="B605" s="3" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="C605" t="s">
         <v>30</v>
@@ -13951,7 +13942,7 @@
     </row>
     <row r="606" spans="2:7">
       <c r="B606" s="3" t="s">
-        <v>960</v>
+        <v>932</v>
       </c>
       <c r="C606" t="s">
         <v>30</v>
@@ -13965,7 +13956,7 @@
     </row>
     <row r="607" spans="2:7">
       <c r="B607" s="3" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="C607" t="s">
         <v>30</v>
@@ -13979,7 +13970,7 @@
     </row>
     <row r="608" spans="2:7">
       <c r="B608" s="3" t="s">
-        <v>948</v>
+        <v>956</v>
       </c>
       <c r="C608" t="s">
         <v>30</v>
@@ -13992,8 +13983,11 @@
       </c>
     </row>
     <row r="609" spans="1:7">
+      <c r="A609" t="s">
+        <v>957</v>
+      </c>
       <c r="B609" s="3" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C609" t="s">
         <v>30</v>
@@ -14006,11 +14000,8 @@
       </c>
     </row>
     <row r="610" spans="1:7">
-      <c r="A610" t="s">
-        <v>962</v>
-      </c>
       <c r="B610" s="3" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="C610" t="s">
         <v>30</v>
@@ -14024,7 +14015,7 @@
     </row>
     <row r="611" spans="1:7">
       <c r="B611" s="3" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="C611" t="s">
         <v>30</v>
@@ -14038,7 +14029,7 @@
     </row>
     <row r="612" spans="1:7">
       <c r="B612" s="3" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="C612" t="s">
         <v>30</v>
@@ -14052,7 +14043,7 @@
     </row>
     <row r="613" spans="1:7">
       <c r="B613" s="3" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="C613" t="s">
         <v>30</v>
@@ -14066,7 +14057,7 @@
     </row>
     <row r="614" spans="1:7">
       <c r="B614" s="3" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="C614" t="s">
         <v>30</v>
@@ -14080,7 +14071,7 @@
     </row>
     <row r="615" spans="1:7">
       <c r="B615" s="3" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="C615" t="s">
         <v>30</v>
@@ -14094,7 +14085,7 @@
     </row>
     <row r="616" spans="1:7">
       <c r="B616" s="3" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="C616" t="s">
         <v>30</v>
@@ -14108,7 +14099,7 @@
     </row>
     <row r="617" spans="1:7">
       <c r="B617" s="3" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="C617" t="s">
         <v>30</v>
@@ -14122,7 +14113,7 @@
     </row>
     <row r="618" spans="1:7">
       <c r="B618" s="3" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="C618" t="s">
         <v>30</v>
@@ -14136,7 +14127,7 @@
     </row>
     <row r="619" spans="1:7">
       <c r="B619" s="3" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="C619" t="s">
         <v>30</v>
@@ -14150,7 +14141,7 @@
     </row>
     <row r="620" spans="1:7">
       <c r="B620" s="3" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="C620" t="s">
         <v>30</v>
@@ -14164,7 +14155,7 @@
     </row>
     <row r="621" spans="1:7">
       <c r="B621" s="3" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="C621" t="s">
         <v>30</v>
@@ -14178,7 +14169,7 @@
     </row>
     <row r="622" spans="1:7">
       <c r="B622" s="3" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="C622" t="s">
         <v>30</v>
@@ -14192,7 +14183,7 @@
     </row>
     <row r="623" spans="1:7">
       <c r="B623" s="3" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="C623" t="s">
         <v>30</v>
@@ -14206,10 +14197,13 @@
     </row>
     <row r="624" spans="1:7">
       <c r="B624" s="3" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="C624" t="s">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="D624" s="6" t="s">
+        <v>433</v>
       </c>
       <c r="F624" s="4">
         <v>1</v>
@@ -14220,13 +14214,10 @@
     </row>
     <row r="625" spans="1:7">
       <c r="B625" s="3" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="C625" t="s">
-        <v>40</v>
-      </c>
-      <c r="D625" s="6" t="s">
-        <v>435</v>
+        <v>30</v>
       </c>
       <c r="F625" s="4">
         <v>1</v>
@@ -14237,7 +14228,7 @@
     </row>
     <row r="626" spans="1:7">
       <c r="B626" s="3" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="C626" t="s">
         <v>30</v>
@@ -14251,7 +14242,7 @@
     </row>
     <row r="627" spans="1:7">
       <c r="B627" s="3" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="C627" t="s">
         <v>30</v>
@@ -14265,7 +14256,7 @@
     </row>
     <row r="628" spans="1:7">
       <c r="B628" s="3" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="C628" t="s">
         <v>30</v>
@@ -14279,7 +14270,7 @@
     </row>
     <row r="629" spans="1:7">
       <c r="B629" s="3" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="C629" t="s">
         <v>30</v>
@@ -14293,7 +14284,7 @@
     </row>
     <row r="630" spans="1:7">
       <c r="B630" s="3" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="C630" t="s">
         <v>30</v>
@@ -14307,7 +14298,7 @@
     </row>
     <row r="631" spans="1:7">
       <c r="B631" s="3" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="C631" t="s">
         <v>30</v>
@@ -14321,7 +14312,7 @@
     </row>
     <row r="632" spans="1:7">
       <c r="B632" s="3" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="C632" t="s">
         <v>30</v>
@@ -14334,8 +14325,11 @@
       </c>
     </row>
     <row r="633" spans="1:7">
+      <c r="A633" t="s">
+        <v>982</v>
+      </c>
       <c r="B633" s="3" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="C633" t="s">
         <v>30</v>
@@ -14348,11 +14342,8 @@
       </c>
     </row>
     <row r="634" spans="1:7">
-      <c r="A634" t="s">
-        <v>987</v>
-      </c>
       <c r="B634" s="3" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="C634" t="s">
         <v>30</v>
@@ -14366,10 +14357,13 @@
     </row>
     <row r="635" spans="1:7">
       <c r="B635" s="3" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="C635" t="s">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="D635" s="6" t="s">
+        <v>433</v>
       </c>
       <c r="F635" s="4">
         <v>1</v>
@@ -14379,14 +14373,14 @@
       </c>
     </row>
     <row r="636" spans="1:7">
+      <c r="A636" t="s">
+        <v>985</v>
+      </c>
       <c r="B636" s="3" t="s">
-        <v>991</v>
+        <v>1010</v>
       </c>
       <c r="C636" t="s">
-        <v>40</v>
-      </c>
-      <c r="D636" s="6" t="s">
-        <v>435</v>
+        <v>30</v>
       </c>
       <c r="F636" s="4">
         <v>1</v>
@@ -14396,11 +14390,8 @@
       </c>
     </row>
     <row r="637" spans="1:7">
-      <c r="A637" t="s">
-        <v>990</v>
-      </c>
       <c r="B637" s="3" t="s">
-        <v>1015</v>
+        <v>987</v>
       </c>
       <c r="C637" t="s">
         <v>30</v>
@@ -14414,10 +14405,13 @@
     </row>
     <row r="638" spans="1:7">
       <c r="B638" s="3" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="C638" t="s">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="D638" s="6" t="s">
+        <v>433</v>
       </c>
       <c r="F638" s="4">
         <v>1</v>
@@ -14428,13 +14422,10 @@
     </row>
     <row r="639" spans="1:7">
       <c r="B639" s="3" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="C639" t="s">
-        <v>40</v>
-      </c>
-      <c r="D639" s="6" t="s">
-        <v>435</v>
+        <v>30</v>
       </c>
       <c r="F639" s="4">
         <v>1</v>
@@ -14445,10 +14436,13 @@
     </row>
     <row r="640" spans="1:7">
       <c r="B640" s="3" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C640" t="s">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="D640" s="6" t="s">
+        <v>433</v>
       </c>
       <c r="F640" s="4">
         <v>1</v>
@@ -14458,28 +14452,25 @@
       </c>
     </row>
     <row r="641" spans="1:7">
+      <c r="A641" t="s">
+        <v>991</v>
+      </c>
       <c r="B641" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="C641" t="s">
+        <v>30</v>
+      </c>
+      <c r="F641" s="4">
+        <v>1</v>
+      </c>
+      <c r="G641" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642" spans="1:7">
+      <c r="B642" s="3" t="s">
         <v>995</v>
-      </c>
-      <c r="C641" t="s">
-        <v>40</v>
-      </c>
-      <c r="D641" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="F641" s="4">
-        <v>1</v>
-      </c>
-      <c r="G641" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="642" spans="1:7">
-      <c r="A642" t="s">
-        <v>996</v>
-      </c>
-      <c r="B642" s="3" t="s">
-        <v>997</v>
       </c>
       <c r="C642" t="s">
         <v>30</v>
@@ -14493,7 +14484,7 @@
     </row>
     <row r="643" spans="1:7">
       <c r="B643" s="3" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C643" t="s">
         <v>30</v>
@@ -14507,7 +14498,7 @@
     </row>
     <row r="644" spans="1:7">
       <c r="B644" s="3" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="C644" t="s">
         <v>30</v>
@@ -14520,8 +14511,11 @@
       </c>
     </row>
     <row r="645" spans="1:7">
+      <c r="A645" t="s">
+        <v>1011</v>
+      </c>
       <c r="B645" s="3" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C645" t="s">
         <v>30</v>
@@ -14535,10 +14529,10 @@
     </row>
     <row r="646" spans="1:7">
       <c r="A646" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="B646" s="3" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="C646" t="s">
         <v>30</v>
@@ -14552,10 +14546,10 @@
     </row>
     <row r="647" spans="1:7">
       <c r="A647" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="B647" s="3" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="C647" t="s">
         <v>30</v>
@@ -14569,10 +14563,10 @@
     </row>
     <row r="648" spans="1:7">
       <c r="A648" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="B648" s="3" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="C648" t="s">
         <v>30</v>
@@ -14586,10 +14580,10 @@
     </row>
     <row r="649" spans="1:7">
       <c r="A649" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="B649" s="3" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="C649" t="s">
         <v>30</v>
@@ -14603,10 +14597,10 @@
     </row>
     <row r="650" spans="1:7">
       <c r="A650" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="B650" s="3" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="C650" t="s">
         <v>30</v>
@@ -14620,10 +14614,10 @@
     </row>
     <row r="651" spans="1:7">
       <c r="A651" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B651" s="3" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="C651" t="s">
         <v>30</v>
@@ -14637,10 +14631,10 @@
     </row>
     <row r="652" spans="1:7">
       <c r="A652" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="B652" s="3" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="C652" t="s">
         <v>30</v>
@@ -14654,10 +14648,10 @@
     </row>
     <row r="653" spans="1:7">
       <c r="A653" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="B653" s="3" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="C653" t="s">
         <v>30</v>
@@ -14671,10 +14665,10 @@
     </row>
     <row r="654" spans="1:7">
       <c r="A654" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="B654" s="3" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="C654" t="s">
         <v>30</v>
@@ -14688,10 +14682,10 @@
     </row>
     <row r="655" spans="1:7">
       <c r="A655" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="B655" s="3" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="C655" t="s">
         <v>30</v>
@@ -14705,10 +14699,10 @@
     </row>
     <row r="656" spans="1:7">
       <c r="A656" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="B656" s="3" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="C656" t="s">
         <v>30</v>
@@ -14722,10 +14716,10 @@
     </row>
     <row r="657" spans="1:7">
       <c r="A657" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="B657" s="3" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="C657" t="s">
         <v>30</v>
@@ -14739,10 +14733,10 @@
     </row>
     <row r="658" spans="1:7">
       <c r="A658" t="s">
-        <v>1028</v>
+        <v>537</v>
       </c>
       <c r="B658" s="3" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="C658" t="s">
         <v>30</v>
@@ -14756,10 +14750,10 @@
     </row>
     <row r="659" spans="1:7">
       <c r="A659" t="s">
-        <v>539</v>
+        <v>1024</v>
       </c>
       <c r="B659" s="3" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C659" t="s">
         <v>30</v>
@@ -14772,11 +14766,8 @@
       </c>
     </row>
     <row r="660" spans="1:7">
-      <c r="A660" t="s">
-        <v>1029</v>
-      </c>
       <c r="B660" s="3" t="s">
-        <v>1014</v>
+        <v>1025</v>
       </c>
       <c r="C660" t="s">
         <v>30</v>
@@ -14788,9 +14779,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="661" spans="1:7">
+    <row r="661" spans="1:7" ht="30">
       <c r="B661" s="3" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="C661" t="s">
         <v>30</v>
@@ -14802,9 +14793,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:7" ht="30">
+    <row r="662" spans="1:7">
+      <c r="A662" t="s">
+        <v>1027</v>
+      </c>
       <c r="B662" s="3" t="s">
-        <v>1031</v>
+        <v>1050</v>
       </c>
       <c r="C662" t="s">
         <v>30</v>
@@ -14818,10 +14812,10 @@
     </row>
     <row r="663" spans="1:7">
       <c r="A663" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="B663" s="3" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="C663" t="s">
         <v>30</v>
@@ -14835,10 +14829,10 @@
     </row>
     <row r="664" spans="1:7">
       <c r="A664" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="B664" s="3" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="C664" t="s">
         <v>30</v>
@@ -14852,10 +14846,10 @@
     </row>
     <row r="665" spans="1:7">
       <c r="A665" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="B665" s="3" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="C665" t="s">
         <v>30</v>
@@ -14869,10 +14863,10 @@
     </row>
     <row r="666" spans="1:7">
       <c r="A666" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="B666" s="3" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="C666" t="s">
         <v>30</v>
@@ -14886,10 +14880,10 @@
     </row>
     <row r="667" spans="1:7">
       <c r="A667" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="B667" s="3" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="C667" t="s">
         <v>30</v>
@@ -14903,10 +14897,10 @@
     </row>
     <row r="668" spans="1:7">
       <c r="A668" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="B668" s="3" t="s">
-        <v>1060</v>
+        <v>1092</v>
       </c>
       <c r="C668" t="s">
         <v>30</v>
@@ -14920,10 +14914,10 @@
     </row>
     <row r="669" spans="1:7">
       <c r="A669" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="B669" s="3" t="s">
-        <v>1097</v>
+        <v>1056</v>
       </c>
       <c r="C669" t="s">
         <v>30</v>
@@ -14937,10 +14931,10 @@
     </row>
     <row r="670" spans="1:7">
       <c r="A670" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="B670" s="3" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="C670" t="s">
         <v>30</v>
@@ -14953,11 +14947,11 @@
       </c>
     </row>
     <row r="671" spans="1:7">
-      <c r="A671" t="s">
-        <v>1040</v>
+      <c r="A671" s="9" t="s">
+        <v>1036</v>
       </c>
       <c r="B671" s="3" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="C671" t="s">
         <v>30</v>
@@ -14970,11 +14964,11 @@
       </c>
     </row>
     <row r="672" spans="1:7">
-      <c r="A672" s="9" t="s">
-        <v>1041</v>
+      <c r="A672" t="s">
+        <v>1037</v>
       </c>
       <c r="B672" s="3" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="C672" t="s">
         <v>30</v>
@@ -14988,10 +14982,10 @@
     </row>
     <row r="673" spans="1:7">
       <c r="A673" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="B673" s="3" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="C673" t="s">
         <v>30</v>
@@ -15005,10 +14999,10 @@
     </row>
     <row r="674" spans="1:7">
       <c r="A674" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="B674" s="3" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C674" t="s">
         <v>30</v>
@@ -15022,10 +15016,10 @@
     </row>
     <row r="675" spans="1:7">
       <c r="A675" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="B675" s="3" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C675" t="s">
         <v>30</v>
@@ -15039,10 +15033,10 @@
     </row>
     <row r="676" spans="1:7">
       <c r="A676" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="B676" s="3" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="C676" t="s">
         <v>30</v>
@@ -15056,10 +15050,10 @@
     </row>
     <row r="677" spans="1:7">
       <c r="A677" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="B677" s="3" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="C677" t="s">
         <v>30</v>
@@ -15073,10 +15067,10 @@
     </row>
     <row r="678" spans="1:7">
       <c r="A678" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="B678" s="3" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="C678" t="s">
         <v>30</v>
@@ -15090,10 +15084,10 @@
     </row>
     <row r="679" spans="1:7">
       <c r="A679" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="B679" s="3" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="C679" t="s">
         <v>30</v>
@@ -15107,10 +15101,10 @@
     </row>
     <row r="680" spans="1:7">
       <c r="A680" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="B680" s="3" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="C680" t="s">
         <v>30</v>
@@ -15124,10 +15118,10 @@
     </row>
     <row r="681" spans="1:7">
       <c r="A681" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="B681" s="3" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="C681" t="s">
         <v>30</v>
@@ -15141,10 +15135,10 @@
     </row>
     <row r="682" spans="1:7">
       <c r="A682" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B682" s="3" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="C682" t="s">
         <v>30</v>
@@ -15158,10 +15152,10 @@
     </row>
     <row r="683" spans="1:7">
       <c r="A683" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="B683" s="3" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="C683" t="s">
         <v>30</v>
@@ -15175,10 +15169,10 @@
     </row>
     <row r="684" spans="1:7">
       <c r="A684" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="B684" s="3" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="C684" t="s">
         <v>30</v>
@@ -15192,47 +15186,44 @@
     </row>
     <row r="685" spans="1:7">
       <c r="A685" t="s">
-        <v>1054</v>
+        <v>1072</v>
       </c>
       <c r="B685" s="3" t="s">
-        <v>1076</v>
+        <v>1093</v>
       </c>
       <c r="C685" t="s">
-        <v>30</v>
-      </c>
-      <c r="F685" s="4">
-        <v>1</v>
-      </c>
-      <c r="G685" s="4">
+        <v>40</v>
+      </c>
+      <c r="D685" s="6" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F685">
+        <v>1</v>
+      </c>
+      <c r="G685">
         <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:7">
       <c r="A686" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B686" s="3" t="s">
-        <v>1098</v>
+        <v>1074</v>
       </c>
       <c r="C686" t="s">
-        <v>40</v>
-      </c>
-      <c r="D686" s="6" t="s">
-        <v>1078</v>
-      </c>
-      <c r="F686">
-        <v>1</v>
-      </c>
-      <c r="G686">
+        <v>30</v>
+      </c>
+      <c r="F686" s="4">
+        <v>1</v>
+      </c>
+      <c r="G686" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="687" spans="1:7">
-      <c r="A687" t="s">
-        <v>1083</v>
-      </c>
       <c r="B687" s="3" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="C687" t="s">
         <v>30</v>
@@ -15246,7 +15237,7 @@
     </row>
     <row r="688" spans="1:7">
       <c r="B688" s="3" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="C688" t="s">
         <v>30</v>
@@ -15260,38 +15251,38 @@
     </row>
     <row r="689" spans="1:7">
       <c r="B689" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C689" t="s">
+        <v>30</v>
+      </c>
+      <c r="F689" s="4">
+        <v>1</v>
+      </c>
+      <c r="G689" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="1:7">
+      <c r="A690" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B690" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C690" t="s">
+        <v>30</v>
+      </c>
+      <c r="F690" s="4">
+        <v>1</v>
+      </c>
+      <c r="G690" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:7">
+      <c r="B691" s="3" t="s">
         <v>1081</v>
-      </c>
-      <c r="C689" t="s">
-        <v>30</v>
-      </c>
-      <c r="F689" s="4">
-        <v>1</v>
-      </c>
-      <c r="G689" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="690" spans="1:7">
-      <c r="B690" s="3" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C690" t="s">
-        <v>30</v>
-      </c>
-      <c r="F690" s="4">
-        <v>1</v>
-      </c>
-      <c r="G690" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="691" spans="1:7">
-      <c r="A691" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B691" s="3" t="s">
-        <v>1085</v>
       </c>
       <c r="C691" t="s">
         <v>30</v>
@@ -15305,7 +15296,7 @@
     </row>
     <row r="692" spans="1:7">
       <c r="B692" s="3" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="C692" t="s">
         <v>30</v>
@@ -15319,7 +15310,7 @@
     </row>
     <row r="693" spans="1:7">
       <c r="B693" s="3" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="C693" t="s">
         <v>30</v>
@@ -15333,7 +15324,7 @@
     </row>
     <row r="694" spans="1:7">
       <c r="B694" s="3" t="s">
-        <v>1088</v>
+        <v>1191</v>
       </c>
       <c r="C694" t="s">
         <v>30</v>
@@ -15347,7 +15338,7 @@
     </row>
     <row r="695" spans="1:7">
       <c r="B695" s="3" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="C695" t="s">
         <v>30</v>
@@ -15361,7 +15352,7 @@
     </row>
     <row r="696" spans="1:7">
       <c r="B696" s="3" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="C696" t="s">
         <v>30</v>
@@ -15375,7 +15366,7 @@
     </row>
     <row r="697" spans="1:7">
       <c r="B697" s="3" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="C697" t="s">
         <v>30</v>
@@ -15388,8 +15379,11 @@
       </c>
     </row>
     <row r="698" spans="1:7">
+      <c r="A698" t="s">
+        <v>1084</v>
+      </c>
       <c r="B698" s="3" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="C698" t="s">
         <v>30</v>
@@ -15402,11 +15396,8 @@
       </c>
     </row>
     <row r="699" spans="1:7">
-      <c r="A699" t="s">
-        <v>1089</v>
-      </c>
       <c r="B699" s="3" t="s">
-        <v>1204</v>
+        <v>1085</v>
       </c>
       <c r="C699" t="s">
         <v>30</v>
@@ -15420,7 +15411,7 @@
     </row>
     <row r="700" spans="1:7">
       <c r="B700" s="3" t="s">
-        <v>1090</v>
+        <v>1198</v>
       </c>
       <c r="C700" t="s">
         <v>30</v>
@@ -15434,7 +15425,7 @@
     </row>
     <row r="701" spans="1:7">
       <c r="B701" s="3" t="s">
-        <v>1203</v>
+        <v>1086</v>
       </c>
       <c r="C701" t="s">
         <v>30</v>
@@ -15448,7 +15439,7 @@
     </row>
     <row r="702" spans="1:7">
       <c r="B702" s="3" t="s">
-        <v>1091</v>
+        <v>1197</v>
       </c>
       <c r="C702" t="s">
         <v>30</v>
@@ -15462,7 +15453,7 @@
     </row>
     <row r="703" spans="1:7">
       <c r="B703" s="3" t="s">
-        <v>1202</v>
+        <v>1087</v>
       </c>
       <c r="C703" t="s">
         <v>30</v>
@@ -15476,7 +15467,7 @@
     </row>
     <row r="704" spans="1:7">
       <c r="B704" s="3" t="s">
-        <v>1092</v>
+        <v>1196</v>
       </c>
       <c r="C704" t="s">
         <v>30</v>
@@ -15490,7 +15481,7 @@
     </row>
     <row r="705" spans="1:7">
       <c r="B705" s="3" t="s">
-        <v>1201</v>
+        <v>1088</v>
       </c>
       <c r="C705" t="s">
         <v>30</v>
@@ -15504,7 +15495,7 @@
     </row>
     <row r="706" spans="1:7">
       <c r="B706" s="3" t="s">
-        <v>1093</v>
+        <v>1195</v>
       </c>
       <c r="C706" t="s">
         <v>30</v>
@@ -15518,7 +15509,7 @@
     </row>
     <row r="707" spans="1:7">
       <c r="B707" s="3" t="s">
-        <v>1200</v>
+        <v>1089</v>
       </c>
       <c r="C707" t="s">
         <v>30</v>
@@ -15532,7 +15523,7 @@
     </row>
     <row r="708" spans="1:7">
       <c r="B708" s="3" t="s">
-        <v>1094</v>
+        <v>1194</v>
       </c>
       <c r="C708" t="s">
         <v>30</v>
@@ -15546,7 +15537,7 @@
     </row>
     <row r="709" spans="1:7">
       <c r="B709" s="3" t="s">
-        <v>1199</v>
+        <v>1090</v>
       </c>
       <c r="C709" t="s">
         <v>30</v>
@@ -15560,7 +15551,7 @@
     </row>
     <row r="710" spans="1:7">
       <c r="B710" s="3" t="s">
-        <v>1095</v>
+        <v>1193</v>
       </c>
       <c r="C710" t="s">
         <v>30</v>
@@ -15574,7 +15565,7 @@
     </row>
     <row r="711" spans="1:7">
       <c r="B711" s="3" t="s">
-        <v>1198</v>
+        <v>1091</v>
       </c>
       <c r="C711" t="s">
         <v>30</v>
@@ -15587,28 +15578,31 @@
       </c>
     </row>
     <row r="712" spans="1:7">
+      <c r="A712" t="s">
+        <v>1094</v>
+      </c>
       <c r="B712" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C712" t="s">
+        <v>30</v>
+      </c>
+      <c r="F712" s="4">
+        <v>1</v>
+      </c>
+      <c r="G712" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713" spans="1:7">
+      <c r="B713" s="3" t="s">
         <v>1096</v>
       </c>
-      <c r="C712" t="s">
-        <v>30</v>
-      </c>
-      <c r="F712" s="4">
-        <v>1</v>
-      </c>
-      <c r="G712" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="713" spans="1:7">
-      <c r="A713" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B713" s="3" t="s">
-        <v>1100</v>
-      </c>
       <c r="C713" t="s">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="D713" s="6" t="s">
+        <v>433</v>
       </c>
       <c r="F713" s="4">
         <v>1</v>
@@ -15619,13 +15613,13 @@
     </row>
     <row r="714" spans="1:7">
       <c r="B714" s="3" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="C714" t="s">
         <v>40</v>
       </c>
       <c r="D714" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F714" s="4">
         <v>1</v>
@@ -15636,13 +15630,13 @@
     </row>
     <row r="715" spans="1:7">
       <c r="B715" s="3" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="C715" t="s">
         <v>40</v>
       </c>
       <c r="D715" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F715" s="4">
         <v>1</v>
@@ -15653,13 +15647,13 @@
     </row>
     <row r="716" spans="1:7">
       <c r="B716" s="3" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="C716" t="s">
         <v>40</v>
       </c>
       <c r="D716" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F716" s="4">
         <v>1</v>
@@ -15670,13 +15664,13 @@
     </row>
     <row r="717" spans="1:7">
       <c r="B717" s="3" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="C717" t="s">
         <v>40</v>
       </c>
       <c r="D717" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F717" s="4">
         <v>1</v>
@@ -15686,14 +15680,14 @@
       </c>
     </row>
     <row r="718" spans="1:7">
+      <c r="A718" t="s">
+        <v>1101</v>
+      </c>
       <c r="B718" s="3" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="C718" t="s">
-        <v>40</v>
-      </c>
-      <c r="D718" s="6" t="s">
-        <v>435</v>
+        <v>30</v>
       </c>
       <c r="F718" s="4">
         <v>1</v>
@@ -15703,11 +15697,8 @@
       </c>
     </row>
     <row r="719" spans="1:7">
-      <c r="A719" t="s">
-        <v>1106</v>
-      </c>
       <c r="B719" s="3" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="C719" t="s">
         <v>30</v>
@@ -15721,7 +15712,7 @@
     </row>
     <row r="720" spans="1:7">
       <c r="B720" s="3" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="C720" t="s">
         <v>30</v>
@@ -15735,7 +15726,7 @@
     </row>
     <row r="721" spans="1:7">
       <c r="B721" s="3" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="C721" t="s">
         <v>30</v>
@@ -15749,7 +15740,7 @@
     </row>
     <row r="722" spans="1:7">
       <c r="B722" s="3" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="C722" t="s">
         <v>30</v>
@@ -15763,7 +15754,7 @@
     </row>
     <row r="723" spans="1:7">
       <c r="B723" s="3" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="C723" t="s">
         <v>30</v>
@@ -15777,7 +15768,7 @@
     </row>
     <row r="724" spans="1:7">
       <c r="B724" s="3" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="C724" t="s">
         <v>30</v>
@@ -15790,8 +15781,11 @@
       </c>
     </row>
     <row r="725" spans="1:7">
+      <c r="A725" t="s">
+        <v>1109</v>
+      </c>
       <c r="B725" s="3" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="C725" t="s">
         <v>30</v>
@@ -15805,41 +15799,41 @@
     </row>
     <row r="726" spans="1:7">
       <c r="A726" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B726" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C726" t="s">
+        <v>30</v>
+      </c>
+      <c r="F726" s="4">
+        <v>1</v>
+      </c>
+      <c r="G726" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" spans="1:7" ht="30">
+      <c r="B727" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C727" t="s">
+        <v>30</v>
+      </c>
+      <c r="F727" s="4">
+        <v>1</v>
+      </c>
+      <c r="G727" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728" spans="1:7">
+      <c r="A728" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B728" s="3" t="s">
         <v>1114</v>
-      </c>
-      <c r="B726" s="3" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C726" t="s">
-        <v>30</v>
-      </c>
-      <c r="F726" s="4">
-        <v>1</v>
-      </c>
-      <c r="G726" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="727" spans="1:7">
-      <c r="A727" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B727" s="3" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C727" t="s">
-        <v>30</v>
-      </c>
-      <c r="F727" s="4">
-        <v>1</v>
-      </c>
-      <c r="G727" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="728" spans="1:7" ht="30">
-      <c r="B728" s="3" t="s">
-        <v>1118</v>
       </c>
       <c r="C728" t="s">
         <v>30</v>
@@ -15853,10 +15847,10 @@
     </row>
     <row r="729" spans="1:7">
       <c r="A729" t="s">
-        <v>1123</v>
+        <v>604</v>
       </c>
       <c r="B729" s="3" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="C729" t="s">
         <v>30</v>
@@ -15870,10 +15864,10 @@
     </row>
     <row r="730" spans="1:7">
       <c r="A730" t="s">
-        <v>606</v>
+        <v>1119</v>
       </c>
       <c r="B730" s="3" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="C730" t="s">
         <v>30</v>
@@ -15887,10 +15881,10 @@
     </row>
     <row r="731" spans="1:7">
       <c r="A731" t="s">
-        <v>1124</v>
+        <v>498</v>
       </c>
       <c r="B731" s="3" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="C731" t="s">
         <v>30</v>
@@ -15903,11 +15897,8 @@
       </c>
     </row>
     <row r="732" spans="1:7">
-      <c r="A732" t="s">
-        <v>500</v>
-      </c>
       <c r="B732" s="3" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="C732" t="s">
         <v>30</v>
@@ -15921,7 +15912,7 @@
     </row>
     <row r="733" spans="1:7">
       <c r="B733" s="3" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="C733" t="s">
         <v>30</v>
@@ -15935,7 +15926,7 @@
     </row>
     <row r="734" spans="1:7">
       <c r="B734" s="3" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="C734" t="s">
         <v>30</v>
@@ -15948,11 +15939,17 @@
       </c>
     </row>
     <row r="735" spans="1:7">
+      <c r="A735" t="s">
+        <v>1123</v>
+      </c>
       <c r="B735" s="3" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="C735" t="s">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="D735" s="6" t="s">
+        <v>433</v>
       </c>
       <c r="F735" s="4">
         <v>1</v>
@@ -15962,17 +15959,14 @@
       </c>
     </row>
     <row r="736" spans="1:7">
-      <c r="A736" t="s">
-        <v>1128</v>
-      </c>
       <c r="B736" s="3" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="C736" t="s">
         <v>40</v>
       </c>
       <c r="D736" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F736" s="4">
         <v>1</v>
@@ -15983,13 +15977,10 @@
     </row>
     <row r="737" spans="1:7">
       <c r="B737" s="3" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="C737" t="s">
-        <v>40</v>
-      </c>
-      <c r="D737" s="6" t="s">
-        <v>435</v>
+        <v>30</v>
       </c>
       <c r="F737" s="4">
         <v>1</v>
@@ -15999,8 +15990,11 @@
       </c>
     </row>
     <row r="738" spans="1:7">
+      <c r="A738" t="s">
+        <v>1129</v>
+      </c>
       <c r="B738" s="3" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="C738" t="s">
         <v>30</v>
@@ -16014,10 +16008,10 @@
     </row>
     <row r="739" spans="1:7">
       <c r="A739" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="B739" s="3" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C739" t="s">
         <v>30</v>
@@ -16031,10 +16025,10 @@
     </row>
     <row r="740" spans="1:7">
       <c r="A740" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="B740" s="3" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="C740" t="s">
         <v>30</v>
@@ -16048,10 +16042,10 @@
     </row>
     <row r="741" spans="1:7">
       <c r="A741" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B741" s="3" t="s">
         <v>1136</v>
-      </c>
-      <c r="B741" s="3" t="s">
-        <v>1133</v>
       </c>
       <c r="C741" t="s">
         <v>30</v>
@@ -16065,10 +16059,10 @@
     </row>
     <row r="742" spans="1:7">
       <c r="A742" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B742" s="3" t="s">
         <v>1137</v>
-      </c>
-      <c r="B742" s="3" t="s">
-        <v>1141</v>
       </c>
       <c r="C742" t="s">
         <v>30</v>
@@ -16082,10 +16076,10 @@
     </row>
     <row r="743" spans="1:7">
       <c r="A743" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B743" s="3" t="s">
         <v>1138</v>
-      </c>
-      <c r="B743" s="3" t="s">
-        <v>1142</v>
       </c>
       <c r="C743" t="s">
         <v>30</v>
@@ -16099,44 +16093,44 @@
     </row>
     <row r="744" spans="1:7">
       <c r="A744" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B744" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C744" t="s">
+        <v>30</v>
+      </c>
+      <c r="F744" s="4">
+        <v>1</v>
+      </c>
+      <c r="G744" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745" spans="1:7" ht="30">
+      <c r="A745" t="s">
         <v>1140</v>
       </c>
-      <c r="B744" s="3" t="s">
+      <c r="B745" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C745" t="s">
+        <v>30</v>
+      </c>
+      <c r="F745" s="4">
+        <v>1</v>
+      </c>
+      <c r="G745" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746" spans="1:7">
+      <c r="A746" t="s">
         <v>1143</v>
       </c>
-      <c r="C744" t="s">
-        <v>30</v>
-      </c>
-      <c r="F744" s="4">
-        <v>1</v>
-      </c>
-      <c r="G744" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="745" spans="1:7">
-      <c r="A745" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B745" s="3" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C745" t="s">
-        <v>30</v>
-      </c>
-      <c r="F745" s="4">
-        <v>1</v>
-      </c>
-      <c r="G745" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="746" spans="1:7" ht="30">
-      <c r="A746" t="s">
-        <v>1145</v>
-      </c>
       <c r="B746" s="3" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="C746" t="s">
         <v>30</v>
@@ -16149,11 +16143,8 @@
       </c>
     </row>
     <row r="747" spans="1:7">
-      <c r="A747" t="s">
-        <v>1148</v>
-      </c>
       <c r="B747" s="3" t="s">
-        <v>1147</v>
+        <v>1201</v>
       </c>
       <c r="C747" t="s">
         <v>30</v>
@@ -16167,7 +16158,7 @@
     </row>
     <row r="748" spans="1:7">
       <c r="B748" s="3" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="C748" t="s">
         <v>30</v>
@@ -16179,9 +16170,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="749" spans="1:7">
+    <row r="749" spans="1:7" ht="30">
       <c r="B749" s="3" t="s">
-        <v>1208</v>
+        <v>1144</v>
       </c>
       <c r="C749" t="s">
         <v>30</v>
@@ -16193,9 +16184,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="750" spans="1:7" ht="30">
+    <row r="750" spans="1:7">
+      <c r="A750" t="s">
+        <v>1145</v>
+      </c>
       <c r="B750" s="3" t="s">
-        <v>1149</v>
+        <v>1202</v>
       </c>
       <c r="C750" t="s">
         <v>30</v>
@@ -16209,10 +16203,10 @@
     </row>
     <row r="751" spans="1:7">
       <c r="A751" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="B751" s="3" t="s">
-        <v>1207</v>
+        <v>1147</v>
       </c>
       <c r="C751" t="s">
         <v>30</v>
@@ -16226,10 +16220,10 @@
     </row>
     <row r="752" spans="1:7">
       <c r="A752" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="B752" s="3" t="s">
-        <v>1152</v>
+        <v>1157</v>
       </c>
       <c r="C752" t="s">
         <v>30</v>
@@ -16241,12 +16235,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="753" spans="1:7">
+    <row r="753" spans="1:7" ht="30">
       <c r="A753" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B753" s="3" t="s">
         <v>1153</v>
-      </c>
-      <c r="B753" s="3" t="s">
-        <v>1162</v>
       </c>
       <c r="C753" t="s">
         <v>30</v>
@@ -16260,11 +16254,11 @@
     </row>
     <row r="754" spans="1:7" ht="30">
       <c r="A754" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B754" s="3" t="s">
         <v>1154</v>
       </c>
-      <c r="B754" s="3" t="s">
-        <v>1158</v>
-      </c>
       <c r="C754" t="s">
         <v>30</v>
       </c>
@@ -16275,12 +16269,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="755" spans="1:7" ht="30">
+    <row r="755" spans="1:7">
       <c r="A755" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B755" s="3" t="s">
         <v>1155</v>
-      </c>
-      <c r="B755" s="3" t="s">
-        <v>1159</v>
       </c>
       <c r="C755" t="s">
         <v>30</v>
@@ -16294,10 +16288,10 @@
     </row>
     <row r="756" spans="1:7">
       <c r="A756" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B756" s="3" t="s">
         <v>1156</v>
-      </c>
-      <c r="B756" s="3" t="s">
-        <v>1160</v>
       </c>
       <c r="C756" t="s">
         <v>30</v>
@@ -16311,10 +16305,10 @@
     </row>
     <row r="757" spans="1:7">
       <c r="A757" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B757" s="3" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="C757" t="s">
         <v>30</v>
@@ -16328,10 +16322,10 @@
     </row>
     <row r="758" spans="1:7">
       <c r="A758" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="B758" s="3" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="C758" t="s">
         <v>30</v>
@@ -16345,10 +16339,10 @@
     </row>
     <row r="759" spans="1:7">
       <c r="A759" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="B759" s="3" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="C759" t="s">
         <v>30</v>
@@ -16362,10 +16356,10 @@
     </row>
     <row r="760" spans="1:7">
       <c r="A760" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="B760" s="3" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="C760" t="s">
         <v>30</v>
@@ -16379,10 +16373,10 @@
     </row>
     <row r="761" spans="1:7">
       <c r="A761" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="B761" s="3" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="C761" t="s">
         <v>30</v>
@@ -16396,10 +16390,10 @@
     </row>
     <row r="762" spans="1:7">
       <c r="A762" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B762" s="3" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="C762" t="s">
         <v>30</v>
@@ -16413,10 +16407,10 @@
     </row>
     <row r="763" spans="1:7">
       <c r="A763" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
       <c r="B763" s="3" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="C763" t="s">
         <v>30</v>
@@ -16430,10 +16424,10 @@
     </row>
     <row r="764" spans="1:7">
       <c r="A764" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="B764" s="3" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="C764" t="s">
         <v>30</v>
@@ -16447,13 +16441,16 @@
     </row>
     <row r="765" spans="1:7">
       <c r="A765" t="s">
-        <v>1170</v>
+        <v>1174</v>
       </c>
       <c r="B765" s="3" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="C765" t="s">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="D765" s="6" t="s">
+        <v>1210</v>
       </c>
       <c r="F765" s="4">
         <v>1</v>
@@ -16464,16 +16461,16 @@
     </row>
     <row r="766" spans="1:7">
       <c r="A766" t="s">
-        <v>1179</v>
+        <v>1161</v>
       </c>
       <c r="B766" s="3" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="C766" t="s">
         <v>40</v>
       </c>
       <c r="D766" s="6" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="F766" s="4">
         <v>1</v>
@@ -16484,16 +16481,16 @@
     </row>
     <row r="767" spans="1:7">
       <c r="A767" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="B767" s="3" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="C767" t="s">
         <v>40</v>
       </c>
       <c r="D767" s="6" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="F767" s="4">
         <v>1</v>
@@ -16504,16 +16501,16 @@
     </row>
     <row r="768" spans="1:7">
       <c r="A768" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="B768" s="3" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="C768" t="s">
         <v>40</v>
       </c>
       <c r="D768" s="6" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F768" s="4">
         <v>1</v>
@@ -16524,16 +16521,16 @@
     </row>
     <row r="769" spans="1:7">
       <c r="A769" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="B769" s="3" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="C769" t="s">
         <v>40</v>
       </c>
       <c r="D769" s="6" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="F769" s="4">
         <v>1</v>
@@ -16544,16 +16541,16 @@
     </row>
     <row r="770" spans="1:7">
       <c r="A770" t="s">
-        <v>1169</v>
+        <v>1180</v>
       </c>
       <c r="B770" s="3" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="C770" t="s">
         <v>40</v>
       </c>
       <c r="D770" s="6" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="F770" s="4">
         <v>1</v>
@@ -16564,16 +16561,16 @@
     </row>
     <row r="771" spans="1:7">
       <c r="A771" t="s">
-        <v>1185</v>
+        <v>1161</v>
       </c>
       <c r="B771" s="3" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="C771" t="s">
         <v>40</v>
       </c>
       <c r="D771" s="6" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="F771" s="4">
         <v>1</v>
@@ -16584,16 +16581,16 @@
     </row>
     <row r="772" spans="1:7">
       <c r="A772" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="B772" s="3" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="C772" t="s">
         <v>40</v>
       </c>
       <c r="D772" s="6" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="F772" s="4">
         <v>1</v>
@@ -16604,16 +16601,16 @@
     </row>
     <row r="773" spans="1:7">
       <c r="A773" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="B773" s="3" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="C773" t="s">
         <v>40</v>
       </c>
       <c r="D773" s="6" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F773" s="4">
         <v>1</v>
@@ -16624,16 +16621,16 @@
     </row>
     <row r="774" spans="1:7">
       <c r="A774" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="B774" s="3" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="C774" t="s">
         <v>40</v>
       </c>
       <c r="D774" s="6" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="F774" s="4">
         <v>1</v>
@@ -16644,16 +16641,16 @@
     </row>
     <row r="775" spans="1:7">
       <c r="A775" t="s">
-        <v>1169</v>
+        <v>1186</v>
       </c>
       <c r="B775" s="3" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="C775" t="s">
         <v>40</v>
       </c>
       <c r="D775" s="6" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="F775" s="4">
         <v>1</v>
@@ -16664,41 +16661,21 @@
     </row>
     <row r="776" spans="1:7">
       <c r="A776" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="B776" s="3" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="C776" t="s">
         <v>40</v>
       </c>
       <c r="D776" s="6" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="F776" s="4">
         <v>1</v>
       </c>
       <c r="G776" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="777" spans="1:7">
-      <c r="A777" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B777" s="3" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C777" t="s">
-        <v>40</v>
-      </c>
-      <c r="D777" s="6" t="s">
-        <v>1215</v>
-      </c>
-      <c r="F777" s="4">
-        <v>1</v>
-      </c>
-      <c r="G777" s="4">
         <v>1</v>
       </c>
     </row>

--- a/resources/NoteAudit.xlsx
+++ b/resources/NoteAudit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="1228">
   <si>
     <t>Name</t>
   </si>
@@ -3697,9 +3697,6 @@
   </si>
   <si>
     <t>(//button[@aria-label="Order Audit" and @ng-click="vm.go(entry.state)"])</t>
-  </si>
-  <si>
-    <t>Firstname</t>
   </si>
   <si>
     <t>(//button[@class="_md-no-style md-button md-cs-content-theme-theme md-ink-ripple"])[1]</t>
@@ -4063,8 +4060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J776"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4250,7 +4247,7 @@
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>1227</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
         <v>100</v>
@@ -16728,7 +16725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -16930,7 +16927,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>

--- a/resources/NoteAudit.xlsx
+++ b/resources/NoteAudit.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="1228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2265" uniqueCount="1253">
   <si>
     <t>Name</t>
   </si>
@@ -3237,60 +3237,12 @@
     <t>text</t>
   </si>
   <si>
-    <t>//md-checkbox[@ng-model="vm.charts.rom.upperExtremity.left.wnl" and @aria-checked="true"]</t>
-  </si>
-  <si>
-    <t>//md-checkbox[@ng-model="vm.charts.rom.upperExtremity.left.wfl" and @aria-checked="true"]</t>
-  </si>
-  <si>
-    <t>//md-checkbox[@ng-model="vm.charts.rom.upperExtremity.right.wnl" and @aria-checked="true"]</t>
-  </si>
-  <si>
-    <t>//md-checkbox[@ng-model="vm.charts.rom.upperExtremity.right.wfl" and @aria-checked="true"]</t>
-  </si>
-  <si>
     <t>Upper Extremity</t>
   </si>
   <si>
     <t>Lower Extremity</t>
   </si>
   <si>
-    <t>//md-checkbox[@ng-model="vm.charts.rom.lowerExtremity.left.wnl" and @aria-checked="true"]</t>
-  </si>
-  <si>
-    <t>//md-checkbox[@ng-model="vm.charts.rom.lowerExtremity.left.wfl" and @aria-checked="true"]</t>
-  </si>
-  <si>
-    <t>//md-checkbox[@ng-model="vm.charts.rom.lowerExtremity.right.wnl" and @aria-checked="true"]</t>
-  </si>
-  <si>
-    <t>//md-checkbox[@ng-model="vm.charts.rom.lowerExtremity.right.wfl" and @aria-checked="true"]</t>
-  </si>
-  <si>
-    <t>Transfer - Transfer Training</t>
-  </si>
-  <si>
-    <t>//md-select[@ng-model="vm.charts.transfer.sitStand.device" and @aria-expanded="false" and @aria-label="Level: Single point cane"]</t>
-  </si>
-  <si>
-    <t>//md-select[@ng-model="vm.charts.transfer.standSit.device" and @aria-expanded="false" and @aria-label="Level: Single point cane"]</t>
-  </si>
-  <si>
-    <t>//md-select[@ng-model="vm.charts.transfer.bedWheelchair.device" and @aria-expanded="false" and @aria-label="Level: Single point cane"]</t>
-  </si>
-  <si>
-    <t>//md-select[@ng-model="vm.charts.transfer.wheelchairBed.device" and @aria-expanded="false" and @aria-label="Level: Single point cane"]</t>
-  </si>
-  <si>
-    <t>//md-select[@ng-model="vm.charts.transfer.toiletBSC.device" and @aria-expanded="false" and @aria-label="Level: Single point cane"]</t>
-  </si>
-  <si>
-    <t>//md-select[@ng-model="vm.charts.transfer.tubShower.device" and @aria-expanded="false" and @aria-label="Level: Single point cane"]</t>
-  </si>
-  <si>
-    <t>//md-select[@ng-model="vm.charts.transfer.carVan.device" and @aria-expanded="false" and @aria-label="Level: Single point cane"]</t>
-  </si>
-  <si>
     <t>//md-checkbox[@ng-model="vm.charts.supplies.dressingSupplies" and @aria-checked="true"]</t>
   </si>
   <si>
@@ -3321,9 +3273,6 @@
     <t>Wheel Chair Mobility</t>
   </si>
   <si>
-    <t>//md-checkbox[@ng-model="vm.charts.wheelchairMobility.na" and @aria-checked="true"]</t>
-  </si>
-  <si>
     <t>//md-checkbox[@ng-model="vm.charts.balance.assumeMidline" and @aria-checked="true"]</t>
   </si>
   <si>
@@ -3342,15 +3291,6 @@
     <t>//md-select[@ng-model="vm.charts.balance.standing.dynamicLevel" and @aria-label="dynamic: Normal"]</t>
   </si>
   <si>
-    <t>Rehab Potential</t>
-  </si>
-  <si>
-    <t>//md-radio-group[@ng-model="vm.charts.rehabPotential.value"]//md-radio-button[@aria-checked="true" and @aria-label="Yes"]</t>
-  </si>
-  <si>
-    <t>Home Exercise</t>
-  </si>
-  <si>
     <t>(//md-radio-group[@ng-model="vm.charts.teaching[teaching].understanding.detail"]//md-radio-button[@aria-checked="true" and @aria-label="Low (&lt; 50%)"])[1]</t>
   </si>
   <si>
@@ -3450,15 +3390,6 @@
     <t>//md-radio-group[@ng-model="vm.charts.m2001.value"]//md-radio-button[@aria-checked="true" and @aria-label="0 No - issues found during review [Go to M2010]"]</t>
   </si>
   <si>
-    <t>M2001</t>
-  </si>
-  <si>
-    <t>M2003</t>
-  </si>
-  <si>
-    <t>//md-radio-group[@ng-model="vm.charts.m2003.value"]//md-radio-button[@aria-checked="true" and @aria-label="0 - No"]</t>
-  </si>
-  <si>
     <t>M2010</t>
   </si>
   <si>
@@ -3585,39 +3516,6 @@
     <t>(//input[@ng-model="$mdAutocompleteCtrl.scope.searchText" and @aria-label="Diagnoses"])[3]</t>
   </si>
   <si>
-    <t>//md-select[@ng-model="vm.charts.mobility.rollingRight.assistLevel" and @aria-label="Level: DEP"]</t>
-  </si>
-  <si>
-    <t>//md-select[@ng-model="vm.charts.mobility.rollingLeft.assistLevel" and @aria-label="Level: DEP"]</t>
-  </si>
-  <si>
-    <t>//md-select[@ng-model="vm.charts.mobility.supineSit.assistLevel" and @aria-label="Level: DEP"]</t>
-  </si>
-  <si>
-    <t>//md-select[@ng-model="vm.charts.transfer.carVan.assistLevel" and @aria-label="Level: DEP"]</t>
-  </si>
-  <si>
-    <t>//md-select[@ng-model="vm.charts.transfer.tubShower.assistLevel" and @aria-label="Level: DEP"]</t>
-  </si>
-  <si>
-    <t>//md-select[@ng-model="vm.charts.transfer.toiletBSC.assistLevel" and @aria-label="Level: DEP"]</t>
-  </si>
-  <si>
-    <t>//md-select[@ng-model="vm.charts.transfer.wheelchairBed.assistLevel" and @aria-label="Level: DEP"]</t>
-  </si>
-  <si>
-    <t>//md-select[@ng-model="vm.charts.transfer.bedWheelchair.assistLevel" and @aria-label="Level: DEP"]</t>
-  </si>
-  <si>
-    <t>//md-select[@ng-model="vm.charts.transfer.standSit.assistLevel" and @aria-label="Level: DEP"]</t>
-  </si>
-  <si>
-    <t>//md-select[@ng-model="vm.charts.transfer.sitStand.assistLevel" and @aria-label="Level: DEP"]</t>
-  </si>
-  <si>
-    <t>//md-select[@ng-model="vm.charts.mobility.supineSit.device" and @aria-label="Level: Single point cane"]</t>
-  </si>
-  <si>
     <t>//md-radio-group[@ng-model="vm.charts.medications.change"]//md-radio-button[@aria-checked="true" and @aria-label="Yes"]</t>
   </si>
   <si>
@@ -3700,6 +3598,183 @@
   </si>
   <si>
     <t>(//button[@class="_md-no-style md-button md-cs-content-theme-theme md-ink-ripple"])[1]</t>
+  </si>
+  <si>
+    <t>(//md-radio-group[@ng-model="vm.charts.rom.upperExtremity.leftSide"]//md-radio-button[@value="wnl" and @aria-checked="true"])</t>
+  </si>
+  <si>
+    <t>(//md-radio-group[@ng-model="vm.charts.rom.upperExtremity.rightSide"]//md-radio-button[@value="wfl" and @aria-checked="true"])</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.rom.upperExtremity.leftgrade" and @aria-label="Grade: 1"]</t>
+  </si>
+  <si>
+    <t>MMT - left</t>
+  </si>
+  <si>
+    <t>MMT - right</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.rom.upperExtremity.rightgrade" and @aria-label="Grade: 2-"]</t>
+  </si>
+  <si>
+    <t>(//md-radio-group[@ng-model="vm.charts.rom.lowerExtremity.leftSide"]//md-radio-button[@value="wnl" and @aria-checked="true"])</t>
+  </si>
+  <si>
+    <t>(//md-radio-group[@ng-model="vm.charts.rom.lowerExtremity.rightSide"]//md-radio-button[@value="wfl" and @aria-checked="true"])</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.rom.lowerExtremity.leftgrade" and @aria-label="Grade: 1"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.rom.lowerExtremity.rightgrade" and @aria-label="Grade: 2-"]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.rom.lowerExtremity.ptRemarks"]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.rom.lowerExtremity.detail"]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.rom.comments"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobility - TT Bed Mob Trai </t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.mobility.rollingLeft.assistLevel" and @aria-label="Level: MAX Assist"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.mobility.rollingRight.assistLevel" and @aria-label="Level: CGA"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.mobility.supineSit.assistLevel" and @aria-label="Level: MOD Assist"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.mobility.supineSit.device" and @aria-label="Level: Front Wheel Walker"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.mobility.sitSupine.assistLevel" and @aria-label="Level: MAX Assist"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.mobility.sitSupine.device" and @aria-label="Level: Front Wheel Walker"]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.mobility.comments"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.transfer.sitStand.assistLevel" and @aria-label="Level: MOD Assist"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.transfer.sitStand.device" and @aria-label="Level: Four- Wheel Walker"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.transfer.standSit.assistLevel" and @aria-label="Level: MOD Assist"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.transfer.standSit.device" and @aria-label="Level: Four- Wheel Walker"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.transfer.bedWheelchair.assistLevel" and @aria-label="Level: MOD Assist"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.transfer.bedWheelchair.device" and @aria-label="Level: Four- Wheel Walker"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.transfer.wheelchairBed.assistLevel" and @aria-label="Level: MOD Assist"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.transfer.wheelchairBed.device" and @aria-label="Level: Four- Wheel Walker"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.transfer.toiletBSC.assistLevel" and @aria-label="Level: MOD Assist"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.transfer.toiletBSC.device" and @aria-label="Level: Four- Wheel Walker"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.transfer.tubShower.assistLevel" and @aria-label="Level: MOD Assist"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.transfer.tubShower.device" and @aria-label="Level: Four- Wheel Walker"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.transfer.carVan.assistLevel" and @aria-label="Level: MOD Assist"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.transfer.carVan.device" and @aria-label="Level: Four- Wheel Walker"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.gait.level.device" and @aria-label="Device: Single point cane"]</t>
+  </si>
+  <si>
+    <t>Unlevel</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.gait.unlevel.assistLevel" and @aria-label="Level: DEP"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.gait.stepsStairs.assistLevel" and @aria-label="Level: DEP"]</t>
+  </si>
+  <si>
+    <t>Steps / Stairs</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.gait.stepsStairs.device" and @aria-label="Device: Single point cane"]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.gait.comments"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.wheelchairMobility.level.assistLevel" and @aria-label="Level: DEP"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.wheelchairMobility.unlevel.assistLevel" and @aria-label="Level: MAX Assist"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.wheelchairMobility.maneuver.assistLevel" and @aria-label="Level: DEP"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.wheelchairMobility.posture.assistLevel" and @aria-label="Level: MAX Assist"]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.wheelchairMobility.comments"]</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.balance.comments"]</t>
+  </si>
+  <si>
+    <t>Fall risk</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.fallRisk.reason"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.exercise.na" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Assesment summary</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.clinicalFinding.detail"]</t>
+  </si>
+  <si>
+    <t>(//md-radio-group[@ng-model="vm.charts.rehabPotential.value"]//md-radio-button[@aria-checked="true"])</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.rehabPotential.comments"]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.teaching.comments"]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.rom.upperExtremity.ptRemarks"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.careCoordination.conference.displinaryTeam" and @aria-checked="true"]</t>
   </si>
 </sst>
 </file>
@@ -4058,10 +4133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J776"/>
+  <dimension ref="A1:J797"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A788" workbookViewId="0">
+      <selection activeCell="B800" sqref="B800"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4310,7 +4385,7 @@
         <v>39</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>1203</v>
+        <v>1169</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4">
@@ -4328,7 +4403,7 @@
         <v>32</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1204</v>
+        <v>1170</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -4348,7 +4423,7 @@
         <v>33</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1205</v>
+        <v>1171</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
@@ -4368,7 +4443,7 @@
         <v>34</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1206</v>
+        <v>1172</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
@@ -5161,7 +5236,7 @@
         <v>101</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1213</v>
+        <v>1179</v>
       </c>
       <c r="C51" t="s">
         <v>29</v>
@@ -5181,7 +5256,7 @@
         <v>102</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>1214</v>
+        <v>1180</v>
       </c>
       <c r="C52" t="s">
         <v>29</v>
@@ -5682,7 +5757,7 @@
         <v>142</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1207</v>
+        <v>1173</v>
       </c>
       <c r="C79" t="s">
         <v>29</v>
@@ -5758,7 +5833,7 @@
         <v>148</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>1208</v>
+        <v>1174</v>
       </c>
       <c r="C84" t="s">
         <v>29</v>
@@ -10956,7 +11031,7 @@
     </row>
     <row r="412" spans="1:7" ht="30">
       <c r="B412" s="3" t="s">
-        <v>1215</v>
+        <v>1181</v>
       </c>
       <c r="C412" t="s">
         <v>29</v>
@@ -14933,7 +15008,7 @@
         <v>1032</v>
       </c>
       <c r="B668" s="3" t="s">
-        <v>1091</v>
+        <v>1075</v>
       </c>
       <c r="C668" t="s">
         <v>29</v>
@@ -15222,7 +15297,7 @@
         <v>1071</v>
       </c>
       <c r="B685" s="3" t="s">
-        <v>1092</v>
+        <v>1076</v>
       </c>
       <c r="C685" t="s">
         <v>39</v>
@@ -15239,10 +15314,10 @@
     </row>
     <row r="686" spans="1:7">
       <c r="A686" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="B686" s="3" t="s">
-        <v>1073</v>
+        <v>1194</v>
       </c>
       <c r="C686" t="s">
         <v>29</v>
@@ -15256,7 +15331,7 @@
     </row>
     <row r="687" spans="1:7">
       <c r="B687" s="3" t="s">
-        <v>1074</v>
+        <v>1195</v>
       </c>
       <c r="C687" t="s">
         <v>29</v>
@@ -15270,10 +15345,13 @@
     </row>
     <row r="688" spans="1:7">
       <c r="B688" s="3" t="s">
-        <v>1075</v>
+        <v>1251</v>
       </c>
       <c r="C688" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="D688" s="6" t="s">
+        <v>432</v>
       </c>
       <c r="F688" s="4">
         <v>1</v>
@@ -15283,8 +15361,11 @@
       </c>
     </row>
     <row r="689" spans="1:7">
+      <c r="A689" t="s">
+        <v>1197</v>
+      </c>
       <c r="B689" s="3" t="s">
-        <v>1076</v>
+        <v>1196</v>
       </c>
       <c r="C689" t="s">
         <v>29</v>
@@ -15298,10 +15379,10 @@
     </row>
     <row r="690" spans="1:7">
       <c r="A690" t="s">
-        <v>1078</v>
+        <v>1198</v>
       </c>
       <c r="B690" s="3" t="s">
-        <v>1079</v>
+        <v>1199</v>
       </c>
       <c r="C690" t="s">
         <v>29</v>
@@ -15314,8 +15395,11 @@
       </c>
     </row>
     <row r="691" spans="1:7">
+      <c r="A691" t="s">
+        <v>1074</v>
+      </c>
       <c r="B691" s="3" t="s">
-        <v>1080</v>
+        <v>1200</v>
       </c>
       <c r="C691" t="s">
         <v>29</v>
@@ -15329,7 +15413,7 @@
     </row>
     <row r="692" spans="1:7">
       <c r="B692" s="3" t="s">
-        <v>1081</v>
+        <v>1201</v>
       </c>
       <c r="C692" t="s">
         <v>29</v>
@@ -15343,10 +15427,13 @@
     </row>
     <row r="693" spans="1:7">
       <c r="B693" s="3" t="s">
-        <v>1082</v>
+        <v>1204</v>
       </c>
       <c r="C693" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="D693" s="6" t="s">
+        <v>432</v>
       </c>
       <c r="F693" s="4">
         <v>1</v>
@@ -15356,8 +15443,11 @@
       </c>
     </row>
     <row r="694" spans="1:7">
+      <c r="A694" t="s">
+        <v>1197</v>
+      </c>
       <c r="B694" s="3" t="s">
-        <v>1190</v>
+        <v>1202</v>
       </c>
       <c r="C694" t="s">
         <v>29</v>
@@ -15370,8 +15460,11 @@
       </c>
     </row>
     <row r="695" spans="1:7">
+      <c r="A695" t="s">
+        <v>1198</v>
+      </c>
       <c r="B695" s="3" t="s">
-        <v>1189</v>
+        <v>1203</v>
       </c>
       <c r="C695" t="s">
         <v>29</v>
@@ -15385,10 +15478,13 @@
     </row>
     <row r="696" spans="1:7">
       <c r="B696" s="3" t="s">
-        <v>1191</v>
+        <v>1205</v>
       </c>
       <c r="C696" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="D696" s="6" t="s">
+        <v>432</v>
       </c>
       <c r="F696" s="4">
         <v>1</v>
@@ -15399,10 +15495,13 @@
     </row>
     <row r="697" spans="1:7">
       <c r="B697" s="3" t="s">
-        <v>1199</v>
+        <v>1206</v>
       </c>
       <c r="C697" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="D697" s="6" t="s">
+        <v>432</v>
       </c>
       <c r="F697" s="4">
         <v>1</v>
@@ -15413,10 +15512,10 @@
     </row>
     <row r="698" spans="1:7">
       <c r="A698" t="s">
-        <v>1083</v>
+        <v>1207</v>
       </c>
       <c r="B698" s="3" t="s">
-        <v>1198</v>
+        <v>1208</v>
       </c>
       <c r="C698" t="s">
         <v>29</v>
@@ -15430,7 +15529,7 @@
     </row>
     <row r="699" spans="1:7">
       <c r="B699" s="3" t="s">
-        <v>1084</v>
+        <v>1209</v>
       </c>
       <c r="C699" t="s">
         <v>29</v>
@@ -15444,7 +15543,7 @@
     </row>
     <row r="700" spans="1:7">
       <c r="B700" s="3" t="s">
-        <v>1197</v>
+        <v>1210</v>
       </c>
       <c r="C700" t="s">
         <v>29</v>
@@ -15458,7 +15557,7 @@
     </row>
     <row r="701" spans="1:7">
       <c r="B701" s="3" t="s">
-        <v>1085</v>
+        <v>1211</v>
       </c>
       <c r="C701" t="s">
         <v>29</v>
@@ -15472,7 +15571,7 @@
     </row>
     <row r="702" spans="1:7">
       <c r="B702" s="3" t="s">
-        <v>1196</v>
+        <v>1212</v>
       </c>
       <c r="C702" t="s">
         <v>29</v>
@@ -15486,7 +15585,7 @@
     </row>
     <row r="703" spans="1:7">
       <c r="B703" s="3" t="s">
-        <v>1086</v>
+        <v>1213</v>
       </c>
       <c r="C703" t="s">
         <v>29</v>
@@ -15500,10 +15599,13 @@
     </row>
     <row r="704" spans="1:7">
       <c r="B704" s="3" t="s">
-        <v>1195</v>
+        <v>1214</v>
       </c>
       <c r="C704" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="D704" s="6" t="s">
+        <v>432</v>
       </c>
       <c r="F704" s="4">
         <v>1</v>
@@ -15514,7 +15616,7 @@
     </row>
     <row r="705" spans="1:7">
       <c r="B705" s="3" t="s">
-        <v>1087</v>
+        <v>1215</v>
       </c>
       <c r="C705" t="s">
         <v>29</v>
@@ -15528,7 +15630,7 @@
     </row>
     <row r="706" spans="1:7">
       <c r="B706" s="3" t="s">
-        <v>1194</v>
+        <v>1216</v>
       </c>
       <c r="C706" t="s">
         <v>29</v>
@@ -15542,7 +15644,7 @@
     </row>
     <row r="707" spans="1:7">
       <c r="B707" s="3" t="s">
-        <v>1088</v>
+        <v>1217</v>
       </c>
       <c r="C707" t="s">
         <v>29</v>
@@ -15556,7 +15658,7 @@
     </row>
     <row r="708" spans="1:7">
       <c r="B708" s="3" t="s">
-        <v>1193</v>
+        <v>1218</v>
       </c>
       <c r="C708" t="s">
         <v>29</v>
@@ -15570,7 +15672,7 @@
     </row>
     <row r="709" spans="1:7">
       <c r="B709" s="3" t="s">
-        <v>1089</v>
+        <v>1219</v>
       </c>
       <c r="C709" t="s">
         <v>29</v>
@@ -15584,7 +15686,7 @@
     </row>
     <row r="710" spans="1:7">
       <c r="B710" s="3" t="s">
-        <v>1192</v>
+        <v>1220</v>
       </c>
       <c r="C710" t="s">
         <v>29</v>
@@ -15598,7 +15700,7 @@
     </row>
     <row r="711" spans="1:7">
       <c r="B711" s="3" t="s">
-        <v>1090</v>
+        <v>1221</v>
       </c>
       <c r="C711" t="s">
         <v>29</v>
@@ -15611,11 +15713,8 @@
       </c>
     </row>
     <row r="712" spans="1:7">
-      <c r="A712" t="s">
-        <v>1093</v>
-      </c>
       <c r="B712" s="3" t="s">
-        <v>1094</v>
+        <v>1222</v>
       </c>
       <c r="C712" t="s">
         <v>29</v>
@@ -15629,13 +15728,10 @@
     </row>
     <row r="713" spans="1:7">
       <c r="B713" s="3" t="s">
-        <v>1095</v>
+        <v>1223</v>
       </c>
       <c r="C713" t="s">
-        <v>39</v>
-      </c>
-      <c r="D713" s="6" t="s">
-        <v>432</v>
+        <v>29</v>
       </c>
       <c r="F713" s="4">
         <v>1</v>
@@ -15646,13 +15742,10 @@
     </row>
     <row r="714" spans="1:7">
       <c r="B714" s="3" t="s">
-        <v>1096</v>
+        <v>1224</v>
       </c>
       <c r="C714" t="s">
-        <v>39</v>
-      </c>
-      <c r="D714" s="6" t="s">
-        <v>432</v>
+        <v>29</v>
       </c>
       <c r="F714" s="4">
         <v>1</v>
@@ -15663,13 +15756,10 @@
     </row>
     <row r="715" spans="1:7">
       <c r="B715" s="3" t="s">
-        <v>1097</v>
+        <v>1225</v>
       </c>
       <c r="C715" t="s">
-        <v>39</v>
-      </c>
-      <c r="D715" s="6" t="s">
-        <v>432</v>
+        <v>29</v>
       </c>
       <c r="F715" s="4">
         <v>1</v>
@@ -15680,13 +15770,10 @@
     </row>
     <row r="716" spans="1:7">
       <c r="B716" s="3" t="s">
-        <v>1098</v>
+        <v>1226</v>
       </c>
       <c r="C716" t="s">
-        <v>39</v>
-      </c>
-      <c r="D716" s="6" t="s">
-        <v>432</v>
+        <v>29</v>
       </c>
       <c r="F716" s="4">
         <v>1</v>
@@ -15697,13 +15784,10 @@
     </row>
     <row r="717" spans="1:7">
       <c r="B717" s="3" t="s">
-        <v>1099</v>
+        <v>1227</v>
       </c>
       <c r="C717" t="s">
-        <v>39</v>
-      </c>
-      <c r="D717" s="6" t="s">
-        <v>432</v>
+        <v>29</v>
       </c>
       <c r="F717" s="4">
         <v>1</v>
@@ -15713,11 +15797,8 @@
       </c>
     </row>
     <row r="718" spans="1:7">
-      <c r="A718" t="s">
-        <v>1100</v>
-      </c>
       <c r="B718" s="3" t="s">
-        <v>1101</v>
+        <v>1228</v>
       </c>
       <c r="C718" t="s">
         <v>29</v>
@@ -15730,8 +15811,11 @@
       </c>
     </row>
     <row r="719" spans="1:7">
+      <c r="A719" t="s">
+        <v>1077</v>
+      </c>
       <c r="B719" s="3" t="s">
-        <v>1102</v>
+        <v>1078</v>
       </c>
       <c r="C719" t="s">
         <v>29</v>
@@ -15745,10 +15829,13 @@
     </row>
     <row r="720" spans="1:7">
       <c r="B720" s="3" t="s">
-        <v>1103</v>
+        <v>1079</v>
       </c>
       <c r="C720" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="D720" s="6" t="s">
+        <v>432</v>
       </c>
       <c r="F720" s="4">
         <v>1</v>
@@ -15759,7 +15846,7 @@
     </row>
     <row r="721" spans="1:7">
       <c r="B721" s="3" t="s">
-        <v>1104</v>
+        <v>1229</v>
       </c>
       <c r="C721" t="s">
         <v>29</v>
@@ -15772,8 +15859,11 @@
       </c>
     </row>
     <row r="722" spans="1:7">
+      <c r="A722" t="s">
+        <v>1230</v>
+      </c>
       <c r="B722" s="3" t="s">
-        <v>1105</v>
+        <v>1231</v>
       </c>
       <c r="C722" t="s">
         <v>29</v>
@@ -15787,10 +15877,13 @@
     </row>
     <row r="723" spans="1:7">
       <c r="B723" s="3" t="s">
-        <v>1106</v>
+        <v>1080</v>
       </c>
       <c r="C723" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="D723" s="6" t="s">
+        <v>432</v>
       </c>
       <c r="F723" s="4">
         <v>1</v>
@@ -15800,8 +15893,11 @@
       </c>
     </row>
     <row r="724" spans="1:7">
+      <c r="A724" t="s">
+        <v>1233</v>
+      </c>
       <c r="B724" s="3" t="s">
-        <v>1107</v>
+        <v>1232</v>
       </c>
       <c r="C724" t="s">
         <v>29</v>
@@ -15814,14 +15910,14 @@
       </c>
     </row>
     <row r="725" spans="1:7">
-      <c r="A725" t="s">
-        <v>1108</v>
-      </c>
       <c r="B725" s="3" t="s">
-        <v>1109</v>
+        <v>1081</v>
       </c>
       <c r="C725" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="D725" s="6" t="s">
+        <v>432</v>
       </c>
       <c r="F725" s="4">
         <v>1</v>
@@ -15831,11 +15927,8 @@
       </c>
     </row>
     <row r="726" spans="1:7">
-      <c r="A726" t="s">
-        <v>1110</v>
-      </c>
       <c r="B726" s="3" t="s">
-        <v>1111</v>
+        <v>1234</v>
       </c>
       <c r="C726" t="s">
         <v>29</v>
@@ -15847,12 +15940,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="727" spans="1:7" ht="30">
+    <row r="727" spans="1:7">
       <c r="B727" s="3" t="s">
-        <v>1112</v>
+        <v>1082</v>
       </c>
       <c r="C727" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="D727" s="6" t="s">
+        <v>432</v>
       </c>
       <c r="F727" s="4">
         <v>1</v>
@@ -15862,14 +15958,14 @@
       </c>
     </row>
     <row r="728" spans="1:7">
-      <c r="A728" t="s">
-        <v>1117</v>
-      </c>
       <c r="B728" s="3" t="s">
-        <v>1113</v>
+        <v>1083</v>
       </c>
       <c r="C728" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="D728" s="6" t="s">
+        <v>432</v>
       </c>
       <c r="F728" s="4">
         <v>1</v>
@@ -15879,14 +15975,14 @@
       </c>
     </row>
     <row r="729" spans="1:7">
-      <c r="A729" t="s">
-        <v>603</v>
-      </c>
       <c r="B729" s="3" t="s">
-        <v>1114</v>
+        <v>1235</v>
       </c>
       <c r="C729" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="D729" s="6" t="s">
+        <v>432</v>
       </c>
       <c r="F729" s="4">
         <v>1</v>
@@ -15897,10 +15993,10 @@
     </row>
     <row r="730" spans="1:7">
       <c r="A730" t="s">
-        <v>1118</v>
+        <v>1084</v>
       </c>
       <c r="B730" s="3" t="s">
-        <v>1115</v>
+        <v>1236</v>
       </c>
       <c r="C730" t="s">
         <v>29</v>
@@ -15913,11 +16009,8 @@
       </c>
     </row>
     <row r="731" spans="1:7">
-      <c r="A731" t="s">
-        <v>497</v>
-      </c>
       <c r="B731" s="3" t="s">
-        <v>1116</v>
+        <v>1237</v>
       </c>
       <c r="C731" t="s">
         <v>29</v>
@@ -15931,7 +16024,7 @@
     </row>
     <row r="732" spans="1:7">
       <c r="B732" s="3" t="s">
-        <v>1119</v>
+        <v>1238</v>
       </c>
       <c r="C732" t="s">
         <v>29</v>
@@ -15945,7 +16038,7 @@
     </row>
     <row r="733" spans="1:7">
       <c r="B733" s="3" t="s">
-        <v>1120</v>
+        <v>1239</v>
       </c>
       <c r="C733" t="s">
         <v>29</v>
@@ -15959,10 +16052,13 @@
     </row>
     <row r="734" spans="1:7">
       <c r="B734" s="3" t="s">
-        <v>1121</v>
+        <v>1240</v>
       </c>
       <c r="C734" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="D734" s="6" t="s">
+        <v>432</v>
       </c>
       <c r="F734" s="4">
         <v>1</v>
@@ -15973,16 +16069,13 @@
     </row>
     <row r="735" spans="1:7">
       <c r="A735" t="s">
-        <v>1122</v>
+        <v>1241</v>
       </c>
       <c r="B735" s="3" t="s">
-        <v>1123</v>
+        <v>1085</v>
       </c>
       <c r="C735" t="s">
-        <v>39</v>
-      </c>
-      <c r="D735" s="6" t="s">
-        <v>432</v>
+        <v>29</v>
       </c>
       <c r="F735" s="4">
         <v>1</v>
@@ -15993,13 +16086,10 @@
     </row>
     <row r="736" spans="1:7">
       <c r="B736" s="3" t="s">
-        <v>1124</v>
+        <v>1086</v>
       </c>
       <c r="C736" t="s">
-        <v>39</v>
-      </c>
-      <c r="D736" s="6" t="s">
-        <v>432</v>
+        <v>29</v>
       </c>
       <c r="F736" s="4">
         <v>1</v>
@@ -16010,7 +16100,7 @@
     </row>
     <row r="737" spans="1:7">
       <c r="B737" s="3" t="s">
-        <v>1125</v>
+        <v>1087</v>
       </c>
       <c r="C737" t="s">
         <v>29</v>
@@ -16023,11 +16113,8 @@
       </c>
     </row>
     <row r="738" spans="1:7">
-      <c r="A738" t="s">
-        <v>1128</v>
-      </c>
       <c r="B738" s="3" t="s">
-        <v>1126</v>
+        <v>1088</v>
       </c>
       <c r="C738" t="s">
         <v>29</v>
@@ -16040,11 +16127,8 @@
       </c>
     </row>
     <row r="739" spans="1:7">
-      <c r="A739" t="s">
-        <v>1129</v>
-      </c>
       <c r="B739" s="3" t="s">
-        <v>1127</v>
+        <v>1089</v>
       </c>
       <c r="C739" t="s">
         <v>29</v>
@@ -16057,11 +16141,8 @@
       </c>
     </row>
     <row r="740" spans="1:7">
-      <c r="A740" t="s">
-        <v>1130</v>
-      </c>
       <c r="B740" s="3" t="s">
-        <v>1127</v>
+        <v>1090</v>
       </c>
       <c r="C740" t="s">
         <v>29</v>
@@ -16074,14 +16155,14 @@
       </c>
     </row>
     <row r="741" spans="1:7">
-      <c r="A741" t="s">
-        <v>1131</v>
-      </c>
       <c r="B741" s="3" t="s">
-        <v>1135</v>
+        <v>1242</v>
       </c>
       <c r="C741" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="D741" s="6" t="s">
+        <v>432</v>
       </c>
       <c r="F741" s="4">
         <v>1</v>
@@ -16092,13 +16173,16 @@
     </row>
     <row r="742" spans="1:7">
       <c r="A742" t="s">
-        <v>1132</v>
+        <v>1243</v>
       </c>
       <c r="B742" s="3" t="s">
-        <v>1136</v>
+        <v>1244</v>
       </c>
       <c r="C742" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="D742" s="6" t="s">
+        <v>432</v>
       </c>
       <c r="F742" s="4">
         <v>1</v>
@@ -16108,11 +16192,8 @@
       </c>
     </row>
     <row r="743" spans="1:7">
-      <c r="A743" t="s">
-        <v>1134</v>
-      </c>
       <c r="B743" s="3" t="s">
-        <v>1137</v>
+        <v>1245</v>
       </c>
       <c r="C743" t="s">
         <v>29</v>
@@ -16126,13 +16207,16 @@
     </row>
     <row r="744" spans="1:7">
       <c r="A744" t="s">
-        <v>1133</v>
+        <v>1246</v>
       </c>
       <c r="B744" s="3" t="s">
-        <v>1138</v>
+        <v>1247</v>
       </c>
       <c r="C744" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="D744" s="6" t="s">
+        <v>432</v>
       </c>
       <c r="F744" s="4">
         <v>1</v>
@@ -16141,12 +16225,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="745" spans="1:7" ht="30">
-      <c r="A745" t="s">
-        <v>1139</v>
-      </c>
+    <row r="745" spans="1:7">
       <c r="B745" s="3" t="s">
-        <v>1140</v>
+        <v>1248</v>
       </c>
       <c r="C745" t="s">
         <v>29</v>
@@ -16159,14 +16240,14 @@
       </c>
     </row>
     <row r="746" spans="1:7">
-      <c r="A746" t="s">
-        <v>1142</v>
-      </c>
       <c r="B746" s="3" t="s">
-        <v>1141</v>
+        <v>1249</v>
       </c>
       <c r="C746" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="D746" s="6" t="s">
+        <v>432</v>
       </c>
       <c r="F746" s="4">
         <v>1</v>
@@ -16177,7 +16258,7 @@
     </row>
     <row r="747" spans="1:7">
       <c r="B747" s="3" t="s">
-        <v>1200</v>
+        <v>1091</v>
       </c>
       <c r="C747" t="s">
         <v>29</v>
@@ -16189,9 +16270,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="748" spans="1:7">
+    <row r="748" spans="1:7" ht="30">
       <c r="B748" s="3" t="s">
-        <v>1202</v>
+        <v>1092</v>
       </c>
       <c r="C748" t="s">
         <v>29</v>
@@ -16203,12 +16284,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="749" spans="1:7" ht="30">
+    <row r="749" spans="1:7">
       <c r="B749" s="3" t="s">
-        <v>1143</v>
+        <v>1250</v>
       </c>
       <c r="C749" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="D749" s="6" t="s">
+        <v>432</v>
       </c>
       <c r="F749" s="4">
         <v>1</v>
@@ -16219,10 +16303,10 @@
     </row>
     <row r="750" spans="1:7">
       <c r="A750" t="s">
-        <v>1144</v>
+        <v>1097</v>
       </c>
       <c r="B750" s="3" t="s">
-        <v>1201</v>
+        <v>1093</v>
       </c>
       <c r="C750" t="s">
         <v>29</v>
@@ -16236,10 +16320,10 @@
     </row>
     <row r="751" spans="1:7">
       <c r="A751" t="s">
-        <v>1145</v>
+        <v>603</v>
       </c>
       <c r="B751" s="3" t="s">
-        <v>1146</v>
+        <v>1094</v>
       </c>
       <c r="C751" t="s">
         <v>29</v>
@@ -16253,10 +16337,10 @@
     </row>
     <row r="752" spans="1:7">
       <c r="A752" t="s">
-        <v>1147</v>
+        <v>1098</v>
       </c>
       <c r="B752" s="3" t="s">
-        <v>1156</v>
+        <v>1095</v>
       </c>
       <c r="C752" t="s">
         <v>29</v>
@@ -16268,12 +16352,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="753" spans="1:7" ht="30">
+    <row r="753" spans="1:7">
       <c r="A753" t="s">
-        <v>1148</v>
+        <v>497</v>
       </c>
       <c r="B753" s="3" t="s">
-        <v>1152</v>
+        <v>1096</v>
       </c>
       <c r="C753" t="s">
         <v>29</v>
@@ -16285,12 +16369,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="1:7" ht="30">
-      <c r="A754" t="s">
-        <v>1149</v>
-      </c>
+    <row r="754" spans="1:7">
       <c r="B754" s="3" t="s">
-        <v>1153</v>
+        <v>1099</v>
       </c>
       <c r="C754" t="s">
         <v>29</v>
@@ -16303,11 +16384,8 @@
       </c>
     </row>
     <row r="755" spans="1:7">
-      <c r="A755" t="s">
-        <v>1150</v>
-      </c>
       <c r="B755" s="3" t="s">
-        <v>1154</v>
+        <v>1100</v>
       </c>
       <c r="C755" t="s">
         <v>29</v>
@@ -16320,11 +16398,8 @@
       </c>
     </row>
     <row r="756" spans="1:7">
-      <c r="A756" t="s">
-        <v>1151</v>
-      </c>
       <c r="B756" s="3" t="s">
-        <v>1155</v>
+        <v>1101</v>
       </c>
       <c r="C756" t="s">
         <v>29</v>
@@ -16338,13 +16413,16 @@
     </row>
     <row r="757" spans="1:7">
       <c r="A757" t="s">
-        <v>1157</v>
+        <v>1102</v>
       </c>
       <c r="B757" s="3" t="s">
-        <v>1158</v>
+        <v>1103</v>
       </c>
       <c r="C757" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="D757" s="6" t="s">
+        <v>432</v>
       </c>
       <c r="F757" s="4">
         <v>1</v>
@@ -16354,14 +16432,14 @@
       </c>
     </row>
     <row r="758" spans="1:7">
-      <c r="A758" t="s">
-        <v>1159</v>
-      </c>
       <c r="B758" s="3" t="s">
-        <v>1166</v>
+        <v>1104</v>
       </c>
       <c r="C758" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="D758" s="6" t="s">
+        <v>432</v>
       </c>
       <c r="F758" s="4">
         <v>1</v>
@@ -16371,11 +16449,8 @@
       </c>
     </row>
     <row r="759" spans="1:7">
-      <c r="A759" t="s">
-        <v>1160</v>
-      </c>
       <c r="B759" s="3" t="s">
-        <v>1167</v>
+        <v>1105</v>
       </c>
       <c r="C759" t="s">
         <v>29</v>
@@ -16389,10 +16464,10 @@
     </row>
     <row r="760" spans="1:7">
       <c r="A760" t="s">
-        <v>1161</v>
+        <v>1108</v>
       </c>
       <c r="B760" s="3" t="s">
-        <v>1168</v>
+        <v>1106</v>
       </c>
       <c r="C760" t="s">
         <v>29</v>
@@ -16406,10 +16481,10 @@
     </row>
     <row r="761" spans="1:7">
       <c r="A761" t="s">
-        <v>1162</v>
+        <v>1109</v>
       </c>
       <c r="B761" s="3" t="s">
-        <v>1169</v>
+        <v>1107</v>
       </c>
       <c r="C761" t="s">
         <v>29</v>
@@ -16423,10 +16498,10 @@
     </row>
     <row r="762" spans="1:7">
       <c r="A762" t="s">
-        <v>1165</v>
+        <v>1110</v>
       </c>
       <c r="B762" s="3" t="s">
-        <v>1170</v>
+        <v>1252</v>
       </c>
       <c r="C762" t="s">
         <v>29</v>
@@ -16440,10 +16515,10 @@
     </row>
     <row r="763" spans="1:7">
       <c r="A763" t="s">
-        <v>1163</v>
+        <v>1111</v>
       </c>
       <c r="B763" s="3" t="s">
-        <v>1171</v>
+        <v>1115</v>
       </c>
       <c r="C763" t="s">
         <v>29</v>
@@ -16457,10 +16532,10 @@
     </row>
     <row r="764" spans="1:7">
       <c r="A764" t="s">
-        <v>1164</v>
+        <v>1112</v>
       </c>
       <c r="B764" s="3" t="s">
-        <v>1172</v>
+        <v>1116</v>
       </c>
       <c r="C764" t="s">
         <v>29</v>
@@ -16474,16 +16549,13 @@
     </row>
     <row r="765" spans="1:7">
       <c r="A765" t="s">
-        <v>1173</v>
+        <v>1114</v>
       </c>
       <c r="B765" s="3" t="s">
-        <v>1174</v>
+        <v>1117</v>
       </c>
       <c r="C765" t="s">
-        <v>39</v>
-      </c>
-      <c r="D765" s="6" t="s">
-        <v>1209</v>
+        <v>29</v>
       </c>
       <c r="F765" s="4">
         <v>1</v>
@@ -16494,16 +16566,13 @@
     </row>
     <row r="766" spans="1:7">
       <c r="A766" t="s">
-        <v>1160</v>
+        <v>1113</v>
       </c>
       <c r="B766" s="3" t="s">
-        <v>1175</v>
+        <v>1118</v>
       </c>
       <c r="C766" t="s">
-        <v>39</v>
-      </c>
-      <c r="D766" s="6" t="s">
-        <v>1209</v>
+        <v>29</v>
       </c>
       <c r="F766" s="4">
         <v>1</v>
@@ -16512,18 +16581,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="767" spans="1:7">
+    <row r="767" spans="1:7" ht="30">
       <c r="A767" t="s">
-        <v>1161</v>
+        <v>1119</v>
       </c>
       <c r="B767" s="3" t="s">
-        <v>1176</v>
+        <v>1120</v>
       </c>
       <c r="C767" t="s">
-        <v>39</v>
-      </c>
-      <c r="D767" s="6" t="s">
-        <v>1210</v>
+        <v>29</v>
       </c>
       <c r="F767" s="4">
         <v>1</v>
@@ -16534,16 +16600,13 @@
     </row>
     <row r="768" spans="1:7">
       <c r="A768" t="s">
-        <v>1162</v>
+        <v>1122</v>
       </c>
       <c r="B768" s="3" t="s">
-        <v>1177</v>
+        <v>1121</v>
       </c>
       <c r="C768" t="s">
-        <v>39</v>
-      </c>
-      <c r="D768" s="6" t="s">
-        <v>1212</v>
+        <v>29</v>
       </c>
       <c r="F768" s="4">
         <v>1</v>
@@ -16553,17 +16616,11 @@
       </c>
     </row>
     <row r="769" spans="1:7">
-      <c r="A769" t="s">
-        <v>1163</v>
-      </c>
       <c r="B769" s="3" t="s">
-        <v>1178</v>
+        <v>1166</v>
       </c>
       <c r="C769" t="s">
-        <v>39</v>
-      </c>
-      <c r="D769" s="6" t="s">
-        <v>1211</v>
+        <v>29</v>
       </c>
       <c r="F769" s="4">
         <v>1</v>
@@ -16573,17 +16630,11 @@
       </c>
     </row>
     <row r="770" spans="1:7">
-      <c r="A770" t="s">
-        <v>1179</v>
-      </c>
       <c r="B770" s="3" t="s">
-        <v>1184</v>
+        <v>1168</v>
       </c>
       <c r="C770" t="s">
-        <v>39</v>
-      </c>
-      <c r="D770" s="6" t="s">
-        <v>1209</v>
+        <v>29</v>
       </c>
       <c r="F770" s="4">
         <v>1</v>
@@ -16593,17 +16644,11 @@
       </c>
     </row>
     <row r="771" spans="1:7">
-      <c r="A771" t="s">
-        <v>1160</v>
-      </c>
       <c r="B771" s="3" t="s">
-        <v>1183</v>
+        <v>1167</v>
       </c>
       <c r="C771" t="s">
-        <v>39</v>
-      </c>
-      <c r="D771" s="6" t="s">
-        <v>1209</v>
+        <v>29</v>
       </c>
       <c r="F771" s="4">
         <v>1</v>
@@ -16612,18 +16657,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="772" spans="1:7">
-      <c r="A772" t="s">
-        <v>1161</v>
-      </c>
+    <row r="772" spans="1:7" ht="30">
       <c r="B772" s="3" t="s">
-        <v>1182</v>
+        <v>1123</v>
       </c>
       <c r="C772" t="s">
-        <v>39</v>
-      </c>
-      <c r="D772" s="6" t="s">
-        <v>1210</v>
+        <v>29</v>
       </c>
       <c r="F772" s="4">
         <v>1</v>
@@ -16634,16 +16673,13 @@
     </row>
     <row r="773" spans="1:7">
       <c r="A773" t="s">
-        <v>1162</v>
+        <v>1124</v>
       </c>
       <c r="B773" s="3" t="s">
-        <v>1181</v>
+        <v>1133</v>
       </c>
       <c r="C773" t="s">
-        <v>39</v>
-      </c>
-      <c r="D773" s="6" t="s">
-        <v>1212</v>
+        <v>29</v>
       </c>
       <c r="F773" s="4">
         <v>1</v>
@@ -16652,18 +16688,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="774" spans="1:7">
+    <row r="774" spans="1:7" ht="30">
       <c r="A774" t="s">
-        <v>1163</v>
+        <v>1125</v>
       </c>
       <c r="B774" s="3" t="s">
-        <v>1180</v>
+        <v>1129</v>
       </c>
       <c r="C774" t="s">
-        <v>39</v>
-      </c>
-      <c r="D774" s="6" t="s">
-        <v>1211</v>
+        <v>29</v>
       </c>
       <c r="F774" s="4">
         <v>1</v>
@@ -16672,18 +16705,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="775" spans="1:7">
+    <row r="775" spans="1:7" ht="30">
       <c r="A775" t="s">
-        <v>1185</v>
+        <v>1126</v>
       </c>
       <c r="B775" s="3" t="s">
-        <v>1186</v>
+        <v>1130</v>
       </c>
       <c r="C775" t="s">
-        <v>39</v>
-      </c>
-      <c r="D775" s="6" t="s">
-        <v>1209</v>
+        <v>29</v>
       </c>
       <c r="F775" s="4">
         <v>1</v>
@@ -16694,21 +16724,411 @@
     </row>
     <row r="776" spans="1:7">
       <c r="A776" t="s">
-        <v>1187</v>
+        <v>1127</v>
       </c>
       <c r="B776" s="3" t="s">
-        <v>1188</v>
+        <v>1131</v>
       </c>
       <c r="C776" t="s">
+        <v>29</v>
+      </c>
+      <c r="F776" s="4">
+        <v>1</v>
+      </c>
+      <c r="G776" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="777" spans="1:7">
+      <c r="A777" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B777" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C777" t="s">
+        <v>29</v>
+      </c>
+      <c r="F777" s="4">
+        <v>1</v>
+      </c>
+      <c r="G777" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="778" spans="1:7">
+      <c r="A778" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B778" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C778" t="s">
+        <v>29</v>
+      </c>
+      <c r="F778" s="4">
+        <v>1</v>
+      </c>
+      <c r="G778" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="779" spans="1:7">
+      <c r="A779" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B779" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C779" t="s">
+        <v>29</v>
+      </c>
+      <c r="F779" s="4">
+        <v>1</v>
+      </c>
+      <c r="G779" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="780" spans="1:7">
+      <c r="A780" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B780" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C780" t="s">
+        <v>29</v>
+      </c>
+      <c r="F780" s="4">
+        <v>1</v>
+      </c>
+      <c r="G780" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="781" spans="1:7">
+      <c r="A781" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B781" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C781" t="s">
+        <v>29</v>
+      </c>
+      <c r="F781" s="4">
+        <v>1</v>
+      </c>
+      <c r="G781" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="782" spans="1:7">
+      <c r="A782" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B782" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C782" t="s">
+        <v>29</v>
+      </c>
+      <c r="F782" s="4">
+        <v>1</v>
+      </c>
+      <c r="G782" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="783" spans="1:7">
+      <c r="A783" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B783" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C783" t="s">
+        <v>29</v>
+      </c>
+      <c r="F783" s="4">
+        <v>1</v>
+      </c>
+      <c r="G783" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="784" spans="1:7">
+      <c r="A784" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B784" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C784" t="s">
+        <v>29</v>
+      </c>
+      <c r="F784" s="4">
+        <v>1</v>
+      </c>
+      <c r="G784" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="785" spans="1:7">
+      <c r="A785" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B785" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C785" t="s">
+        <v>29</v>
+      </c>
+      <c r="F785" s="4">
+        <v>1</v>
+      </c>
+      <c r="G785" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="786" spans="1:7">
+      <c r="A786" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B786" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C786" t="s">
         <v>39</v>
       </c>
-      <c r="D776" s="6" t="s">
-        <v>1209</v>
-      </c>
-      <c r="F776" s="4">
-        <v>1</v>
-      </c>
-      <c r="G776" s="4">
+      <c r="D786" s="6" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F786" s="4">
+        <v>1</v>
+      </c>
+      <c r="G786" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="787" spans="1:7">
+      <c r="A787" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B787" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C787" t="s">
+        <v>39</v>
+      </c>
+      <c r="D787" s="6" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F787" s="4">
+        <v>1</v>
+      </c>
+      <c r="G787" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="788" spans="1:7">
+      <c r="A788" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B788" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C788" t="s">
+        <v>39</v>
+      </c>
+      <c r="D788" s="6" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F788" s="4">
+        <v>1</v>
+      </c>
+      <c r="G788" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="789" spans="1:7">
+      <c r="A789" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B789" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C789" t="s">
+        <v>39</v>
+      </c>
+      <c r="D789" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F789" s="4">
+        <v>1</v>
+      </c>
+      <c r="G789" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="790" spans="1:7">
+      <c r="A790" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B790" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C790" t="s">
+        <v>39</v>
+      </c>
+      <c r="D790" s="6" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F790" s="4">
+        <v>1</v>
+      </c>
+      <c r="G790" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="791" spans="1:7">
+      <c r="A791" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B791" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C791" t="s">
+        <v>39</v>
+      </c>
+      <c r="D791" s="6" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F791" s="4">
+        <v>1</v>
+      </c>
+      <c r="G791" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="792" spans="1:7">
+      <c r="A792" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B792" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C792" t="s">
+        <v>39</v>
+      </c>
+      <c r="D792" s="6" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F792" s="4">
+        <v>1</v>
+      </c>
+      <c r="G792" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="793" spans="1:7">
+      <c r="A793" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B793" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C793" t="s">
+        <v>39</v>
+      </c>
+      <c r="D793" s="6" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F793" s="4">
+        <v>1</v>
+      </c>
+      <c r="G793" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="794" spans="1:7">
+      <c r="A794" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B794" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C794" t="s">
+        <v>39</v>
+      </c>
+      <c r="D794" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F794" s="4">
+        <v>1</v>
+      </c>
+      <c r="G794" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="795" spans="1:7">
+      <c r="A795" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B795" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C795" t="s">
+        <v>39</v>
+      </c>
+      <c r="D795" s="6" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F795" s="4">
+        <v>1</v>
+      </c>
+      <c r="G795" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="796" spans="1:7">
+      <c r="A796" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B796" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C796" t="s">
+        <v>39</v>
+      </c>
+      <c r="D796" s="6" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F796" s="4">
+        <v>1</v>
+      </c>
+      <c r="G796" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="797" spans="1:7">
+      <c r="A797" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B797" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C797" t="s">
+        <v>39</v>
+      </c>
+      <c r="D797" s="6" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F797" s="4">
+        <v>1</v>
+      </c>
+      <c r="G797" s="4">
         <v>1</v>
       </c>
     </row>
@@ -16852,7 +17272,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1226</v>
+        <v>1192</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -16927,7 +17347,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1227</v>
+        <v>1193</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -16948,10 +17368,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>1216</v>
+        <v>1182</v>
       </c>
       <c r="B9" t="s">
-        <v>1217</v>
+        <v>1183</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -16966,15 +17386,15 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>1219</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>1220</v>
+        <v>1186</v>
       </c>
       <c r="B10" t="s">
-        <v>1218</v>
+        <v>1184</v>
       </c>
       <c r="C10" t="s">
         <v>433</v>
@@ -16983,21 +17403,21 @@
         <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>1224</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>1225</v>
+        <v>1191</v>
       </c>
       <c r="B11" t="s">
-        <v>1221</v>
+        <v>1187</v>
       </c>
       <c r="C11" t="s">
         <v>433</v>
       </c>
       <c r="D11" t="s">
-        <v>1222</v>
+        <v>1188</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -17006,7 +17426,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>1223</v>
+        <v>1189</v>
       </c>
     </row>
   </sheetData>

--- a/resources/NoteAudit.xlsx
+++ b/resources/NoteAudit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -4135,8 +4135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J797"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A788" workbookViewId="0">
-      <selection activeCell="B800" sqref="B800"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17145,8 +17145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17399,6 +17399,15 @@
       <c r="C10" t="s">
         <v>433</v>
       </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
       <c r="H10" t="s">
         <v>12</v>
       </c>
@@ -17418,6 +17427,9 @@
       </c>
       <c r="D11" t="s">
         <v>1188</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>

--- a/resources/NoteAudit.xlsx
+++ b/resources/NoteAudit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -3537,9 +3537,6 @@
     <t>//md-datepicker[@ng-model="vm.charts.basic.episodeStart.date"]</t>
   </si>
   <si>
-    <t>//md-slider[@ng-model="vm.charts.vital[sign.name].bloodPressure.systolicBp" and @aria-valuenow="89"]</t>
-  </si>
-  <si>
     <t>//md-radio-group[@ng-model="vm.charts.homebound.value"]//md-radio-button[@aria-checked="true" and @aria-label="Yes"]</t>
   </si>
   <si>
@@ -3775,6 +3772,9 @@
   </si>
   <si>
     <t>//md-checkbox[@ng-model="vm.charts.careCoordination.conference.displinaryTeam" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>(//md-slider[@ng-model="vm.charts.vital[sign.name].bloodPressure.systolicBp" and @aria-valuenow="89"])[1]</t>
   </si>
 </sst>
 </file>
@@ -4135,8 +4135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J797"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5236,7 +5236,7 @@
         <v>101</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C51" t="s">
         <v>29</v>
@@ -5256,7 +5256,7 @@
         <v>102</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C52" t="s">
         <v>29</v>
@@ -5757,7 +5757,7 @@
         <v>142</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1173</v>
+        <v>1252</v>
       </c>
       <c r="C79" t="s">
         <v>29</v>
@@ -5833,7 +5833,7 @@
         <v>148</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C84" t="s">
         <v>29</v>
@@ -11031,7 +11031,7 @@
     </row>
     <row r="412" spans="1:7" ht="30">
       <c r="B412" s="3" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C412" t="s">
         <v>29</v>
@@ -15317,7 +15317,7 @@
         <v>1073</v>
       </c>
       <c r="B686" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C686" t="s">
         <v>29</v>
@@ -15331,7 +15331,7 @@
     </row>
     <row r="687" spans="1:7">
       <c r="B687" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C687" t="s">
         <v>29</v>
@@ -15345,7 +15345,7 @@
     </row>
     <row r="688" spans="1:7">
       <c r="B688" s="3" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C688" t="s">
         <v>39</v>
@@ -15362,10 +15362,10 @@
     </row>
     <row r="689" spans="1:7">
       <c r="A689" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B689" s="3" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C689" t="s">
         <v>29</v>
@@ -15379,10 +15379,10 @@
     </row>
     <row r="690" spans="1:7">
       <c r="A690" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B690" s="3" t="s">
         <v>1198</v>
-      </c>
-      <c r="B690" s="3" t="s">
-        <v>1199</v>
       </c>
       <c r="C690" t="s">
         <v>29</v>
@@ -15399,7 +15399,7 @@
         <v>1074</v>
       </c>
       <c r="B691" s="3" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C691" t="s">
         <v>29</v>
@@ -15413,7 +15413,7 @@
     </row>
     <row r="692" spans="1:7">
       <c r="B692" s="3" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C692" t="s">
         <v>29</v>
@@ -15427,7 +15427,7 @@
     </row>
     <row r="693" spans="1:7">
       <c r="B693" s="3" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C693" t="s">
         <v>39</v>
@@ -15444,10 +15444,10 @@
     </row>
     <row r="694" spans="1:7">
       <c r="A694" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B694" s="3" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C694" t="s">
         <v>29</v>
@@ -15461,10 +15461,10 @@
     </row>
     <row r="695" spans="1:7">
       <c r="A695" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B695" s="3" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C695" t="s">
         <v>29</v>
@@ -15478,7 +15478,7 @@
     </row>
     <row r="696" spans="1:7">
       <c r="B696" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C696" t="s">
         <v>39</v>
@@ -15495,7 +15495,7 @@
     </row>
     <row r="697" spans="1:7">
       <c r="B697" s="3" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C697" t="s">
         <v>39</v>
@@ -15512,10 +15512,10 @@
     </row>
     <row r="698" spans="1:7">
       <c r="A698" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B698" s="3" t="s">
         <v>1207</v>
-      </c>
-      <c r="B698" s="3" t="s">
-        <v>1208</v>
       </c>
       <c r="C698" t="s">
         <v>29</v>
@@ -15529,7 +15529,7 @@
     </row>
     <row r="699" spans="1:7">
       <c r="B699" s="3" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C699" t="s">
         <v>29</v>
@@ -15543,7 +15543,7 @@
     </row>
     <row r="700" spans="1:7">
       <c r="B700" s="3" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C700" t="s">
         <v>29</v>
@@ -15557,7 +15557,7 @@
     </row>
     <row r="701" spans="1:7">
       <c r="B701" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C701" t="s">
         <v>29</v>
@@ -15571,7 +15571,7 @@
     </row>
     <row r="702" spans="1:7">
       <c r="B702" s="3" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C702" t="s">
         <v>29</v>
@@ -15585,7 +15585,7 @@
     </row>
     <row r="703" spans="1:7">
       <c r="B703" s="3" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C703" t="s">
         <v>29</v>
@@ -15599,7 +15599,7 @@
     </row>
     <row r="704" spans="1:7">
       <c r="B704" s="3" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C704" t="s">
         <v>39</v>
@@ -15616,7 +15616,7 @@
     </row>
     <row r="705" spans="1:7">
       <c r="B705" s="3" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C705" t="s">
         <v>29</v>
@@ -15630,7 +15630,7 @@
     </row>
     <row r="706" spans="1:7">
       <c r="B706" s="3" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C706" t="s">
         <v>29</v>
@@ -15644,7 +15644,7 @@
     </row>
     <row r="707" spans="1:7">
       <c r="B707" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C707" t="s">
         <v>29</v>
@@ -15658,7 +15658,7 @@
     </row>
     <row r="708" spans="1:7">
       <c r="B708" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C708" t="s">
         <v>29</v>
@@ -15672,7 +15672,7 @@
     </row>
     <row r="709" spans="1:7">
       <c r="B709" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C709" t="s">
         <v>29</v>
@@ -15686,7 +15686,7 @@
     </row>
     <row r="710" spans="1:7">
       <c r="B710" s="3" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C710" t="s">
         <v>29</v>
@@ -15700,7 +15700,7 @@
     </row>
     <row r="711" spans="1:7">
       <c r="B711" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C711" t="s">
         <v>29</v>
@@ -15714,7 +15714,7 @@
     </row>
     <row r="712" spans="1:7">
       <c r="B712" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C712" t="s">
         <v>29</v>
@@ -15728,7 +15728,7 @@
     </row>
     <row r="713" spans="1:7">
       <c r="B713" s="3" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C713" t="s">
         <v>29</v>
@@ -15742,7 +15742,7 @@
     </row>
     <row r="714" spans="1:7">
       <c r="B714" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C714" t="s">
         <v>29</v>
@@ -15756,7 +15756,7 @@
     </row>
     <row r="715" spans="1:7">
       <c r="B715" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C715" t="s">
         <v>29</v>
@@ -15770,7 +15770,7 @@
     </row>
     <row r="716" spans="1:7">
       <c r="B716" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C716" t="s">
         <v>29</v>
@@ -15784,7 +15784,7 @@
     </row>
     <row r="717" spans="1:7">
       <c r="B717" s="3" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C717" t="s">
         <v>29</v>
@@ -15798,7 +15798,7 @@
     </row>
     <row r="718" spans="1:7">
       <c r="B718" s="3" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C718" t="s">
         <v>29</v>
@@ -15846,7 +15846,7 @@
     </row>
     <row r="721" spans="1:7">
       <c r="B721" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C721" t="s">
         <v>29</v>
@@ -15860,10 +15860,10 @@
     </row>
     <row r="722" spans="1:7">
       <c r="A722" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B722" s="3" t="s">
         <v>1230</v>
-      </c>
-      <c r="B722" s="3" t="s">
-        <v>1231</v>
       </c>
       <c r="C722" t="s">
         <v>29</v>
@@ -15894,10 +15894,10 @@
     </row>
     <row r="724" spans="1:7">
       <c r="A724" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B724" s="3" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C724" t="s">
         <v>29</v>
@@ -15928,7 +15928,7 @@
     </row>
     <row r="726" spans="1:7">
       <c r="B726" s="3" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C726" t="s">
         <v>29</v>
@@ -15976,7 +15976,7 @@
     </row>
     <row r="729" spans="1:7">
       <c r="B729" s="3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C729" t="s">
         <v>39</v>
@@ -15996,7 +15996,7 @@
         <v>1084</v>
       </c>
       <c r="B730" s="3" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C730" t="s">
         <v>29</v>
@@ -16010,7 +16010,7 @@
     </row>
     <row r="731" spans="1:7">
       <c r="B731" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C731" t="s">
         <v>29</v>
@@ -16024,7 +16024,7 @@
     </row>
     <row r="732" spans="1:7">
       <c r="B732" s="3" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C732" t="s">
         <v>29</v>
@@ -16038,7 +16038,7 @@
     </row>
     <row r="733" spans="1:7">
       <c r="B733" s="3" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C733" t="s">
         <v>29</v>
@@ -16052,7 +16052,7 @@
     </row>
     <row r="734" spans="1:7">
       <c r="B734" s="3" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C734" t="s">
         <v>39</v>
@@ -16069,7 +16069,7 @@
     </row>
     <row r="735" spans="1:7">
       <c r="A735" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B735" s="3" t="s">
         <v>1085</v>
@@ -16156,7 +16156,7 @@
     </row>
     <row r="741" spans="1:7">
       <c r="B741" s="3" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C741" t="s">
         <v>39</v>
@@ -16173,10 +16173,10 @@
     </row>
     <row r="742" spans="1:7">
       <c r="A742" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B742" s="3" t="s">
         <v>1243</v>
-      </c>
-      <c r="B742" s="3" t="s">
-        <v>1244</v>
       </c>
       <c r="C742" t="s">
         <v>39</v>
@@ -16193,7 +16193,7 @@
     </row>
     <row r="743" spans="1:7">
       <c r="B743" s="3" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C743" t="s">
         <v>29</v>
@@ -16207,10 +16207,10 @@
     </row>
     <row r="744" spans="1:7">
       <c r="A744" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B744" s="3" t="s">
         <v>1246</v>
-      </c>
-      <c r="B744" s="3" t="s">
-        <v>1247</v>
       </c>
       <c r="C744" t="s">
         <v>39</v>
@@ -16227,7 +16227,7 @@
     </row>
     <row r="745" spans="1:7">
       <c r="B745" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C745" t="s">
         <v>29</v>
@@ -16241,7 +16241,7 @@
     </row>
     <row r="746" spans="1:7">
       <c r="B746" s="3" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C746" t="s">
         <v>39</v>
@@ -16286,7 +16286,7 @@
     </row>
     <row r="749" spans="1:7">
       <c r="B749" s="3" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C749" t="s">
         <v>39</v>
@@ -16501,7 +16501,7 @@
         <v>1110</v>
       </c>
       <c r="B762" s="3" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C762" t="s">
         <v>29</v>
@@ -16903,7 +16903,7 @@
         <v>39</v>
       </c>
       <c r="D786" s="6" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="F786" s="4">
         <v>1</v>
@@ -16923,7 +16923,7 @@
         <v>39</v>
       </c>
       <c r="D787" s="6" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="F787" s="4">
         <v>1</v>
@@ -16943,7 +16943,7 @@
         <v>39</v>
       </c>
       <c r="D788" s="6" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F788" s="4">
         <v>1</v>
@@ -16963,7 +16963,7 @@
         <v>39</v>
       </c>
       <c r="D789" s="6" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="F789" s="4">
         <v>1</v>
@@ -16983,7 +16983,7 @@
         <v>39</v>
       </c>
       <c r="D790" s="6" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="F790" s="4">
         <v>1</v>
@@ -17003,7 +17003,7 @@
         <v>39</v>
       </c>
       <c r="D791" s="6" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="F791" s="4">
         <v>1</v>
@@ -17023,7 +17023,7 @@
         <v>39</v>
       </c>
       <c r="D792" s="6" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="F792" s="4">
         <v>1</v>
@@ -17043,7 +17043,7 @@
         <v>39</v>
       </c>
       <c r="D793" s="6" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F793" s="4">
         <v>1</v>
@@ -17063,7 +17063,7 @@
         <v>39</v>
       </c>
       <c r="D794" s="6" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="F794" s="4">
         <v>1</v>
@@ -17083,7 +17083,7 @@
         <v>39</v>
       </c>
       <c r="D795" s="6" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="F795" s="4">
         <v>1</v>
@@ -17103,7 +17103,7 @@
         <v>39</v>
       </c>
       <c r="D796" s="6" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="F796" s="4">
         <v>1</v>
@@ -17123,7 +17123,7 @@
         <v>39</v>
       </c>
       <c r="D797" s="6" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="F797" s="4">
         <v>1</v>
@@ -17145,7 +17145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -17272,7 +17272,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -17347,7 +17347,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -17368,10 +17368,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B9" t="s">
         <v>1182</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1183</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -17386,15 +17386,15 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B10" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C10" t="s">
         <v>433</v>
@@ -17412,33 +17412,33 @@
         <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B11" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C11" t="s">
         <v>433</v>
       </c>
       <c r="D11" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
         <v>1188</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
-        <v>1189</v>
       </c>
     </row>
   </sheetData>

--- a/resources/NoteAudit.xlsx
+++ b/resources/NoteAudit.xlsx
@@ -3315,9 +3315,6 @@
     <t>Performed teach back method</t>
   </si>
   <si>
-    <t>//md-radio-group[@ng-model="vm.charts.education.understanding.detail"]//md-radio-button[@aria-checked="true" and @aria-label="Low (&lt; 50%)"]</t>
-  </si>
-  <si>
     <t>//md-radio-group[@ng-model="vm.charts.education.teachback.detail"]//md-radio-button[@aria-checked="true" and @aria-label="Low (&lt; 50%)"]</t>
   </si>
   <si>
@@ -3774,7 +3771,10 @@
     <t>//md-checkbox[@ng-model="vm.charts.careCoordination.conference.displinaryTeam" and @aria-checked="true"]</t>
   </si>
   <si>
-    <t>(//md-slider[@ng-model="vm.charts.vital[sign.name].bloodPressure.systolicBp" and @aria-valuenow="89"])[1]</t>
+    <t>(//md-slider[@ng-model="vm.charts.vital[sign.name].bloodPressure.systolicBp" and @aria-valuenow="90"])[1]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.education.teachingTool" and @aria-label="Tool: Teach back technique"]</t>
   </si>
 </sst>
 </file>
@@ -4135,8 +4135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J797"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="B790" workbookViewId="0">
+      <selection activeCell="B799" sqref="B799"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4385,7 +4385,7 @@
         <v>39</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4">
@@ -4403,7 +4403,7 @@
         <v>32</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -4423,7 +4423,7 @@
         <v>33</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
@@ -4443,7 +4443,7 @@
         <v>34</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
@@ -5236,7 +5236,7 @@
         <v>101</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C51" t="s">
         <v>29</v>
@@ -5256,7 +5256,7 @@
         <v>102</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C52" t="s">
         <v>29</v>
@@ -5757,7 +5757,7 @@
         <v>142</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C79" t="s">
         <v>29</v>
@@ -5833,7 +5833,7 @@
         <v>148</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C84" t="s">
         <v>29</v>
@@ -11031,7 +11031,7 @@
     </row>
     <row r="412" spans="1:7" ht="30">
       <c r="B412" s="3" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C412" t="s">
         <v>29</v>
@@ -15317,7 +15317,7 @@
         <v>1073</v>
       </c>
       <c r="B686" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C686" t="s">
         <v>29</v>
@@ -15331,7 +15331,7 @@
     </row>
     <row r="687" spans="1:7">
       <c r="B687" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C687" t="s">
         <v>29</v>
@@ -15345,7 +15345,7 @@
     </row>
     <row r="688" spans="1:7">
       <c r="B688" s="3" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C688" t="s">
         <v>39</v>
@@ -15362,10 +15362,10 @@
     </row>
     <row r="689" spans="1:7">
       <c r="A689" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B689" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C689" t="s">
         <v>29</v>
@@ -15379,10 +15379,10 @@
     </row>
     <row r="690" spans="1:7">
       <c r="A690" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B690" s="3" t="s">
         <v>1197</v>
-      </c>
-      <c r="B690" s="3" t="s">
-        <v>1198</v>
       </c>
       <c r="C690" t="s">
         <v>29</v>
@@ -15399,7 +15399,7 @@
         <v>1074</v>
       </c>
       <c r="B691" s="3" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C691" t="s">
         <v>29</v>
@@ -15413,7 +15413,7 @@
     </row>
     <row r="692" spans="1:7">
       <c r="B692" s="3" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C692" t="s">
         <v>29</v>
@@ -15427,7 +15427,7 @@
     </row>
     <row r="693" spans="1:7">
       <c r="B693" s="3" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C693" t="s">
         <v>39</v>
@@ -15444,10 +15444,10 @@
     </row>
     <row r="694" spans="1:7">
       <c r="A694" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B694" s="3" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C694" t="s">
         <v>29</v>
@@ -15461,10 +15461,10 @@
     </row>
     <row r="695" spans="1:7">
       <c r="A695" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B695" s="3" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C695" t="s">
         <v>29</v>
@@ -15478,7 +15478,7 @@
     </row>
     <row r="696" spans="1:7">
       <c r="B696" s="3" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C696" t="s">
         <v>39</v>
@@ -15495,7 +15495,7 @@
     </row>
     <row r="697" spans="1:7">
       <c r="B697" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C697" t="s">
         <v>39</v>
@@ -15512,10 +15512,10 @@
     </row>
     <row r="698" spans="1:7">
       <c r="A698" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B698" s="3" t="s">
         <v>1206</v>
-      </c>
-      <c r="B698" s="3" t="s">
-        <v>1207</v>
       </c>
       <c r="C698" t="s">
         <v>29</v>
@@ -15529,7 +15529,7 @@
     </row>
     <row r="699" spans="1:7">
       <c r="B699" s="3" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C699" t="s">
         <v>29</v>
@@ -15543,7 +15543,7 @@
     </row>
     <row r="700" spans="1:7">
       <c r="B700" s="3" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C700" t="s">
         <v>29</v>
@@ -15557,7 +15557,7 @@
     </row>
     <row r="701" spans="1:7">
       <c r="B701" s="3" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C701" t="s">
         <v>29</v>
@@ -15571,7 +15571,7 @@
     </row>
     <row r="702" spans="1:7">
       <c r="B702" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C702" t="s">
         <v>29</v>
@@ -15585,7 +15585,7 @@
     </row>
     <row r="703" spans="1:7">
       <c r="B703" s="3" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C703" t="s">
         <v>29</v>
@@ -15599,7 +15599,7 @@
     </row>
     <row r="704" spans="1:7">
       <c r="B704" s="3" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C704" t="s">
         <v>39</v>
@@ -15616,7 +15616,7 @@
     </row>
     <row r="705" spans="1:7">
       <c r="B705" s="3" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C705" t="s">
         <v>29</v>
@@ -15630,7 +15630,7 @@
     </row>
     <row r="706" spans="1:7">
       <c r="B706" s="3" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C706" t="s">
         <v>29</v>
@@ -15644,7 +15644,7 @@
     </row>
     <row r="707" spans="1:7">
       <c r="B707" s="3" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C707" t="s">
         <v>29</v>
@@ -15658,7 +15658,7 @@
     </row>
     <row r="708" spans="1:7">
       <c r="B708" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C708" t="s">
         <v>29</v>
@@ -15672,7 +15672,7 @@
     </row>
     <row r="709" spans="1:7">
       <c r="B709" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C709" t="s">
         <v>29</v>
@@ -15686,7 +15686,7 @@
     </row>
     <row r="710" spans="1:7">
       <c r="B710" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C710" t="s">
         <v>29</v>
@@ -15700,7 +15700,7 @@
     </row>
     <row r="711" spans="1:7">
       <c r="B711" s="3" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C711" t="s">
         <v>29</v>
@@ -15714,7 +15714,7 @@
     </row>
     <row r="712" spans="1:7">
       <c r="B712" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C712" t="s">
         <v>29</v>
@@ -15728,7 +15728,7 @@
     </row>
     <row r="713" spans="1:7">
       <c r="B713" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C713" t="s">
         <v>29</v>
@@ -15742,7 +15742,7 @@
     </row>
     <row r="714" spans="1:7">
       <c r="B714" s="3" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C714" t="s">
         <v>29</v>
@@ -15756,7 +15756,7 @@
     </row>
     <row r="715" spans="1:7">
       <c r="B715" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C715" t="s">
         <v>29</v>
@@ -15770,7 +15770,7 @@
     </row>
     <row r="716" spans="1:7">
       <c r="B716" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C716" t="s">
         <v>29</v>
@@ -15784,7 +15784,7 @@
     </row>
     <row r="717" spans="1:7">
       <c r="B717" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C717" t="s">
         <v>29</v>
@@ -15798,7 +15798,7 @@
     </row>
     <row r="718" spans="1:7">
       <c r="B718" s="3" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C718" t="s">
         <v>29</v>
@@ -15846,7 +15846,7 @@
     </row>
     <row r="721" spans="1:7">
       <c r="B721" s="3" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C721" t="s">
         <v>29</v>
@@ -15860,10 +15860,10 @@
     </row>
     <row r="722" spans="1:7">
       <c r="A722" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B722" s="3" t="s">
         <v>1229</v>
-      </c>
-      <c r="B722" s="3" t="s">
-        <v>1230</v>
       </c>
       <c r="C722" t="s">
         <v>29</v>
@@ -15894,10 +15894,10 @@
     </row>
     <row r="724" spans="1:7">
       <c r="A724" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B724" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C724" t="s">
         <v>29</v>
@@ -15928,7 +15928,7 @@
     </row>
     <row r="726" spans="1:7">
       <c r="B726" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C726" t="s">
         <v>29</v>
@@ -15976,7 +15976,7 @@
     </row>
     <row r="729" spans="1:7">
       <c r="B729" s="3" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C729" t="s">
         <v>39</v>
@@ -15996,7 +15996,7 @@
         <v>1084</v>
       </c>
       <c r="B730" s="3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C730" t="s">
         <v>29</v>
@@ -16010,7 +16010,7 @@
     </row>
     <row r="731" spans="1:7">
       <c r="B731" s="3" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C731" t="s">
         <v>29</v>
@@ -16024,7 +16024,7 @@
     </row>
     <row r="732" spans="1:7">
       <c r="B732" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C732" t="s">
         <v>29</v>
@@ -16038,7 +16038,7 @@
     </row>
     <row r="733" spans="1:7">
       <c r="B733" s="3" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C733" t="s">
         <v>29</v>
@@ -16052,7 +16052,7 @@
     </row>
     <row r="734" spans="1:7">
       <c r="B734" s="3" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C734" t="s">
         <v>39</v>
@@ -16069,7 +16069,7 @@
     </row>
     <row r="735" spans="1:7">
       <c r="A735" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B735" s="3" t="s">
         <v>1085</v>
@@ -16156,7 +16156,7 @@
     </row>
     <row r="741" spans="1:7">
       <c r="B741" s="3" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C741" t="s">
         <v>39</v>
@@ -16173,10 +16173,10 @@
     </row>
     <row r="742" spans="1:7">
       <c r="A742" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B742" s="3" t="s">
         <v>1242</v>
-      </c>
-      <c r="B742" s="3" t="s">
-        <v>1243</v>
       </c>
       <c r="C742" t="s">
         <v>39</v>
@@ -16193,7 +16193,7 @@
     </row>
     <row r="743" spans="1:7">
       <c r="B743" s="3" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C743" t="s">
         <v>29</v>
@@ -16207,10 +16207,10 @@
     </row>
     <row r="744" spans="1:7">
       <c r="A744" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B744" s="3" t="s">
         <v>1245</v>
-      </c>
-      <c r="B744" s="3" t="s">
-        <v>1246</v>
       </c>
       <c r="C744" t="s">
         <v>39</v>
@@ -16227,7 +16227,7 @@
     </row>
     <row r="745" spans="1:7">
       <c r="B745" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C745" t="s">
         <v>29</v>
@@ -16241,7 +16241,7 @@
     </row>
     <row r="746" spans="1:7">
       <c r="B746" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C746" t="s">
         <v>39</v>
@@ -16286,7 +16286,7 @@
     </row>
     <row r="749" spans="1:7">
       <c r="B749" s="3" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C749" t="s">
         <v>39</v>
@@ -16371,7 +16371,7 @@
     </row>
     <row r="754" spans="1:7">
       <c r="B754" s="3" t="s">
-        <v>1099</v>
+        <v>1252</v>
       </c>
       <c r="C754" t="s">
         <v>29</v>
@@ -16385,7 +16385,7 @@
     </row>
     <row r="755" spans="1:7">
       <c r="B755" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C755" t="s">
         <v>29</v>
@@ -16399,7 +16399,7 @@
     </row>
     <row r="756" spans="1:7">
       <c r="B756" s="3" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C756" t="s">
         <v>29</v>
@@ -16413,10 +16413,10 @@
     </row>
     <row r="757" spans="1:7">
       <c r="A757" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B757" s="3" t="s">
         <v>1102</v>
-      </c>
-      <c r="B757" s="3" t="s">
-        <v>1103</v>
       </c>
       <c r="C757" t="s">
         <v>39</v>
@@ -16433,7 +16433,7 @@
     </row>
     <row r="758" spans="1:7">
       <c r="B758" s="3" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C758" t="s">
         <v>39</v>
@@ -16450,7 +16450,7 @@
     </row>
     <row r="759" spans="1:7">
       <c r="B759" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C759" t="s">
         <v>29</v>
@@ -16464,10 +16464,10 @@
     </row>
     <row r="760" spans="1:7">
       <c r="A760" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B760" s="3" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C760" t="s">
         <v>29</v>
@@ -16481,10 +16481,10 @@
     </row>
     <row r="761" spans="1:7">
       <c r="A761" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B761" s="3" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C761" t="s">
         <v>29</v>
@@ -16498,10 +16498,10 @@
     </row>
     <row r="762" spans="1:7">
       <c r="A762" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B762" s="3" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C762" t="s">
         <v>29</v>
@@ -16515,10 +16515,10 @@
     </row>
     <row r="763" spans="1:7">
       <c r="A763" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B763" s="3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C763" t="s">
         <v>29</v>
@@ -16532,10 +16532,10 @@
     </row>
     <row r="764" spans="1:7">
       <c r="A764" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B764" s="3" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C764" t="s">
         <v>29</v>
@@ -16549,10 +16549,10 @@
     </row>
     <row r="765" spans="1:7">
       <c r="A765" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B765" s="3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C765" t="s">
         <v>29</v>
@@ -16566,10 +16566,10 @@
     </row>
     <row r="766" spans="1:7">
       <c r="A766" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B766" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C766" t="s">
         <v>29</v>
@@ -16583,10 +16583,10 @@
     </row>
     <row r="767" spans="1:7" ht="30">
       <c r="A767" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B767" s="3" t="s">
         <v>1119</v>
-      </c>
-      <c r="B767" s="3" t="s">
-        <v>1120</v>
       </c>
       <c r="C767" t="s">
         <v>29</v>
@@ -16600,10 +16600,10 @@
     </row>
     <row r="768" spans="1:7">
       <c r="A768" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B768" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C768" t="s">
         <v>29</v>
@@ -16617,7 +16617,7 @@
     </row>
     <row r="769" spans="1:7">
       <c r="B769" s="3" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C769" t="s">
         <v>29</v>
@@ -16631,7 +16631,7 @@
     </row>
     <row r="770" spans="1:7">
       <c r="B770" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C770" t="s">
         <v>29</v>
@@ -16645,7 +16645,7 @@
     </row>
     <row r="771" spans="1:7">
       <c r="B771" s="3" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C771" t="s">
         <v>29</v>
@@ -16659,7 +16659,7 @@
     </row>
     <row r="772" spans="1:7" ht="30">
       <c r="B772" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C772" t="s">
         <v>29</v>
@@ -16673,10 +16673,10 @@
     </row>
     <row r="773" spans="1:7">
       <c r="A773" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B773" s="3" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C773" t="s">
         <v>29</v>
@@ -16690,10 +16690,10 @@
     </row>
     <row r="774" spans="1:7" ht="30">
       <c r="A774" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B774" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C774" t="s">
         <v>29</v>
@@ -16707,10 +16707,10 @@
     </row>
     <row r="775" spans="1:7" ht="30">
       <c r="A775" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B775" s="3" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C775" t="s">
         <v>29</v>
@@ -16724,10 +16724,10 @@
     </row>
     <row r="776" spans="1:7">
       <c r="A776" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B776" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C776" t="s">
         <v>29</v>
@@ -16741,10 +16741,10 @@
     </row>
     <row r="777" spans="1:7">
       <c r="A777" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B777" s="3" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C777" t="s">
         <v>29</v>
@@ -16758,10 +16758,10 @@
     </row>
     <row r="778" spans="1:7">
       <c r="A778" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B778" s="3" t="s">
         <v>1134</v>
-      </c>
-      <c r="B778" s="3" t="s">
-        <v>1135</v>
       </c>
       <c r="C778" t="s">
         <v>29</v>
@@ -16775,10 +16775,10 @@
     </row>
     <row r="779" spans="1:7">
       <c r="A779" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B779" s="3" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C779" t="s">
         <v>29</v>
@@ -16792,10 +16792,10 @@
     </row>
     <row r="780" spans="1:7">
       <c r="A780" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B780" s="3" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C780" t="s">
         <v>29</v>
@@ -16809,10 +16809,10 @@
     </row>
     <row r="781" spans="1:7">
       <c r="A781" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B781" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C781" t="s">
         <v>29</v>
@@ -16826,10 +16826,10 @@
     </row>
     <row r="782" spans="1:7">
       <c r="A782" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B782" s="3" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C782" t="s">
         <v>29</v>
@@ -16843,10 +16843,10 @@
     </row>
     <row r="783" spans="1:7">
       <c r="A783" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B783" s="3" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C783" t="s">
         <v>29</v>
@@ -16860,10 +16860,10 @@
     </row>
     <row r="784" spans="1:7">
       <c r="A784" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B784" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C784" t="s">
         <v>29</v>
@@ -16877,10 +16877,10 @@
     </row>
     <row r="785" spans="1:7">
       <c r="A785" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B785" s="3" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C785" t="s">
         <v>29</v>
@@ -16894,16 +16894,16 @@
     </row>
     <row r="786" spans="1:7">
       <c r="A786" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B786" s="3" t="s">
         <v>1150</v>
-      </c>
-      <c r="B786" s="3" t="s">
-        <v>1151</v>
       </c>
       <c r="C786" t="s">
         <v>39</v>
       </c>
       <c r="D786" s="6" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F786" s="4">
         <v>1</v>
@@ -16914,16 +16914,16 @@
     </row>
     <row r="787" spans="1:7">
       <c r="A787" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B787" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C787" t="s">
         <v>39</v>
       </c>
       <c r="D787" s="6" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F787" s="4">
         <v>1</v>
@@ -16934,16 +16934,16 @@
     </row>
     <row r="788" spans="1:7">
       <c r="A788" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B788" s="3" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C788" t="s">
         <v>39</v>
       </c>
       <c r="D788" s="6" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="F788" s="4">
         <v>1</v>
@@ -16954,16 +16954,16 @@
     </row>
     <row r="789" spans="1:7">
       <c r="A789" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B789" s="3" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C789" t="s">
         <v>39</v>
       </c>
       <c r="D789" s="6" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="F789" s="4">
         <v>1</v>
@@ -16974,16 +16974,16 @@
     </row>
     <row r="790" spans="1:7">
       <c r="A790" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B790" s="3" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C790" t="s">
         <v>39</v>
       </c>
       <c r="D790" s="6" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F790" s="4">
         <v>1</v>
@@ -16994,16 +16994,16 @@
     </row>
     <row r="791" spans="1:7">
       <c r="A791" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B791" s="3" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C791" t="s">
         <v>39</v>
       </c>
       <c r="D791" s="6" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F791" s="4">
         <v>1</v>
@@ -17014,16 +17014,16 @@
     </row>
     <row r="792" spans="1:7">
       <c r="A792" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B792" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C792" t="s">
         <v>39</v>
       </c>
       <c r="D792" s="6" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F792" s="4">
         <v>1</v>
@@ -17034,16 +17034,16 @@
     </row>
     <row r="793" spans="1:7">
       <c r="A793" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B793" s="3" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C793" t="s">
         <v>39</v>
       </c>
       <c r="D793" s="6" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="F793" s="4">
         <v>1</v>
@@ -17054,16 +17054,16 @@
     </row>
     <row r="794" spans="1:7">
       <c r="A794" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B794" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C794" t="s">
         <v>39</v>
       </c>
       <c r="D794" s="6" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="F794" s="4">
         <v>1</v>
@@ -17074,16 +17074,16 @@
     </row>
     <row r="795" spans="1:7">
       <c r="A795" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B795" s="3" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C795" t="s">
         <v>39</v>
       </c>
       <c r="D795" s="6" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F795" s="4">
         <v>1</v>
@@ -17094,16 +17094,16 @@
     </row>
     <row r="796" spans="1:7">
       <c r="A796" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B796" s="3" t="s">
         <v>1162</v>
-      </c>
-      <c r="B796" s="3" t="s">
-        <v>1163</v>
       </c>
       <c r="C796" t="s">
         <v>39</v>
       </c>
       <c r="D796" s="6" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F796" s="4">
         <v>1</v>
@@ -17114,16 +17114,16 @@
     </row>
     <row r="797" spans="1:7">
       <c r="A797" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B797" s="3" t="s">
         <v>1164</v>
-      </c>
-      <c r="B797" s="3" t="s">
-        <v>1165</v>
       </c>
       <c r="C797" t="s">
         <v>39</v>
       </c>
       <c r="D797" s="6" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F797" s="4">
         <v>1</v>
@@ -17272,7 +17272,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -17347,7 +17347,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -17368,10 +17368,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B9" t="s">
         <v>1181</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1182</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -17386,15 +17386,15 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B10" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C10" t="s">
         <v>433</v>
@@ -17412,33 +17412,33 @@
         <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B11" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C11" t="s">
         <v>433</v>
       </c>
       <c r="D11" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
         <v>1187</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
-        <v>1188</v>
       </c>
     </row>
   </sheetData>

--- a/resources/NoteAudit.xlsx
+++ b/resources/NoteAudit.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2265" uniqueCount="1253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2265" uniqueCount="1254">
   <si>
     <t>Name</t>
   </si>
@@ -3537,18 +3537,6 @@
     <t>//md-radio-group[@ng-model="vm.charts.homebound.value"]//md-radio-button[@aria-checked="true" and @aria-label="Yes"]</t>
   </si>
   <si>
-    <t>S43.129D: Disloc of unsp acromioclav jt, 100%-200% displacmnt, subs</t>
-  </si>
-  <si>
-    <t>S66.300A: Unsp inj extn musc/fasc/tend r idx fngr at wrs/hnd lv, init</t>
-  </si>
-  <si>
-    <t>S02.600B: Fx unsp part of body of mandible, unspecified side, 7thB</t>
-  </si>
-  <si>
-    <t>S36.400D: Unspecified injury of duodenum, subsequent encounter</t>
-  </si>
-  <si>
     <t>//md-slider[@ng-model="vm.charts.notifyphysician.temperature.lessThan" and @aria-valuenow="729"]</t>
   </si>
   <si>
@@ -3775,6 +3763,21 @@
   </si>
   <si>
     <t>//md-select[@ng-model="vm.charts.education.teachingTool" and @aria-label="Tool: Teach back technique"]</t>
+  </si>
+  <si>
+    <t>M75.100: Unspecified rotator cuff tear or rupture of unspecified shoulder, not specified as traumatic</t>
+  </si>
+  <si>
+    <t>M23.200: Derangement of unspecified lateral meniscus due to old tear or injury, right knee</t>
+  </si>
+  <si>
+    <t>S66.300A: Unspecified injury of extensor muscle, fascia and tendon of right index finger at wrist and hand level, initial encounter</t>
+  </si>
+  <si>
+    <t>S12.400K: Unspecified displaced fracture of fifth cervical vertebra, subsequent encounter for fracture with nonunion</t>
+  </si>
+  <si>
+    <t>S02.600G: Fracture of unspecified part of body of mandible, unspecified side, subsequent encounter for fracture with delayed healing</t>
   </si>
 </sst>
 </file>
@@ -4135,8 +4138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J797"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B790" workbookViewId="0">
-      <selection activeCell="B799" sqref="B799"/>
+    <sheetView tabSelected="1" topLeftCell="A787" workbookViewId="0">
+      <selection activeCell="B794" sqref="B794"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4144,7 +4147,8 @@
     <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="2" width="151.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="122.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.28515625" customWidth="1"/>
@@ -5236,7 +5240,7 @@
         <v>101</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="C51" t="s">
         <v>29</v>
@@ -5256,7 +5260,7 @@
         <v>102</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="C52" t="s">
         <v>29</v>
@@ -5757,7 +5761,7 @@
         <v>142</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="C79" t="s">
         <v>29</v>
@@ -11031,7 +11035,7 @@
     </row>
     <row r="412" spans="1:7" ht="30">
       <c r="B412" s="3" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="C412" t="s">
         <v>29</v>
@@ -15317,7 +15321,7 @@
         <v>1073</v>
       </c>
       <c r="B686" s="3" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="C686" t="s">
         <v>29</v>
@@ -15331,7 +15335,7 @@
     </row>
     <row r="687" spans="1:7">
       <c r="B687" s="3" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="C687" t="s">
         <v>29</v>
@@ -15345,7 +15349,7 @@
     </row>
     <row r="688" spans="1:7">
       <c r="B688" s="3" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="C688" t="s">
         <v>39</v>
@@ -15362,10 +15366,10 @@
     </row>
     <row r="689" spans="1:7">
       <c r="A689" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="B689" s="3" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="C689" t="s">
         <v>29</v>
@@ -15379,10 +15383,10 @@
     </row>
     <row r="690" spans="1:7">
       <c r="A690" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="B690" s="3" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="C690" t="s">
         <v>29</v>
@@ -15399,7 +15403,7 @@
         <v>1074</v>
       </c>
       <c r="B691" s="3" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="C691" t="s">
         <v>29</v>
@@ -15413,7 +15417,7 @@
     </row>
     <row r="692" spans="1:7">
       <c r="B692" s="3" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="C692" t="s">
         <v>29</v>
@@ -15427,7 +15431,7 @@
     </row>
     <row r="693" spans="1:7">
       <c r="B693" s="3" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="C693" t="s">
         <v>39</v>
@@ -15444,10 +15448,10 @@
     </row>
     <row r="694" spans="1:7">
       <c r="A694" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="B694" s="3" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="C694" t="s">
         <v>29</v>
@@ -15461,10 +15465,10 @@
     </row>
     <row r="695" spans="1:7">
       <c r="A695" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="B695" s="3" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="C695" t="s">
         <v>29</v>
@@ -15478,7 +15482,7 @@
     </row>
     <row r="696" spans="1:7">
       <c r="B696" s="3" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="C696" t="s">
         <v>39</v>
@@ -15495,7 +15499,7 @@
     </row>
     <row r="697" spans="1:7">
       <c r="B697" s="3" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="C697" t="s">
         <v>39</v>
@@ -15512,10 +15516,10 @@
     </row>
     <row r="698" spans="1:7">
       <c r="A698" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="B698" s="3" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="C698" t="s">
         <v>29</v>
@@ -15529,7 +15533,7 @@
     </row>
     <row r="699" spans="1:7">
       <c r="B699" s="3" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="C699" t="s">
         <v>29</v>
@@ -15543,7 +15547,7 @@
     </row>
     <row r="700" spans="1:7">
       <c r="B700" s="3" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="C700" t="s">
         <v>29</v>
@@ -15557,7 +15561,7 @@
     </row>
     <row r="701" spans="1:7">
       <c r="B701" s="3" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="C701" t="s">
         <v>29</v>
@@ -15571,7 +15575,7 @@
     </row>
     <row r="702" spans="1:7">
       <c r="B702" s="3" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="C702" t="s">
         <v>29</v>
@@ -15585,7 +15589,7 @@
     </row>
     <row r="703" spans="1:7">
       <c r="B703" s="3" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="C703" t="s">
         <v>29</v>
@@ -15599,7 +15603,7 @@
     </row>
     <row r="704" spans="1:7">
       <c r="B704" s="3" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="C704" t="s">
         <v>39</v>
@@ -15616,7 +15620,7 @@
     </row>
     <row r="705" spans="1:7">
       <c r="B705" s="3" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="C705" t="s">
         <v>29</v>
@@ -15630,7 +15634,7 @@
     </row>
     <row r="706" spans="1:7">
       <c r="B706" s="3" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="C706" t="s">
         <v>29</v>
@@ -15644,7 +15648,7 @@
     </row>
     <row r="707" spans="1:7">
       <c r="B707" s="3" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="C707" t="s">
         <v>29</v>
@@ -15658,7 +15662,7 @@
     </row>
     <row r="708" spans="1:7">
       <c r="B708" s="3" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="C708" t="s">
         <v>29</v>
@@ -15672,7 +15676,7 @@
     </row>
     <row r="709" spans="1:7">
       <c r="B709" s="3" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="C709" t="s">
         <v>29</v>
@@ -15686,7 +15690,7 @@
     </row>
     <row r="710" spans="1:7">
       <c r="B710" s="3" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="C710" t="s">
         <v>29</v>
@@ -15700,7 +15704,7 @@
     </row>
     <row r="711" spans="1:7">
       <c r="B711" s="3" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="C711" t="s">
         <v>29</v>
@@ -15714,7 +15718,7 @@
     </row>
     <row r="712" spans="1:7">
       <c r="B712" s="3" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="C712" t="s">
         <v>29</v>
@@ -15728,7 +15732,7 @@
     </row>
     <row r="713" spans="1:7">
       <c r="B713" s="3" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="C713" t="s">
         <v>29</v>
@@ -15742,7 +15746,7 @@
     </row>
     <row r="714" spans="1:7">
       <c r="B714" s="3" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="C714" t="s">
         <v>29</v>
@@ -15756,7 +15760,7 @@
     </row>
     <row r="715" spans="1:7">
       <c r="B715" s="3" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="C715" t="s">
         <v>29</v>
@@ -15770,7 +15774,7 @@
     </row>
     <row r="716" spans="1:7">
       <c r="B716" s="3" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="C716" t="s">
         <v>29</v>
@@ -15784,7 +15788,7 @@
     </row>
     <row r="717" spans="1:7">
       <c r="B717" s="3" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="C717" t="s">
         <v>29</v>
@@ -15798,7 +15802,7 @@
     </row>
     <row r="718" spans="1:7">
       <c r="B718" s="3" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="C718" t="s">
         <v>29</v>
@@ -15846,7 +15850,7 @@
     </row>
     <row r="721" spans="1:7">
       <c r="B721" s="3" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="C721" t="s">
         <v>29</v>
@@ -15860,10 +15864,10 @@
     </row>
     <row r="722" spans="1:7">
       <c r="A722" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="B722" s="3" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="C722" t="s">
         <v>29</v>
@@ -15894,10 +15898,10 @@
     </row>
     <row r="724" spans="1:7">
       <c r="A724" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="B724" s="3" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="C724" t="s">
         <v>29</v>
@@ -15928,7 +15932,7 @@
     </row>
     <row r="726" spans="1:7">
       <c r="B726" s="3" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="C726" t="s">
         <v>29</v>
@@ -15976,7 +15980,7 @@
     </row>
     <row r="729" spans="1:7">
       <c r="B729" s="3" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="C729" t="s">
         <v>39</v>
@@ -15996,7 +16000,7 @@
         <v>1084</v>
       </c>
       <c r="B730" s="3" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="C730" t="s">
         <v>29</v>
@@ -16010,7 +16014,7 @@
     </row>
     <row r="731" spans="1:7">
       <c r="B731" s="3" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="C731" t="s">
         <v>29</v>
@@ -16024,7 +16028,7 @@
     </row>
     <row r="732" spans="1:7">
       <c r="B732" s="3" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="C732" t="s">
         <v>29</v>
@@ -16038,7 +16042,7 @@
     </row>
     <row r="733" spans="1:7">
       <c r="B733" s="3" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="C733" t="s">
         <v>29</v>
@@ -16052,7 +16056,7 @@
     </row>
     <row r="734" spans="1:7">
       <c r="B734" s="3" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="C734" t="s">
         <v>39</v>
@@ -16069,7 +16073,7 @@
     </row>
     <row r="735" spans="1:7">
       <c r="A735" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="B735" s="3" t="s">
         <v>1085</v>
@@ -16156,7 +16160,7 @@
     </row>
     <row r="741" spans="1:7">
       <c r="B741" s="3" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="C741" t="s">
         <v>39</v>
@@ -16173,10 +16177,10 @@
     </row>
     <row r="742" spans="1:7">
       <c r="A742" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="B742" s="3" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="C742" t="s">
         <v>39</v>
@@ -16193,7 +16197,7 @@
     </row>
     <row r="743" spans="1:7">
       <c r="B743" s="3" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="C743" t="s">
         <v>29</v>
@@ -16207,10 +16211,10 @@
     </row>
     <row r="744" spans="1:7">
       <c r="A744" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="B744" s="3" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="C744" t="s">
         <v>39</v>
@@ -16227,7 +16231,7 @@
     </row>
     <row r="745" spans="1:7">
       <c r="B745" s="3" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="C745" t="s">
         <v>29</v>
@@ -16241,7 +16245,7 @@
     </row>
     <row r="746" spans="1:7">
       <c r="B746" s="3" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="C746" t="s">
         <v>39</v>
@@ -16286,7 +16290,7 @@
     </row>
     <row r="749" spans="1:7">
       <c r="B749" s="3" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="C749" t="s">
         <v>39</v>
@@ -16371,7 +16375,7 @@
     </row>
     <row r="754" spans="1:7">
       <c r="B754" s="3" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="C754" t="s">
         <v>29</v>
@@ -16501,7 +16505,7 @@
         <v>1109</v>
       </c>
       <c r="B762" s="3" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="C762" t="s">
         <v>29</v>
@@ -16903,7 +16907,7 @@
         <v>39</v>
       </c>
       <c r="D786" s="6" t="s">
-        <v>1173</v>
+        <v>1249</v>
       </c>
       <c r="F786" s="4">
         <v>1</v>
@@ -16923,7 +16927,7 @@
         <v>39</v>
       </c>
       <c r="D787" s="6" t="s">
-        <v>1173</v>
+        <v>1250</v>
       </c>
       <c r="F787" s="4">
         <v>1</v>
@@ -16943,7 +16947,7 @@
         <v>39</v>
       </c>
       <c r="D788" s="6" t="s">
-        <v>1174</v>
+        <v>1251</v>
       </c>
       <c r="F788" s="4">
         <v>1</v>
@@ -16963,7 +16967,7 @@
         <v>39</v>
       </c>
       <c r="D789" s="6" t="s">
-        <v>1176</v>
+        <v>1252</v>
       </c>
       <c r="F789" s="4">
         <v>1</v>
@@ -16983,7 +16987,7 @@
         <v>39</v>
       </c>
       <c r="D790" s="6" t="s">
-        <v>1175</v>
+        <v>1253</v>
       </c>
       <c r="F790" s="4">
         <v>1</v>
@@ -17003,7 +17007,7 @@
         <v>39</v>
       </c>
       <c r="D791" s="6" t="s">
-        <v>1173</v>
+        <v>1249</v>
       </c>
       <c r="F791" s="4">
         <v>1</v>
@@ -17023,7 +17027,7 @@
         <v>39</v>
       </c>
       <c r="D792" s="6" t="s">
-        <v>1173</v>
+        <v>1250</v>
       </c>
       <c r="F792" s="4">
         <v>1</v>
@@ -17043,7 +17047,7 @@
         <v>39</v>
       </c>
       <c r="D793" s="6" t="s">
-        <v>1174</v>
+        <v>1251</v>
       </c>
       <c r="F793" s="4">
         <v>1</v>
@@ -17063,7 +17067,7 @@
         <v>39</v>
       </c>
       <c r="D794" s="6" t="s">
-        <v>1176</v>
+        <v>1252</v>
       </c>
       <c r="F794" s="4">
         <v>1</v>
@@ -17083,7 +17087,7 @@
         <v>39</v>
       </c>
       <c r="D795" s="6" t="s">
-        <v>1175</v>
+        <v>1253</v>
       </c>
       <c r="F795" s="4">
         <v>1</v>
@@ -17103,7 +17107,7 @@
         <v>39</v>
       </c>
       <c r="D796" s="6" t="s">
-        <v>1173</v>
+        <v>1249</v>
       </c>
       <c r="F796" s="4">
         <v>1</v>
@@ -17123,7 +17127,7 @@
         <v>39</v>
       </c>
       <c r="D797" s="6" t="s">
-        <v>1173</v>
+        <v>1249</v>
       </c>
       <c r="F797" s="4">
         <v>1</v>
@@ -17272,7 +17276,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -17347,7 +17351,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -17368,10 +17372,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="B9" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -17386,15 +17390,15 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B10" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="C10" t="s">
         <v>433</v>
@@ -17412,21 +17416,21 @@
         <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="B11" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="C11" t="s">
         <v>433</v>
       </c>
       <c r="D11" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
@@ -17438,7 +17442,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
     </row>
   </sheetData>

--- a/resources/NoteAudit.xlsx
+++ b/resources/NoteAudit.xlsx
@@ -834,9 +834,6 @@
     <t>//md-checkbox[@ng-model="vm.charts.m1033.s09" and @ aria-checked = "true"]</t>
   </si>
   <si>
-    <t>//md-checkbox[@ng-model="vm.charts.m1033.s10" and @ aria-checked = "true"]</t>
-  </si>
-  <si>
     <t>M1034</t>
   </si>
   <si>
@@ -861,9 +858,6 @@
     <t>//md-checkbox[@ng-model="vm.charts.m1036.s05" and @ aria-checked = "true"]</t>
   </si>
   <si>
-    <t>//md-checkbox[@ng-model="vm.charts.m1036.uk" and @ aria-checked = "true"]</t>
-  </si>
-  <si>
     <t>//md-radio-group[@ng-model="vm.charts.immunizations.pneumonia.value"]//md-radio-button[@value="yes" and @aria-checked="true" and @aria-label="Yes"]</t>
   </si>
   <si>
@@ -3537,12 +3531,6 @@
     <t>//md-radio-group[@ng-model="vm.charts.homebound.value"]//md-radio-button[@aria-checked="true" and @aria-label="Yes"]</t>
   </si>
   <si>
-    <t>//md-slider[@ng-model="vm.charts.notifyphysician.temperature.lessThan" and @aria-valuenow="729"]</t>
-  </si>
-  <si>
-    <t>//md-slider[@ng-model="vm.charts.notifyphysician.temperature.greaterThan" and @aria-valuenow="1080"]</t>
-  </si>
-  <si>
     <t>//md-select[@ng-model="vm.charts.diet.appropriatelyMeals.type" and @aria-label="diet type: Sodium, No added salt, Calorie ADA Diet, Regular, High Protein, Low Protein, Carbohydrate low, Carbohydrate high, Mechanical Soft, High Fiber, Supplement, Renal Diet, Coumadin Diet"]</t>
   </si>
   <si>
@@ -3778,6 +3766,18 @@
   </si>
   <si>
     <t>S02.600G: Fracture of unspecified part of body of mandible, unspecified side, subsequent encounter for fracture with delayed healing</t>
+  </si>
+  <si>
+    <t>//md-slider[@ng-model="vm.charts.notifyphysician.temperature.lessThan" and @aria-valuenow="739"]</t>
+  </si>
+  <si>
+    <t>//md-slider[@ng-model="vm.charts.notifyphysician.temperature.greaterThan" and @aria-valuenow="1090"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.m1033.s10"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.m1036.uk" and @ aria-checked = "false"]</t>
   </si>
 </sst>
 </file>
@@ -4138,8 +4138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J797"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A787" workbookViewId="0">
-      <selection activeCell="B794" sqref="B794"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="B189" sqref="B189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4389,7 +4389,7 @@
         <v>39</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4">
@@ -4407,7 +4407,7 @@
         <v>32</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -4427,7 +4427,7 @@
         <v>33</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
@@ -4447,7 +4447,7 @@
         <v>34</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
@@ -5240,7 +5240,7 @@
         <v>101</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1173</v>
+        <v>1250</v>
       </c>
       <c r="C51" t="s">
         <v>29</v>
@@ -5260,7 +5260,7 @@
         <v>102</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>1174</v>
+        <v>1251</v>
       </c>
       <c r="C52" t="s">
         <v>29</v>
@@ -5727,7 +5727,7 @@
         <v>141</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C77" t="s">
         <v>29</v>
@@ -5744,7 +5744,7 @@
         <v>141</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C78" t="s">
         <v>29</v>
@@ -5761,7 +5761,7 @@
         <v>142</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="C79" t="s">
         <v>29</v>
@@ -5837,7 +5837,7 @@
         <v>148</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C84" t="s">
         <v>29</v>
@@ -7336,7 +7336,7 @@
     </row>
     <row r="187" spans="1:7">
       <c r="B187" s="3" t="s">
-        <v>272</v>
+        <v>1252</v>
       </c>
       <c r="C187" t="s">
         <v>29</v>
@@ -7350,10 +7350,10 @@
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
+        <v>272</v>
+      </c>
+      <c r="B188" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="C188" t="s">
         <v>29</v>
@@ -7367,10 +7367,10 @@
     </row>
     <row r="189" spans="1:7">
       <c r="A189" t="s">
+        <v>274</v>
+      </c>
+      <c r="B189" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="C189" t="s">
         <v>29</v>
@@ -7384,7 +7384,7 @@
     </row>
     <row r="190" spans="1:7">
       <c r="B190" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C190" t="s">
         <v>29</v>
@@ -7398,7 +7398,7 @@
     </row>
     <row r="191" spans="1:7">
       <c r="B191" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C191" t="s">
         <v>29</v>
@@ -7412,7 +7412,7 @@
     </row>
     <row r="192" spans="1:7">
       <c r="B192" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C192" t="s">
         <v>29</v>
@@ -7426,7 +7426,7 @@
     </row>
     <row r="193" spans="1:7">
       <c r="B193" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C193" t="s">
         <v>29</v>
@@ -7440,7 +7440,7 @@
     </row>
     <row r="194" spans="1:7">
       <c r="B194" s="3" t="s">
-        <v>281</v>
+        <v>1253</v>
       </c>
       <c r="C194" t="s">
         <v>29</v>
@@ -7454,10 +7454,10 @@
     </row>
     <row r="195" spans="1:7">
       <c r="A195" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C195" t="s">
         <v>29</v>
@@ -7471,10 +7471,10 @@
     </row>
     <row r="196" spans="1:7">
       <c r="A196" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C196" t="s">
         <v>29</v>
@@ -7488,10 +7488,10 @@
     </row>
     <row r="197" spans="1:7">
       <c r="A197" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C197" t="s">
         <v>29</v>
@@ -7505,10 +7505,10 @@
     </row>
     <row r="198" spans="1:7">
       <c r="A198" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C198" t="s">
         <v>29</v>
@@ -7522,10 +7522,10 @@
     </row>
     <row r="199" spans="1:7">
       <c r="A199" t="s">
+        <v>288</v>
+      </c>
+      <c r="B199" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>292</v>
       </c>
       <c r="C199" t="s">
         <v>29</v>
@@ -7539,10 +7539,10 @@
     </row>
     <row r="200" spans="1:7">
       <c r="A200" t="s">
+        <v>289</v>
+      </c>
+      <c r="B200" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>293</v>
       </c>
       <c r="C200" t="s">
         <v>29</v>
@@ -7556,10 +7556,10 @@
     </row>
     <row r="201" spans="1:7">
       <c r="A201" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C201" t="s">
         <v>29</v>
@@ -7573,7 +7573,7 @@
     </row>
     <row r="202" spans="1:7">
       <c r="B202" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C202" t="s">
         <v>29</v>
@@ -7587,7 +7587,7 @@
     </row>
     <row r="203" spans="1:7">
       <c r="B203" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C203" t="s">
         <v>29</v>
@@ -7601,7 +7601,7 @@
     </row>
     <row r="204" spans="1:7">
       <c r="B204" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C204" t="s">
         <v>29</v>
@@ -7615,7 +7615,7 @@
     </row>
     <row r="205" spans="1:7">
       <c r="B205" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C205" t="s">
         <v>29</v>
@@ -7629,7 +7629,7 @@
     </row>
     <row r="206" spans="1:7">
       <c r="B206" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C206" t="s">
         <v>29</v>
@@ -7643,7 +7643,7 @@
     </row>
     <row r="207" spans="1:7">
       <c r="B207" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C207" t="s">
         <v>29</v>
@@ -7657,10 +7657,10 @@
     </row>
     <row r="208" spans="1:7">
       <c r="A208" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C208" t="s">
         <v>29</v>
@@ -7674,10 +7674,10 @@
     </row>
     <row r="209" spans="1:7">
       <c r="A209" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C209" t="s">
         <v>29</v>
@@ -7691,10 +7691,10 @@
     </row>
     <row r="210" spans="1:7">
       <c r="A210" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C210" t="s">
         <v>29</v>
@@ -7708,10 +7708,10 @@
     </row>
     <row r="211" spans="1:7">
       <c r="A211" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C211" t="s">
         <v>29</v>
@@ -7725,10 +7725,10 @@
     </row>
     <row r="212" spans="1:7">
       <c r="A212" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C212" t="s">
         <v>29</v>
@@ -7742,10 +7742,10 @@
     </row>
     <row r="213" spans="1:7">
       <c r="A213" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C213" t="s">
         <v>29</v>
@@ -7759,10 +7759,10 @@
     </row>
     <row r="214" spans="1:7">
       <c r="A214" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C214" t="s">
         <v>29</v>
@@ -7776,10 +7776,10 @@
     </row>
     <row r="215" spans="1:7">
       <c r="A215" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C215" t="s">
         <v>29</v>
@@ -7793,10 +7793,10 @@
     </row>
     <row r="216" spans="1:7">
       <c r="A216" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C216" t="s">
         <v>29</v>
@@ -7810,10 +7810,10 @@
     </row>
     <row r="217" spans="1:7">
       <c r="A217" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C217" t="s">
         <v>29</v>
@@ -7827,10 +7827,10 @@
     </row>
     <row r="218" spans="1:7">
       <c r="A218" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C218" t="s">
         <v>29</v>
@@ -7844,10 +7844,10 @@
     </row>
     <row r="219" spans="1:7">
       <c r="A219" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C219" t="s">
         <v>29</v>
@@ -7861,10 +7861,10 @@
     </row>
     <row r="220" spans="1:7">
       <c r="A220" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C220" t="s">
         <v>29</v>
@@ -7878,10 +7878,10 @@
     </row>
     <row r="221" spans="1:7">
       <c r="A221" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C221" t="s">
         <v>29</v>
@@ -7895,10 +7895,10 @@
     </row>
     <row r="222" spans="1:7">
       <c r="A222" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C222" t="s">
         <v>29</v>
@@ -7912,10 +7912,10 @@
     </row>
     <row r="223" spans="1:7">
       <c r="A223" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C223" t="s">
         <v>29</v>
@@ -7929,10 +7929,10 @@
     </row>
     <row r="224" spans="1:7">
       <c r="A224" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C224" t="s">
         <v>29</v>
@@ -7946,10 +7946,10 @@
     </row>
     <row r="225" spans="1:7">
       <c r="A225" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C225" t="s">
         <v>29</v>
@@ -7963,10 +7963,10 @@
     </row>
     <row r="226" spans="1:7">
       <c r="A226" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C226" t="s">
         <v>29</v>
@@ -7980,10 +7980,10 @@
     </row>
     <row r="227" spans="1:7">
       <c r="A227" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C227" t="s">
         <v>29</v>
@@ -7997,10 +7997,10 @@
     </row>
     <row r="228" spans="1:7">
       <c r="A228" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C228" t="s">
         <v>29</v>
@@ -8014,10 +8014,10 @@
     </row>
     <row r="229" spans="1:7">
       <c r="A229" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C229" t="s">
         <v>29</v>
@@ -8031,10 +8031,10 @@
     </row>
     <row r="230" spans="1:7">
       <c r="A230" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C230" t="s">
         <v>29</v>
@@ -8048,10 +8048,10 @@
     </row>
     <row r="231" spans="1:7">
       <c r="A231" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C231" t="s">
         <v>29</v>
@@ -8065,10 +8065,10 @@
     </row>
     <row r="232" spans="1:7">
       <c r="A232" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C232" t="s">
         <v>29</v>
@@ -8082,10 +8082,10 @@
     </row>
     <row r="233" spans="1:7">
       <c r="A233" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C233" t="s">
         <v>29</v>
@@ -8099,10 +8099,10 @@
     </row>
     <row r="234" spans="1:7">
       <c r="A234" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C234" t="s">
         <v>29</v>
@@ -8116,10 +8116,10 @@
     </row>
     <row r="235" spans="1:7">
       <c r="A235" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C235" t="s">
         <v>29</v>
@@ -8133,10 +8133,10 @@
     </row>
     <row r="236" spans="1:7">
       <c r="A236" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C236" t="s">
         <v>29</v>
@@ -8150,10 +8150,10 @@
     </row>
     <row r="237" spans="1:7">
       <c r="A237" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C237" t="s">
         <v>29</v>
@@ -8167,10 +8167,10 @@
     </row>
     <row r="238" spans="1:7">
       <c r="A238" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C238" t="s">
         <v>29</v>
@@ -8184,7 +8184,7 @@
     </row>
     <row r="239" spans="1:7">
       <c r="B239" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C239" t="s">
         <v>29</v>
@@ -8198,10 +8198,10 @@
     </row>
     <row r="240" spans="1:7">
       <c r="A240" t="s">
+        <v>362</v>
+      </c>
+      <c r="B240" s="3" t="s">
         <v>364</v>
-      </c>
-      <c r="B240" s="3" t="s">
-        <v>366</v>
       </c>
       <c r="C240" t="s">
         <v>29</v>
@@ -8215,10 +8215,10 @@
     </row>
     <row r="241" spans="1:7">
       <c r="A241" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C241" t="s">
         <v>29</v>
@@ -8232,10 +8232,10 @@
     </row>
     <row r="242" spans="1:7">
       <c r="A242" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C242" t="s">
         <v>29</v>
@@ -8249,10 +8249,10 @@
     </row>
     <row r="243" spans="1:7">
       <c r="A243" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C243" t="s">
         <v>29</v>
@@ -8266,10 +8266,10 @@
     </row>
     <row r="244" spans="1:7">
       <c r="A244" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C244" t="s">
         <v>29</v>
@@ -8283,7 +8283,7 @@
     </row>
     <row r="245" spans="1:7">
       <c r="B245" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C245" t="s">
         <v>29</v>
@@ -8297,7 +8297,7 @@
     </row>
     <row r="246" spans="1:7">
       <c r="B246" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C246" t="s">
         <v>29</v>
@@ -8311,7 +8311,7 @@
     </row>
     <row r="247" spans="1:7">
       <c r="B247" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C247" t="s">
         <v>29</v>
@@ -8325,7 +8325,7 @@
     </row>
     <row r="248" spans="1:7">
       <c r="B248" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C248" t="s">
         <v>29</v>
@@ -8339,7 +8339,7 @@
     </row>
     <row r="249" spans="1:7">
       <c r="B249" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C249" t="s">
         <v>29</v>
@@ -8353,7 +8353,7 @@
     </row>
     <row r="250" spans="1:7">
       <c r="B250" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C250" t="s">
         <v>29</v>
@@ -8367,10 +8367,10 @@
     </row>
     <row r="251" spans="1:7">
       <c r="A251" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C251" t="s">
         <v>29</v>
@@ -8384,10 +8384,10 @@
     </row>
     <row r="252" spans="1:7">
       <c r="A252" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C252" t="s">
         <v>29</v>
@@ -8401,10 +8401,10 @@
     </row>
     <row r="253" spans="1:7">
       <c r="A253" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C253" t="s">
         <v>29</v>
@@ -8418,10 +8418,10 @@
     </row>
     <row r="254" spans="1:7">
       <c r="A254" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C254" t="s">
         <v>29</v>
@@ -8435,10 +8435,10 @@
     </row>
     <row r="255" spans="1:7">
       <c r="A255" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C255" t="s">
         <v>29</v>
@@ -8452,10 +8452,10 @@
     </row>
     <row r="256" spans="1:7">
       <c r="A256" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C256" t="s">
         <v>29</v>
@@ -8469,10 +8469,10 @@
     </row>
     <row r="257" spans="1:7">
       <c r="A257" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C257" t="s">
         <v>29</v>
@@ -8486,10 +8486,10 @@
     </row>
     <row r="258" spans="1:7">
       <c r="A258" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C258" t="s">
         <v>29</v>
@@ -8503,10 +8503,10 @@
     </row>
     <row r="259" spans="1:7">
       <c r="A259" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C259" t="s">
         <v>29</v>
@@ -8520,10 +8520,10 @@
     </row>
     <row r="260" spans="1:7">
       <c r="A260" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C260" t="s">
         <v>29</v>
@@ -8537,10 +8537,10 @@
     </row>
     <row r="261" spans="1:7">
       <c r="A261" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C261" t="s">
         <v>29</v>
@@ -8554,10 +8554,10 @@
     </row>
     <row r="262" spans="1:7">
       <c r="A262" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C262" t="s">
         <v>29</v>
@@ -8571,10 +8571,10 @@
     </row>
     <row r="263" spans="1:7">
       <c r="A263" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C263" t="s">
         <v>29</v>
@@ -8588,10 +8588,10 @@
     </row>
     <row r="264" spans="1:7">
       <c r="A264" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C264" t="s">
         <v>29</v>
@@ -8605,10 +8605,10 @@
     </row>
     <row r="265" spans="1:7">
       <c r="A265" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C265" t="s">
         <v>29</v>
@@ -8622,10 +8622,10 @@
     </row>
     <row r="266" spans="1:7">
       <c r="A266" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C266" t="s">
         <v>29</v>
@@ -8639,10 +8639,10 @@
     </row>
     <row r="267" spans="1:7">
       <c r="A267" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C267" t="s">
         <v>29</v>
@@ -8656,10 +8656,10 @@
     </row>
     <row r="268" spans="1:7">
       <c r="A268" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C268" t="s">
         <v>29</v>
@@ -8673,10 +8673,10 @@
     </row>
     <row r="269" spans="1:7">
       <c r="A269" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C269" t="s">
         <v>29</v>
@@ -8690,10 +8690,10 @@
     </row>
     <row r="270" spans="1:7">
       <c r="A270" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C270" t="s">
         <v>29</v>
@@ -8707,10 +8707,10 @@
     </row>
     <row r="271" spans="1:7">
       <c r="A271" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C271" t="s">
         <v>29</v>
@@ -8724,10 +8724,10 @@
     </row>
     <row r="272" spans="1:7">
       <c r="A272" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C272" t="s">
         <v>29</v>
@@ -8741,10 +8741,10 @@
     </row>
     <row r="273" spans="1:8">
       <c r="A273" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C273" t="s">
         <v>29</v>
@@ -8758,7 +8758,7 @@
     </row>
     <row r="274" spans="1:8">
       <c r="B274" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C274" t="s">
         <v>29</v>
@@ -8772,7 +8772,7 @@
     </row>
     <row r="275" spans="1:8">
       <c r="B275" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C275" t="s">
         <v>29</v>
@@ -8786,7 +8786,7 @@
     </row>
     <row r="276" spans="1:8">
       <c r="B276" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C276" t="s">
         <v>29</v>
@@ -8800,7 +8800,7 @@
     </row>
     <row r="277" spans="1:8">
       <c r="B277" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C277" t="s">
         <v>29</v>
@@ -8814,13 +8814,13 @@
     </row>
     <row r="278" spans="1:8">
       <c r="B278" t="s">
+        <v>429</v>
+      </c>
+      <c r="C278" t="s">
         <v>431</v>
       </c>
-      <c r="C278" t="s">
-        <v>433</v>
-      </c>
       <c r="D278" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G278">
         <v>1</v>
@@ -8831,10 +8831,10 @@
     </row>
     <row r="279" spans="1:8">
       <c r="A279" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C279" t="s">
         <v>29</v>
@@ -8848,10 +8848,10 @@
     </row>
     <row r="280" spans="1:8">
       <c r="A280" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C280" t="s">
         <v>29</v>
@@ -8865,10 +8865,10 @@
     </row>
     <row r="281" spans="1:8">
       <c r="A281" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C281" t="s">
         <v>29</v>
@@ -8882,10 +8882,10 @@
     </row>
     <row r="282" spans="1:8">
       <c r="A282" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C282" t="s">
         <v>29</v>
@@ -8899,10 +8899,10 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C283" t="s">
         <v>29</v>
@@ -8916,10 +8916,10 @@
     </row>
     <row r="284" spans="1:8">
       <c r="A284" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C284" t="s">
         <v>29</v>
@@ -8933,10 +8933,10 @@
     </row>
     <row r="285" spans="1:8">
       <c r="A285" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C285" t="s">
         <v>29</v>
@@ -8950,10 +8950,10 @@
     </row>
     <row r="286" spans="1:8">
       <c r="A286" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C286" t="s">
         <v>29</v>
@@ -8967,10 +8967,10 @@
     </row>
     <row r="287" spans="1:8">
       <c r="A287" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C287" t="s">
         <v>29</v>
@@ -8984,10 +8984,10 @@
     </row>
     <row r="288" spans="1:8">
       <c r="A288" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C288" t="s">
         <v>29</v>
@@ -9001,10 +9001,10 @@
     </row>
     <row r="289" spans="1:7">
       <c r="A289" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C289" t="s">
         <v>29</v>
@@ -9018,10 +9018,10 @@
     </row>
     <row r="290" spans="1:7">
       <c r="A290" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C290" t="s">
         <v>29</v>
@@ -9035,10 +9035,10 @@
     </row>
     <row r="291" spans="1:7">
       <c r="A291" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C291" t="s">
         <v>29</v>
@@ -9052,10 +9052,10 @@
     </row>
     <row r="292" spans="1:7">
       <c r="A292" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C292" t="s">
         <v>29</v>
@@ -9069,10 +9069,10 @@
     </row>
     <row r="293" spans="1:7">
       <c r="A293" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C293" t="s">
         <v>29</v>
@@ -9086,10 +9086,10 @@
     </row>
     <row r="294" spans="1:7">
       <c r="A294" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C294" t="s">
         <v>29</v>
@@ -9103,10 +9103,10 @@
     </row>
     <row r="295" spans="1:7">
       <c r="A295" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C295" t="s">
         <v>29</v>
@@ -9120,10 +9120,10 @@
     </row>
     <row r="296" spans="1:7">
       <c r="A296" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C296" t="s">
         <v>29</v>
@@ -9137,10 +9137,10 @@
     </row>
     <row r="297" spans="1:7">
       <c r="A297" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C297" t="s">
         <v>29</v>
@@ -9154,10 +9154,10 @@
     </row>
     <row r="298" spans="1:7">
       <c r="A298" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C298" t="s">
         <v>29</v>
@@ -9171,10 +9171,10 @@
     </row>
     <row r="299" spans="1:7">
       <c r="A299" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C299" t="s">
         <v>29</v>
@@ -9188,10 +9188,10 @@
     </row>
     <row r="300" spans="1:7">
       <c r="A300" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C300" t="s">
         <v>29</v>
@@ -9205,10 +9205,10 @@
     </row>
     <row r="301" spans="1:7">
       <c r="A301" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C301" t="s">
         <v>29</v>
@@ -9222,10 +9222,10 @@
     </row>
     <row r="302" spans="1:7">
       <c r="A302" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C302" t="s">
         <v>29</v>
@@ -9239,10 +9239,10 @@
     </row>
     <row r="303" spans="1:7">
       <c r="A303" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C303" t="s">
         <v>29</v>
@@ -9256,10 +9256,10 @@
     </row>
     <row r="304" spans="1:7" ht="30">
       <c r="A304" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C304" t="s">
         <v>29</v>
@@ -9273,10 +9273,10 @@
     </row>
     <row r="305" spans="1:7" ht="30">
       <c r="A305" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C305" t="s">
         <v>29</v>
@@ -9290,10 +9290,10 @@
     </row>
     <row r="306" spans="1:7" ht="30">
       <c r="A306" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C306" t="s">
         <v>29</v>
@@ -9307,10 +9307,10 @@
     </row>
     <row r="307" spans="1:7" ht="30">
       <c r="A307" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C307" t="s">
         <v>29</v>
@@ -9324,10 +9324,10 @@
     </row>
     <row r="308" spans="1:7">
       <c r="A308" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C308" t="s">
         <v>29</v>
@@ -9341,10 +9341,10 @@
     </row>
     <row r="309" spans="1:7">
       <c r="A309" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C309" t="s">
         <v>29</v>
@@ -9358,10 +9358,10 @@
     </row>
     <row r="310" spans="1:7">
       <c r="A310" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C310" t="s">
         <v>29</v>
@@ -9375,13 +9375,13 @@
     </row>
     <row r="311" spans="1:7">
       <c r="B311" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C311" t="s">
         <v>39</v>
       </c>
       <c r="D311" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F311" s="4">
         <v>1</v>
@@ -9392,13 +9392,13 @@
     </row>
     <row r="312" spans="1:7">
       <c r="B312" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C312" t="s">
         <v>39</v>
       </c>
       <c r="D312" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F312" s="4">
         <v>1</v>
@@ -9409,10 +9409,10 @@
     </row>
     <row r="313" spans="1:7">
       <c r="A313" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C313" t="s">
         <v>29</v>
@@ -9426,10 +9426,10 @@
     </row>
     <row r="314" spans="1:7">
       <c r="A314" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C314" t="s">
         <v>29</v>
@@ -9443,10 +9443,10 @@
     </row>
     <row r="315" spans="1:7">
       <c r="A315" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C315" t="s">
         <v>29</v>
@@ -9460,10 +9460,10 @@
     </row>
     <row r="316" spans="1:7">
       <c r="A316" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C316" t="s">
         <v>29</v>
@@ -9477,10 +9477,10 @@
     </row>
     <row r="317" spans="1:7" ht="30">
       <c r="A317" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C317" t="s">
         <v>29</v>
@@ -9494,10 +9494,10 @@
     </row>
     <row r="318" spans="1:7">
       <c r="A318" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C318" t="s">
         <v>29</v>
@@ -9511,10 +9511,10 @@
     </row>
     <row r="319" spans="1:7">
       <c r="A319" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C319" t="s">
         <v>29</v>
@@ -9528,10 +9528,10 @@
     </row>
     <row r="320" spans="1:7">
       <c r="A320" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C320" t="s">
         <v>29</v>
@@ -9545,10 +9545,10 @@
     </row>
     <row r="321" spans="1:7">
       <c r="A321" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C321" t="s">
         <v>29</v>
@@ -9562,10 +9562,10 @@
     </row>
     <row r="322" spans="1:7">
       <c r="A322" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C322" t="s">
         <v>29</v>
@@ -9579,10 +9579,10 @@
     </row>
     <row r="323" spans="1:7">
       <c r="A323" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C323" t="s">
         <v>29</v>
@@ -9596,10 +9596,10 @@
     </row>
     <row r="324" spans="1:7">
       <c r="A324" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C324" t="s">
         <v>29</v>
@@ -9613,10 +9613,10 @@
     </row>
     <row r="325" spans="1:7">
       <c r="A325" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C325" t="s">
         <v>29</v>
@@ -9630,10 +9630,10 @@
     </row>
     <row r="326" spans="1:7">
       <c r="A326" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C326" t="s">
         <v>29</v>
@@ -9647,10 +9647,10 @@
     </row>
     <row r="327" spans="1:7">
       <c r="A327" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C327" t="s">
         <v>29</v>
@@ -9664,13 +9664,13 @@
     </row>
     <row r="328" spans="1:7">
       <c r="B328" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C328" t="s">
         <v>39</v>
       </c>
       <c r="D328" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F328" s="4">
         <v>1</v>
@@ -9681,13 +9681,13 @@
     </row>
     <row r="329" spans="1:7">
       <c r="B329" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C329" t="s">
         <v>39</v>
       </c>
       <c r="D329" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F329" s="4">
         <v>1</v>
@@ -9698,13 +9698,13 @@
     </row>
     <row r="330" spans="1:7">
       <c r="B330" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C330" t="s">
         <v>39</v>
       </c>
       <c r="D330" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F330" s="4">
         <v>1</v>
@@ -9715,13 +9715,13 @@
     </row>
     <row r="331" spans="1:7">
       <c r="B331" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C331" t="s">
         <v>39</v>
       </c>
       <c r="D331" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F331" s="4">
         <v>1</v>
@@ -9732,13 +9732,13 @@
     </row>
     <row r="332" spans="1:7">
       <c r="B332" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C332" t="s">
         <v>39</v>
       </c>
       <c r="D332" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F332" s="4">
         <v>1</v>
@@ -9749,13 +9749,13 @@
     </row>
     <row r="333" spans="1:7">
       <c r="B333" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C333" t="s">
         <v>39</v>
       </c>
       <c r="D333" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F333" s="4">
         <v>1</v>
@@ -9766,13 +9766,13 @@
     </row>
     <row r="334" spans="1:7">
       <c r="B334" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C334" t="s">
         <v>39</v>
       </c>
       <c r="D334" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F334" s="4">
         <v>1</v>
@@ -9783,13 +9783,13 @@
     </row>
     <row r="335" spans="1:7">
       <c r="B335" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C335" t="s">
         <v>39</v>
       </c>
       <c r="D335" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F335" s="4">
         <v>1</v>
@@ -9800,13 +9800,13 @@
     </row>
     <row r="336" spans="1:7">
       <c r="B336" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C336" t="s">
         <v>39</v>
       </c>
       <c r="D336" s="6" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F336" s="4">
         <v>1</v>
@@ -9817,13 +9817,13 @@
     </row>
     <row r="337" spans="1:7">
       <c r="B337" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C337" t="s">
         <v>39</v>
       </c>
       <c r="D337" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F337" s="4">
         <v>1</v>
@@ -9834,13 +9834,13 @@
     </row>
     <row r="338" spans="1:7">
       <c r="B338" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C338" t="s">
         <v>39</v>
       </c>
       <c r="D338" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F338" s="4">
         <v>1</v>
@@ -9851,10 +9851,10 @@
     </row>
     <row r="339" spans="1:7">
       <c r="A339" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C339" t="s">
         <v>29</v>
@@ -9868,10 +9868,10 @@
     </row>
     <row r="340" spans="1:7">
       <c r="A340" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C340" t="s">
         <v>29</v>
@@ -9885,10 +9885,10 @@
     </row>
     <row r="341" spans="1:7">
       <c r="A341" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C341" t="s">
         <v>29</v>
@@ -9902,10 +9902,10 @@
     </row>
     <row r="342" spans="1:7">
       <c r="A342" t="s">
+        <v>540</v>
+      </c>
+      <c r="B342" s="3" t="s">
         <v>542</v>
-      </c>
-      <c r="B342" s="3" t="s">
-        <v>544</v>
       </c>
       <c r="C342" t="s">
         <v>29</v>
@@ -9919,10 +9919,10 @@
     </row>
     <row r="343" spans="1:7">
       <c r="A343" t="s">
+        <v>541</v>
+      </c>
+      <c r="B343" s="3" t="s">
         <v>543</v>
-      </c>
-      <c r="B343" s="3" t="s">
-        <v>545</v>
       </c>
       <c r="C343" t="s">
         <v>29</v>
@@ -9936,7 +9936,7 @@
     </row>
     <row r="344" spans="1:7">
       <c r="B344" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C344" t="s">
         <v>29</v>
@@ -9950,7 +9950,7 @@
     </row>
     <row r="345" spans="1:7">
       <c r="B345" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C345" t="s">
         <v>29</v>
@@ -9964,7 +9964,7 @@
     </row>
     <row r="346" spans="1:7">
       <c r="B346" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C346" t="s">
         <v>29</v>
@@ -9978,7 +9978,7 @@
     </row>
     <row r="347" spans="1:7">
       <c r="B347" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C347" t="s">
         <v>29</v>
@@ -9992,7 +9992,7 @@
     </row>
     <row r="348" spans="1:7">
       <c r="B348" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C348" t="s">
         <v>29</v>
@@ -10006,7 +10006,7 @@
     </row>
     <row r="349" spans="1:7">
       <c r="B349" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C349" t="s">
         <v>29</v>
@@ -10020,13 +10020,13 @@
     </row>
     <row r="350" spans="1:7">
       <c r="B350" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C350" t="s">
         <v>39</v>
       </c>
       <c r="D350" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F350" s="4">
         <v>1</v>
@@ -10037,10 +10037,10 @@
     </row>
     <row r="351" spans="1:7" ht="30">
       <c r="A351" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C351" t="s">
         <v>29</v>
@@ -10054,10 +10054,10 @@
     </row>
     <row r="352" spans="1:7">
       <c r="A352" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C352" t="s">
         <v>29</v>
@@ -10071,10 +10071,10 @@
     </row>
     <row r="353" spans="1:7">
       <c r="A353" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C353" t="s">
         <v>29</v>
@@ -10088,10 +10088,10 @@
     </row>
     <row r="354" spans="1:7">
       <c r="A354" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C354" t="s">
         <v>29</v>
@@ -10105,10 +10105,10 @@
     </row>
     <row r="355" spans="1:7">
       <c r="A355" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C355" t="s">
         <v>29</v>
@@ -10122,10 +10122,10 @@
     </row>
     <row r="356" spans="1:7">
       <c r="A356" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C356" t="s">
         <v>29</v>
@@ -10139,10 +10139,10 @@
     </row>
     <row r="357" spans="1:7">
       <c r="A357" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C357" t="s">
         <v>29</v>
@@ -10156,10 +10156,10 @@
     </row>
     <row r="358" spans="1:7">
       <c r="A358" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C358" t="s">
         <v>29</v>
@@ -10173,10 +10173,10 @@
     </row>
     <row r="359" spans="1:7">
       <c r="A359" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C359" t="s">
         <v>29</v>
@@ -10190,10 +10190,10 @@
     </row>
     <row r="360" spans="1:7">
       <c r="A360" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C360" t="s">
         <v>29</v>
@@ -10207,10 +10207,10 @@
     </row>
     <row r="361" spans="1:7">
       <c r="A361" t="s">
+        <v>572</v>
+      </c>
+      <c r="B361" s="3" t="s">
         <v>574</v>
-      </c>
-      <c r="B361" s="3" t="s">
-        <v>576</v>
       </c>
       <c r="C361" t="s">
         <v>29</v>
@@ -10224,10 +10224,10 @@
     </row>
     <row r="362" spans="1:7">
       <c r="A362" t="s">
+        <v>573</v>
+      </c>
+      <c r="B362" s="3" t="s">
         <v>575</v>
-      </c>
-      <c r="B362" s="3" t="s">
-        <v>577</v>
       </c>
       <c r="C362" t="s">
         <v>29</v>
@@ -10241,7 +10241,7 @@
     </row>
     <row r="363" spans="1:7">
       <c r="B363" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C363" t="s">
         <v>29</v>
@@ -10255,10 +10255,10 @@
     </row>
     <row r="364" spans="1:7">
       <c r="A364" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C364" t="s">
         <v>29</v>
@@ -10272,10 +10272,10 @@
     </row>
     <row r="365" spans="1:7">
       <c r="A365" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C365" t="s">
         <v>29</v>
@@ -10289,10 +10289,10 @@
     </row>
     <row r="366" spans="1:7">
       <c r="A366" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C366" t="s">
         <v>29</v>
@@ -10306,10 +10306,10 @@
     </row>
     <row r="367" spans="1:7">
       <c r="A367" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C367" t="s">
         <v>29</v>
@@ -10323,10 +10323,10 @@
     </row>
     <row r="368" spans="1:7">
       <c r="A368" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C368" t="s">
         <v>29</v>
@@ -10340,10 +10340,10 @@
     </row>
     <row r="369" spans="1:7">
       <c r="A369" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C369" t="s">
         <v>29</v>
@@ -10357,10 +10357,10 @@
     </row>
     <row r="370" spans="1:7">
       <c r="A370" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C370" t="s">
         <v>29</v>
@@ -10374,10 +10374,10 @@
     </row>
     <row r="371" spans="1:7">
       <c r="A371" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C371" t="s">
         <v>29</v>
@@ -10391,10 +10391,10 @@
     </row>
     <row r="372" spans="1:7">
       <c r="A372" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C372" t="s">
         <v>29</v>
@@ -10408,10 +10408,10 @@
     </row>
     <row r="373" spans="1:7">
       <c r="A373" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C373" t="s">
         <v>29</v>
@@ -10425,10 +10425,10 @@
     </row>
     <row r="374" spans="1:7">
       <c r="A374" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C374" t="s">
         <v>29</v>
@@ -10442,10 +10442,10 @@
     </row>
     <row r="375" spans="1:7">
       <c r="A375" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C375" t="s">
         <v>29</v>
@@ -10459,10 +10459,10 @@
     </row>
     <row r="376" spans="1:7">
       <c r="A376" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C376" t="s">
         <v>29</v>
@@ -10476,10 +10476,10 @@
     </row>
     <row r="377" spans="1:7">
       <c r="A377" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C377" t="s">
         <v>29</v>
@@ -10493,10 +10493,10 @@
     </row>
     <row r="378" spans="1:7">
       <c r="A378" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C378" t="s">
         <v>29</v>
@@ -10510,10 +10510,10 @@
     </row>
     <row r="379" spans="1:7">
       <c r="A379" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C379" t="s">
         <v>29</v>
@@ -10527,10 +10527,10 @@
     </row>
     <row r="380" spans="1:7">
       <c r="A380" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C380" t="s">
         <v>29</v>
@@ -10544,21 +10544,21 @@
     </row>
     <row r="381" spans="1:7">
       <c r="B381" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C381" t="s">
         <v>39</v>
       </c>
       <c r="D381" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="382" spans="1:7">
       <c r="A382" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C382" t="s">
         <v>29</v>
@@ -10572,32 +10572,32 @@
     </row>
     <row r="383" spans="1:7">
       <c r="B383" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C383" t="s">
         <v>39</v>
       </c>
       <c r="D383" s="6" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="384" spans="1:7">
       <c r="B384" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C384" t="s">
         <v>39</v>
       </c>
       <c r="D384" s="6" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="385" spans="1:7">
       <c r="A385" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C385" t="s">
         <v>29</v>
@@ -10611,18 +10611,18 @@
     </row>
     <row r="386" spans="1:7">
       <c r="B386" s="3" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C386" t="s">
         <v>39</v>
       </c>
       <c r="D386" s="6" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="387" spans="1:7">
       <c r="B387" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C387" t="s">
         <v>29</v>
@@ -10636,10 +10636,10 @@
     </row>
     <row r="388" spans="1:7">
       <c r="A388" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C388" t="s">
         <v>29</v>
@@ -10653,24 +10653,24 @@
     </row>
     <row r="389" spans="1:7">
       <c r="A389" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C389" t="s">
         <v>39</v>
       </c>
       <c r="D389" s="6" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="390" spans="1:7">
       <c r="A390" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C390" t="s">
         <v>29</v>
@@ -10684,10 +10684,10 @@
     </row>
     <row r="391" spans="1:7" ht="30">
       <c r="A391" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C391" t="s">
         <v>29</v>
@@ -10701,10 +10701,10 @@
     </row>
     <row r="392" spans="1:7" ht="30">
       <c r="A392" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C392" t="s">
         <v>29</v>
@@ -10718,10 +10718,10 @@
     </row>
     <row r="393" spans="1:7" ht="30">
       <c r="A393" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C393" t="s">
         <v>29</v>
@@ -10735,10 +10735,10 @@
     </row>
     <row r="394" spans="1:7" ht="30">
       <c r="A394" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C394" t="s">
         <v>29</v>
@@ -10752,10 +10752,10 @@
     </row>
     <row r="395" spans="1:7">
       <c r="A395" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C395" t="s">
         <v>29</v>
@@ -10769,10 +10769,10 @@
     </row>
     <row r="396" spans="1:7">
       <c r="A396" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C396" t="s">
         <v>29</v>
@@ -10786,10 +10786,10 @@
     </row>
     <row r="397" spans="1:7">
       <c r="A397" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C397" t="s">
         <v>29</v>
@@ -10803,10 +10803,10 @@
     </row>
     <row r="398" spans="1:7">
       <c r="A398" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C398" t="s">
         <v>29</v>
@@ -10820,10 +10820,10 @@
     </row>
     <row r="399" spans="1:7">
       <c r="A399" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C399" t="s">
         <v>29</v>
@@ -10837,10 +10837,10 @@
     </row>
     <row r="400" spans="1:7">
       <c r="A400" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C400" t="s">
         <v>29</v>
@@ -10854,10 +10854,10 @@
     </row>
     <row r="401" spans="1:7">
       <c r="A401" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C401" t="s">
         <v>29</v>
@@ -10871,10 +10871,10 @@
     </row>
     <row r="402" spans="1:7">
       <c r="A402" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C402" t="s">
         <v>29</v>
@@ -10888,10 +10888,10 @@
     </row>
     <row r="403" spans="1:7">
       <c r="A403" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C403" t="s">
         <v>29</v>
@@ -10905,10 +10905,10 @@
     </row>
     <row r="404" spans="1:7">
       <c r="A404" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C404" t="s">
         <v>29</v>
@@ -10922,10 +10922,10 @@
     </row>
     <row r="405" spans="1:7">
       <c r="A405" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C405" t="s">
         <v>29</v>
@@ -10939,10 +10939,10 @@
     </row>
     <row r="406" spans="1:7">
       <c r="A406" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C406" t="s">
         <v>29</v>
@@ -10956,10 +10956,10 @@
     </row>
     <row r="407" spans="1:7">
       <c r="A407" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C407" t="s">
         <v>29</v>
@@ -10973,10 +10973,10 @@
     </row>
     <row r="408" spans="1:7">
       <c r="A408" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C408" t="s">
         <v>29</v>
@@ -10990,10 +10990,10 @@
     </row>
     <row r="409" spans="1:7">
       <c r="A409" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C409" t="s">
         <v>29</v>
@@ -11007,21 +11007,21 @@
     </row>
     <row r="410" spans="1:7">
       <c r="B410" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C410" t="s">
         <v>39</v>
       </c>
       <c r="D410" s="6" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="411" spans="1:7">
       <c r="A411" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C411" t="s">
         <v>29</v>
@@ -11035,7 +11035,7 @@
     </row>
     <row r="412" spans="1:7" ht="30">
       <c r="B412" s="3" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="C412" t="s">
         <v>29</v>
@@ -11049,10 +11049,10 @@
     </row>
     <row r="413" spans="1:7">
       <c r="A413" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C413" t="s">
         <v>29</v>
@@ -11066,10 +11066,10 @@
     </row>
     <row r="414" spans="1:7">
       <c r="A414" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C414" t="s">
         <v>29</v>
@@ -11083,10 +11083,10 @@
     </row>
     <row r="415" spans="1:7">
       <c r="A415" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C415" t="s">
         <v>29</v>
@@ -11100,10 +11100,10 @@
     </row>
     <row r="416" spans="1:7">
       <c r="A416" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C416" t="s">
         <v>29</v>
@@ -11117,10 +11117,10 @@
     </row>
     <row r="417" spans="1:7">
       <c r="A417" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C417" t="s">
         <v>29</v>
@@ -11134,10 +11134,10 @@
     </row>
     <row r="418" spans="1:7">
       <c r="A418" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C418" t="s">
         <v>29</v>
@@ -11151,32 +11151,32 @@
     </row>
     <row r="419" spans="1:7">
       <c r="B419" s="3" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C419" t="s">
         <v>39</v>
       </c>
       <c r="D419" s="6" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="420" spans="1:7">
       <c r="B420" s="3" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C420" t="s">
         <v>39</v>
       </c>
       <c r="D420" s="6" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="421" spans="1:7">
       <c r="A421" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C421" t="s">
         <v>29</v>
@@ -11190,10 +11190,10 @@
     </row>
     <row r="422" spans="1:7">
       <c r="A422" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C422" t="s">
         <v>29</v>
@@ -11207,10 +11207,10 @@
     </row>
     <row r="423" spans="1:7">
       <c r="A423" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C423" t="s">
         <v>29</v>
@@ -11224,10 +11224,10 @@
     </row>
     <row r="424" spans="1:7">
       <c r="A424" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C424" t="s">
         <v>29</v>
@@ -11241,10 +11241,10 @@
     </row>
     <row r="425" spans="1:7">
       <c r="A425" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C425" t="s">
         <v>29</v>
@@ -11258,10 +11258,10 @@
     </row>
     <row r="426" spans="1:7">
       <c r="A426" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C426" t="s">
         <v>29</v>
@@ -11275,10 +11275,10 @@
     </row>
     <row r="427" spans="1:7">
       <c r="A427" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C427" t="s">
         <v>29</v>
@@ -11292,10 +11292,10 @@
     </row>
     <row r="428" spans="1:7">
       <c r="A428" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C428" t="s">
         <v>29</v>
@@ -11309,10 +11309,10 @@
     </row>
     <row r="429" spans="1:7">
       <c r="A429" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C429" t="s">
         <v>29</v>
@@ -11326,7 +11326,7 @@
     </row>
     <row r="430" spans="1:7">
       <c r="B430" s="3" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C430" t="s">
         <v>29</v>
@@ -11340,7 +11340,7 @@
     </row>
     <row r="431" spans="1:7">
       <c r="B431" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C431" t="s">
         <v>29</v>
@@ -11354,7 +11354,7 @@
     </row>
     <row r="432" spans="1:7">
       <c r="B432" s="3" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C432" t="s">
         <v>29</v>
@@ -11368,7 +11368,7 @@
     </row>
     <row r="433" spans="1:7">
       <c r="B433" s="3" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C433" t="s">
         <v>29</v>
@@ -11382,7 +11382,7 @@
     </row>
     <row r="434" spans="1:7">
       <c r="B434" s="3" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C434" t="s">
         <v>29</v>
@@ -11396,7 +11396,7 @@
     </row>
     <row r="435" spans="1:7">
       <c r="B435" s="3" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C435" t="s">
         <v>29</v>
@@ -11410,7 +11410,7 @@
     </row>
     <row r="436" spans="1:7">
       <c r="B436" s="3" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C436" t="s">
         <v>29</v>
@@ -11424,7 +11424,7 @@
     </row>
     <row r="437" spans="1:7">
       <c r="B437" s="3" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C437" t="s">
         <v>29</v>
@@ -11438,7 +11438,7 @@
     </row>
     <row r="438" spans="1:7">
       <c r="B438" s="3" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C438" t="s">
         <v>29</v>
@@ -11452,7 +11452,7 @@
     </row>
     <row r="439" spans="1:7">
       <c r="B439" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C439" t="s">
         <v>29</v>
@@ -11466,7 +11466,7 @@
     </row>
     <row r="440" spans="1:7">
       <c r="B440" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C440" t="s">
         <v>29</v>
@@ -11480,7 +11480,7 @@
     </row>
     <row r="441" spans="1:7">
       <c r="B441" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C441" t="s">
         <v>29</v>
@@ -11494,7 +11494,7 @@
     </row>
     <row r="442" spans="1:7">
       <c r="B442" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C442" t="s">
         <v>29</v>
@@ -11508,10 +11508,10 @@
     </row>
     <row r="443" spans="1:7">
       <c r="A443" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C443" t="s">
         <v>29</v>
@@ -11525,10 +11525,10 @@
     </row>
     <row r="444" spans="1:7">
       <c r="A444" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C444" t="s">
         <v>29</v>
@@ -11542,10 +11542,10 @@
     </row>
     <row r="445" spans="1:7">
       <c r="A445" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C445" t="s">
         <v>29</v>
@@ -11559,10 +11559,10 @@
     </row>
     <row r="446" spans="1:7">
       <c r="A446" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C446" t="s">
         <v>29</v>
@@ -11576,10 +11576,10 @@
     </row>
     <row r="447" spans="1:7">
       <c r="A447" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C447" t="s">
         <v>29</v>
@@ -11593,10 +11593,10 @@
     </row>
     <row r="448" spans="1:7">
       <c r="A448" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C448" t="s">
         <v>29</v>
@@ -11610,10 +11610,10 @@
     </row>
     <row r="449" spans="1:7">
       <c r="A449" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C449" t="s">
         <v>29</v>
@@ -11627,10 +11627,10 @@
     </row>
     <row r="450" spans="1:7">
       <c r="A450" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C450" t="s">
         <v>29</v>
@@ -11644,10 +11644,10 @@
     </row>
     <row r="451" spans="1:7">
       <c r="A451" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C451" t="s">
         <v>29</v>
@@ -11661,10 +11661,10 @@
     </row>
     <row r="452" spans="1:7">
       <c r="A452" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C452" t="s">
         <v>29</v>
@@ -11678,10 +11678,10 @@
     </row>
     <row r="453" spans="1:7">
       <c r="A453" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C453" t="s">
         <v>29</v>
@@ -11695,10 +11695,10 @@
     </row>
     <row r="454" spans="1:7">
       <c r="A454" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C454" t="s">
         <v>29</v>
@@ -11712,10 +11712,10 @@
     </row>
     <row r="455" spans="1:7">
       <c r="A455" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C455" t="s">
         <v>29</v>
@@ -11729,21 +11729,21 @@
     </row>
     <row r="456" spans="1:7">
       <c r="B456" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C456" t="s">
         <v>39</v>
       </c>
       <c r="D456" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="457" spans="1:7">
       <c r="A457" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C457" t="s">
         <v>29</v>
@@ -11757,10 +11757,10 @@
     </row>
     <row r="458" spans="1:7">
       <c r="A458" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C458" t="s">
         <v>29</v>
@@ -11774,7 +11774,7 @@
     </row>
     <row r="459" spans="1:7">
       <c r="B459" s="3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C459" t="s">
         <v>29</v>
@@ -11788,7 +11788,7 @@
     </row>
     <row r="460" spans="1:7">
       <c r="B460" s="3" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C460" t="s">
         <v>29</v>
@@ -11802,18 +11802,18 @@
     </row>
     <row r="461" spans="1:7">
       <c r="B461" s="3" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C461" t="s">
         <v>39</v>
       </c>
       <c r="D461" s="6" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="462" spans="1:7">
       <c r="B462" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C462" t="s">
         <v>29</v>
@@ -11827,10 +11827,10 @@
     </row>
     <row r="463" spans="1:7">
       <c r="A463" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C463" t="s">
         <v>29</v>
@@ -11844,10 +11844,10 @@
     </row>
     <row r="464" spans="1:7">
       <c r="A464" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C464" t="s">
         <v>29</v>
@@ -11861,10 +11861,10 @@
     </row>
     <row r="465" spans="1:7">
       <c r="A465" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C465" t="s">
         <v>29</v>
@@ -11878,10 +11878,10 @@
     </row>
     <row r="466" spans="1:7">
       <c r="A466" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C466" t="s">
         <v>29</v>
@@ -11895,10 +11895,10 @@
     </row>
     <row r="467" spans="1:7">
       <c r="A467" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C467" t="s">
         <v>29</v>
@@ -11912,10 +11912,10 @@
     </row>
     <row r="468" spans="1:7">
       <c r="A468" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C468" t="s">
         <v>29</v>
@@ -11929,10 +11929,10 @@
     </row>
     <row r="469" spans="1:7">
       <c r="A469" t="s">
+        <v>753</v>
+      </c>
+      <c r="B469" s="3" t="s">
         <v>755</v>
-      </c>
-      <c r="B469" s="3" t="s">
-        <v>757</v>
       </c>
       <c r="C469" t="s">
         <v>29</v>
@@ -11946,10 +11946,10 @@
     </row>
     <row r="470" spans="1:7">
       <c r="A470" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C470" t="s">
         <v>29</v>
@@ -11963,10 +11963,10 @@
     </row>
     <row r="471" spans="1:7">
       <c r="A471" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C471" t="s">
         <v>29</v>
@@ -11980,10 +11980,10 @@
     </row>
     <row r="472" spans="1:7">
       <c r="A472" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C472" t="s">
         <v>29</v>
@@ -11997,10 +11997,10 @@
     </row>
     <row r="473" spans="1:7">
       <c r="A473" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C473" t="s">
         <v>29</v>
@@ -12014,10 +12014,10 @@
     </row>
     <row r="474" spans="1:7">
       <c r="A474" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C474" t="s">
         <v>29</v>
@@ -12031,10 +12031,10 @@
     </row>
     <row r="475" spans="1:7">
       <c r="A475" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C475" t="s">
         <v>29</v>
@@ -12048,10 +12048,10 @@
     </row>
     <row r="476" spans="1:7" ht="30">
       <c r="A476" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C476" t="s">
         <v>29</v>
@@ -12065,10 +12065,10 @@
     </row>
     <row r="477" spans="1:7" ht="30">
       <c r="A477" t="s">
+        <v>765</v>
+      </c>
+      <c r="B477" s="3" t="s">
         <v>767</v>
-      </c>
-      <c r="B477" s="3" t="s">
-        <v>769</v>
       </c>
       <c r="C477" t="s">
         <v>29</v>
@@ -12082,10 +12082,10 @@
     </row>
     <row r="478" spans="1:7">
       <c r="A478" t="s">
+        <v>766</v>
+      </c>
+      <c r="B478" s="3" t="s">
         <v>768</v>
-      </c>
-      <c r="B478" s="3" t="s">
-        <v>770</v>
       </c>
       <c r="C478" t="s">
         <v>29</v>
@@ -12099,10 +12099,10 @@
     </row>
     <row r="479" spans="1:7">
       <c r="A479" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C479" t="s">
         <v>29</v>
@@ -12116,7 +12116,7 @@
     </row>
     <row r="480" spans="1:7">
       <c r="B480" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C480" t="s">
         <v>29</v>
@@ -12130,10 +12130,10 @@
     </row>
     <row r="481" spans="1:7">
       <c r="A481" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C481" t="s">
         <v>29</v>
@@ -12147,10 +12147,10 @@
     </row>
     <row r="482" spans="1:7">
       <c r="A482" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C482" t="s">
         <v>29</v>
@@ -12164,10 +12164,10 @@
     </row>
     <row r="483" spans="1:7">
       <c r="A483" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C483" t="s">
         <v>29</v>
@@ -12181,10 +12181,10 @@
     </row>
     <row r="484" spans="1:7">
       <c r="A484" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C484" t="s">
         <v>29</v>
@@ -12198,10 +12198,10 @@
     </row>
     <row r="485" spans="1:7">
       <c r="A485" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C485" t="s">
         <v>29</v>
@@ -12215,10 +12215,10 @@
     </row>
     <row r="486" spans="1:7">
       <c r="A486" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C486" t="s">
         <v>29</v>
@@ -12232,16 +12232,16 @@
     </row>
     <row r="487" spans="1:7">
       <c r="A487" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C487" t="s">
         <v>39</v>
       </c>
       <c r="D487" s="6" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F487" s="4">
         <v>1</v>
@@ -12252,16 +12252,16 @@
     </row>
     <row r="488" spans="1:7">
       <c r="A488" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C488" t="s">
         <v>39</v>
       </c>
       <c r="D488" s="6" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F488" s="4">
         <v>1</v>
@@ -12272,16 +12272,16 @@
     </row>
     <row r="489" spans="1:7">
       <c r="A489" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C489" t="s">
         <v>39</v>
       </c>
       <c r="D489" s="6" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F489" s="4">
         <v>1</v>
@@ -12292,16 +12292,16 @@
     </row>
     <row r="490" spans="1:7">
       <c r="A490" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C490" t="s">
         <v>39</v>
       </c>
       <c r="D490" s="6" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F490" s="4">
         <v>1</v>
@@ -12312,10 +12312,10 @@
     </row>
     <row r="491" spans="1:7">
       <c r="A491" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C491" t="s">
         <v>29</v>
@@ -12329,7 +12329,7 @@
     </row>
     <row r="492" spans="1:7">
       <c r="B492" s="3" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C492" t="s">
         <v>29</v>
@@ -12343,7 +12343,7 @@
     </row>
     <row r="493" spans="1:7">
       <c r="B493" s="3" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C493" t="s">
         <v>29</v>
@@ -12357,7 +12357,7 @@
     </row>
     <row r="494" spans="1:7">
       <c r="B494" s="3" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C494" t="s">
         <v>29</v>
@@ -12371,10 +12371,10 @@
     </row>
     <row r="495" spans="1:7">
       <c r="A495" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C495" t="s">
         <v>29</v>
@@ -12388,10 +12388,10 @@
     </row>
     <row r="496" spans="1:7">
       <c r="A496" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C496" t="s">
         <v>29</v>
@@ -12405,10 +12405,10 @@
     </row>
     <row r="497" spans="1:7">
       <c r="A497" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C497" t="s">
         <v>29</v>
@@ -12422,10 +12422,10 @@
     </row>
     <row r="498" spans="1:7">
       <c r="A498" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C498" t="s">
         <v>29</v>
@@ -12439,10 +12439,10 @@
     </row>
     <row r="499" spans="1:7">
       <c r="A499" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C499" t="s">
         <v>29</v>
@@ -12456,10 +12456,10 @@
     </row>
     <row r="500" spans="1:7">
       <c r="A500" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C500" t="s">
         <v>29</v>
@@ -12473,10 +12473,10 @@
     </row>
     <row r="501" spans="1:7">
       <c r="A501" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C501" t="s">
         <v>29</v>
@@ -12490,10 +12490,10 @@
     </row>
     <row r="502" spans="1:7">
       <c r="A502" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C502" t="s">
         <v>29</v>
@@ -12507,10 +12507,10 @@
     </row>
     <row r="503" spans="1:7">
       <c r="A503" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C503" t="s">
         <v>29</v>
@@ -12524,7 +12524,7 @@
     </row>
     <row r="504" spans="1:7">
       <c r="B504" s="3" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C504" t="s">
         <v>29</v>
@@ -12538,10 +12538,10 @@
     </row>
     <row r="505" spans="1:7">
       <c r="A505" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C505" t="s">
         <v>29</v>
@@ -12555,10 +12555,10 @@
     </row>
     <row r="506" spans="1:7">
       <c r="A506" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C506" t="s">
         <v>29</v>
@@ -12572,10 +12572,10 @@
     </row>
     <row r="507" spans="1:7">
       <c r="A507" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C507" t="s">
         <v>29</v>
@@ -12589,10 +12589,10 @@
     </row>
     <row r="508" spans="1:7">
       <c r="A508" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B508" s="3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C508" t="s">
         <v>29</v>
@@ -12606,10 +12606,10 @@
     </row>
     <row r="509" spans="1:7">
       <c r="A509" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C509" t="s">
         <v>29</v>
@@ -12623,10 +12623,10 @@
     </row>
     <row r="510" spans="1:7">
       <c r="A510" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C510" t="s">
         <v>29</v>
@@ -12640,13 +12640,13 @@
     </row>
     <row r="511" spans="1:7">
       <c r="B511" s="3" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C511" t="s">
         <v>39</v>
       </c>
       <c r="D511" s="6" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F511" s="4">
         <v>1</v>
@@ -12657,10 +12657,10 @@
     </row>
     <row r="512" spans="1:7">
       <c r="A512" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C512" t="s">
         <v>29</v>
@@ -12674,10 +12674,10 @@
     </row>
     <row r="513" spans="1:7" ht="30">
       <c r="A513" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C513" t="s">
         <v>29</v>
@@ -12691,10 +12691,10 @@
     </row>
     <row r="514" spans="1:7">
       <c r="A514" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C514" t="s">
         <v>29</v>
@@ -12708,10 +12708,10 @@
     </row>
     <row r="515" spans="1:7">
       <c r="A515" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C515" t="s">
         <v>29</v>
@@ -12725,10 +12725,10 @@
     </row>
     <row r="516" spans="1:7">
       <c r="A516" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C516" t="s">
         <v>29</v>
@@ -12742,10 +12742,10 @@
     </row>
     <row r="517" spans="1:7" ht="30">
       <c r="A517" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C517" t="s">
         <v>29</v>
@@ -12759,10 +12759,10 @@
     </row>
     <row r="518" spans="1:7">
       <c r="A518" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C518" t="s">
         <v>29</v>
@@ -12776,10 +12776,10 @@
     </row>
     <row r="519" spans="1:7">
       <c r="A519" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C519" t="s">
         <v>29</v>
@@ -12793,10 +12793,10 @@
     </row>
     <row r="520" spans="1:7" ht="30">
       <c r="A520" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C520" t="s">
         <v>29</v>
@@ -12810,10 +12810,10 @@
     </row>
     <row r="521" spans="1:7">
       <c r="A521" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C521" t="s">
         <v>29</v>
@@ -12827,10 +12827,10 @@
     </row>
     <row r="522" spans="1:7">
       <c r="A522" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C522" t="s">
         <v>29</v>
@@ -12844,10 +12844,10 @@
     </row>
     <row r="523" spans="1:7">
       <c r="A523" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C523" t="s">
         <v>29</v>
@@ -12861,7 +12861,7 @@
     </row>
     <row r="524" spans="1:7">
       <c r="B524" s="3" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C524" t="s">
         <v>29</v>
@@ -12875,7 +12875,7 @@
     </row>
     <row r="525" spans="1:7">
       <c r="B525" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C525" t="s">
         <v>29</v>
@@ -12889,7 +12889,7 @@
     </row>
     <row r="526" spans="1:7">
       <c r="B526" s="3" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C526" t="s">
         <v>29</v>
@@ -12903,7 +12903,7 @@
     </row>
     <row r="527" spans="1:7">
       <c r="B527" s="3" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C527" t="s">
         <v>29</v>
@@ -12917,7 +12917,7 @@
     </row>
     <row r="528" spans="1:7">
       <c r="B528" s="3" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C528" t="s">
         <v>29</v>
@@ -12931,7 +12931,7 @@
     </row>
     <row r="529" spans="1:7">
       <c r="B529" s="3" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C529" t="s">
         <v>29</v>
@@ -12945,7 +12945,7 @@
     </row>
     <row r="530" spans="1:7">
       <c r="B530" s="3" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C530" t="s">
         <v>29</v>
@@ -12959,7 +12959,7 @@
     </row>
     <row r="531" spans="1:7">
       <c r="B531" s="3" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C531" t="s">
         <v>29</v>
@@ -12973,7 +12973,7 @@
     </row>
     <row r="532" spans="1:7">
       <c r="B532" s="3" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C532" t="s">
         <v>29</v>
@@ -12987,7 +12987,7 @@
     </row>
     <row r="533" spans="1:7">
       <c r="B533" s="3" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C533" t="s">
         <v>29</v>
@@ -13001,7 +13001,7 @@
     </row>
     <row r="534" spans="1:7">
       <c r="B534" s="3" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C534" t="s">
         <v>29</v>
@@ -13015,10 +13015,10 @@
     </row>
     <row r="535" spans="1:7">
       <c r="A535" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C535" t="s">
         <v>29</v>
@@ -13032,10 +13032,10 @@
     </row>
     <row r="536" spans="1:7">
       <c r="A536" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C536" t="s">
         <v>29</v>
@@ -13049,7 +13049,7 @@
     </row>
     <row r="537" spans="1:7">
       <c r="B537" s="3" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C537" t="s">
         <v>29</v>
@@ -13063,7 +13063,7 @@
     </row>
     <row r="538" spans="1:7">
       <c r="B538" s="3" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C538" t="s">
         <v>29</v>
@@ -13077,7 +13077,7 @@
     </row>
     <row r="539" spans="1:7">
       <c r="B539" s="3" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C539" t="s">
         <v>29</v>
@@ -13091,10 +13091,10 @@
     </row>
     <row r="540" spans="1:7">
       <c r="A540" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C540" t="s">
         <v>29</v>
@@ -13108,7 +13108,7 @@
     </row>
     <row r="541" spans="1:7">
       <c r="B541" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C541" t="s">
         <v>29</v>
@@ -13122,7 +13122,7 @@
     </row>
     <row r="542" spans="1:7">
       <c r="B542" s="3" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C542" t="s">
         <v>29</v>
@@ -13136,7 +13136,7 @@
     </row>
     <row r="543" spans="1:7">
       <c r="B543" s="3" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C543" t="s">
         <v>29</v>
@@ -13150,10 +13150,10 @@
     </row>
     <row r="544" spans="1:7">
       <c r="A544" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C544" t="s">
         <v>29</v>
@@ -13167,7 +13167,7 @@
     </row>
     <row r="545" spans="1:7">
       <c r="B545" s="3" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C545" t="s">
         <v>29</v>
@@ -13181,7 +13181,7 @@
     </row>
     <row r="546" spans="1:7">
       <c r="B546" s="3" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C546" t="s">
         <v>29</v>
@@ -13195,7 +13195,7 @@
     </row>
     <row r="547" spans="1:7">
       <c r="B547" s="3" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C547" t="s">
         <v>29</v>
@@ -13209,10 +13209,10 @@
     </row>
     <row r="548" spans="1:7">
       <c r="A548" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C548" t="s">
         <v>29</v>
@@ -13226,7 +13226,7 @@
     </row>
     <row r="549" spans="1:7">
       <c r="B549" s="3" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C549" t="s">
         <v>29</v>
@@ -13240,7 +13240,7 @@
     </row>
     <row r="550" spans="1:7">
       <c r="B550" s="3" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C550" t="s">
         <v>29</v>
@@ -13254,7 +13254,7 @@
     </row>
     <row r="551" spans="1:7">
       <c r="B551" s="3" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C551" t="s">
         <v>29</v>
@@ -13268,10 +13268,10 @@
     </row>
     <row r="552" spans="1:7">
       <c r="A552" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C552" t="s">
         <v>29</v>
@@ -13285,7 +13285,7 @@
     </row>
     <row r="553" spans="1:7">
       <c r="B553" s="3" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C553" t="s">
         <v>29</v>
@@ -13299,7 +13299,7 @@
     </row>
     <row r="554" spans="1:7">
       <c r="B554" s="3" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C554" t="s">
         <v>29</v>
@@ -13313,7 +13313,7 @@
     </row>
     <row r="555" spans="1:7">
       <c r="B555" s="3" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C555" t="s">
         <v>29</v>
@@ -13327,13 +13327,13 @@
     </row>
     <row r="556" spans="1:7">
       <c r="B556" s="3" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C556" t="s">
         <v>39</v>
       </c>
       <c r="D556" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F556" s="4">
         <v>1</v>
@@ -13344,13 +13344,13 @@
     </row>
     <row r="557" spans="1:7">
       <c r="B557" s="3" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C557" t="s">
         <v>39</v>
       </c>
       <c r="D557" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F557" s="4">
         <v>1</v>
@@ -13361,10 +13361,10 @@
     </row>
     <row r="558" spans="1:7">
       <c r="A558" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C558" t="s">
         <v>29</v>
@@ -13378,7 +13378,7 @@
     </row>
     <row r="559" spans="1:7">
       <c r="B559" s="3" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C559" t="s">
         <v>29</v>
@@ -13392,7 +13392,7 @@
     </row>
     <row r="560" spans="1:7">
       <c r="B560" s="3" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C560" t="s">
         <v>29</v>
@@ -13406,7 +13406,7 @@
     </row>
     <row r="561" spans="1:7">
       <c r="B561" s="3" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C561" t="s">
         <v>29</v>
@@ -13420,10 +13420,10 @@
     </row>
     <row r="562" spans="1:7">
       <c r="A562" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B562" s="3" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C562" t="s">
         <v>29</v>
@@ -13437,7 +13437,7 @@
     </row>
     <row r="563" spans="1:7">
       <c r="B563" s="3" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C563" t="s">
         <v>29</v>
@@ -13451,7 +13451,7 @@
     </row>
     <row r="564" spans="1:7">
       <c r="B564" s="3" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C564" t="s">
         <v>29</v>
@@ -13465,7 +13465,7 @@
     </row>
     <row r="565" spans="1:7">
       <c r="B565" s="3" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C565" t="s">
         <v>29</v>
@@ -13479,7 +13479,7 @@
     </row>
     <row r="566" spans="1:7">
       <c r="B566" s="3" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C566" t="s">
         <v>29</v>
@@ -13493,7 +13493,7 @@
     </row>
     <row r="567" spans="1:7">
       <c r="B567" s="3" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C567" t="s">
         <v>29</v>
@@ -13507,7 +13507,7 @@
     </row>
     <row r="568" spans="1:7">
       <c r="B568" s="3" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C568" t="s">
         <v>29</v>
@@ -13521,10 +13521,10 @@
     </row>
     <row r="569" spans="1:7">
       <c r="A569" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C569" t="s">
         <v>29</v>
@@ -13538,10 +13538,10 @@
     </row>
     <row r="570" spans="1:7">
       <c r="A570" t="s">
+        <v>913</v>
+      </c>
+      <c r="B570" s="3" t="s">
         <v>915</v>
-      </c>
-      <c r="B570" s="3" t="s">
-        <v>917</v>
       </c>
       <c r="C570" t="s">
         <v>29</v>
@@ -13555,7 +13555,7 @@
     </row>
     <row r="571" spans="1:7">
       <c r="B571" s="3" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C571" t="s">
         <v>29</v>
@@ -13569,7 +13569,7 @@
     </row>
     <row r="572" spans="1:7">
       <c r="B572" s="3" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C572" t="s">
         <v>29</v>
@@ -13583,7 +13583,7 @@
     </row>
     <row r="573" spans="1:7">
       <c r="B573" s="3" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C573" t="s">
         <v>29</v>
@@ -13597,7 +13597,7 @@
     </row>
     <row r="574" spans="1:7">
       <c r="B574" s="3" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C574" t="s">
         <v>29</v>
@@ -13611,7 +13611,7 @@
     </row>
     <row r="575" spans="1:7">
       <c r="B575" s="3" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C575" t="s">
         <v>29</v>
@@ -13625,7 +13625,7 @@
     </row>
     <row r="576" spans="1:7">
       <c r="B576" s="3" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C576" t="s">
         <v>29</v>
@@ -13639,13 +13639,13 @@
     </row>
     <row r="577" spans="1:7">
       <c r="B577" s="3" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C577" t="s">
         <v>39</v>
       </c>
       <c r="D577" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F577" s="4">
         <v>1</v>
@@ -13656,13 +13656,13 @@
     </row>
     <row r="578" spans="1:7">
       <c r="B578" s="3" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C578" t="s">
         <v>39</v>
       </c>
       <c r="D578" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F578" s="4">
         <v>1</v>
@@ -13673,10 +13673,10 @@
     </row>
     <row r="579" spans="1:7">
       <c r="A579" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C579" t="s">
         <v>29</v>
@@ -13690,7 +13690,7 @@
     </row>
     <row r="580" spans="1:7">
       <c r="B580" s="3" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C580" t="s">
         <v>29</v>
@@ -13704,7 +13704,7 @@
     </row>
     <row r="581" spans="1:7">
       <c r="B581" s="3" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C581" t="s">
         <v>29</v>
@@ -13718,7 +13718,7 @@
     </row>
     <row r="582" spans="1:7">
       <c r="B582" s="3" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C582" t="s">
         <v>29</v>
@@ -13732,7 +13732,7 @@
     </row>
     <row r="583" spans="1:7">
       <c r="B583" s="3" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C583" t="s">
         <v>29</v>
@@ -13746,7 +13746,7 @@
     </row>
     <row r="584" spans="1:7">
       <c r="B584" s="3" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C584" t="s">
         <v>29</v>
@@ -13760,7 +13760,7 @@
     </row>
     <row r="585" spans="1:7">
       <c r="B585" s="3" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C585" t="s">
         <v>29</v>
@@ -13774,7 +13774,7 @@
     </row>
     <row r="586" spans="1:7">
       <c r="B586" s="3" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C586" t="s">
         <v>29</v>
@@ -13788,7 +13788,7 @@
     </row>
     <row r="587" spans="1:7">
       <c r="B587" s="3" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C587" t="s">
         <v>29</v>
@@ -13802,7 +13802,7 @@
     </row>
     <row r="588" spans="1:7">
       <c r="B588" s="3" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C588" t="s">
         <v>29</v>
@@ -13816,7 +13816,7 @@
     </row>
     <row r="589" spans="1:7">
       <c r="B589" s="3" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C589" t="s">
         <v>29</v>
@@ -13830,7 +13830,7 @@
     </row>
     <row r="590" spans="1:7">
       <c r="B590" s="3" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C590" t="s">
         <v>29</v>
@@ -13844,7 +13844,7 @@
     </row>
     <row r="591" spans="1:7">
       <c r="B591" s="3" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C591" t="s">
         <v>29</v>
@@ -13858,7 +13858,7 @@
     </row>
     <row r="592" spans="1:7">
       <c r="B592" s="3" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C592" t="s">
         <v>29</v>
@@ -13872,7 +13872,7 @@
     </row>
     <row r="593" spans="2:7">
       <c r="B593" s="3" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C593" t="s">
         <v>29</v>
@@ -13886,7 +13886,7 @@
     </row>
     <row r="594" spans="2:7">
       <c r="B594" s="3" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C594" t="s">
         <v>29</v>
@@ -13900,7 +13900,7 @@
     </row>
     <row r="595" spans="2:7">
       <c r="B595" s="3" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C595" t="s">
         <v>29</v>
@@ -13914,7 +13914,7 @@
     </row>
     <row r="596" spans="2:7">
       <c r="B596" s="3" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C596" t="s">
         <v>29</v>
@@ -13928,7 +13928,7 @@
     </row>
     <row r="597" spans="2:7">
       <c r="B597" s="3" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C597" t="s">
         <v>29</v>
@@ -13942,7 +13942,7 @@
     </row>
     <row r="598" spans="2:7">
       <c r="B598" s="3" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C598" t="s">
         <v>29</v>
@@ -13956,7 +13956,7 @@
     </row>
     <row r="599" spans="2:7">
       <c r="B599" s="3" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C599" t="s">
         <v>29</v>
@@ -13970,7 +13970,7 @@
     </row>
     <row r="600" spans="2:7">
       <c r="B600" s="3" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C600" t="s">
         <v>29</v>
@@ -13984,7 +13984,7 @@
     </row>
     <row r="601" spans="2:7">
       <c r="B601" s="3" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C601" t="s">
         <v>29</v>
@@ -13998,7 +13998,7 @@
     </row>
     <row r="602" spans="2:7">
       <c r="B602" s="3" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C602" t="s">
         <v>29</v>
@@ -14012,7 +14012,7 @@
     </row>
     <row r="603" spans="2:7">
       <c r="B603" s="3" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C603" t="s">
         <v>29</v>
@@ -14026,7 +14026,7 @@
     </row>
     <row r="604" spans="2:7">
       <c r="B604" s="3" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C604" t="s">
         <v>29</v>
@@ -14040,7 +14040,7 @@
     </row>
     <row r="605" spans="2:7">
       <c r="B605" s="3" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C605" t="s">
         <v>29</v>
@@ -14054,7 +14054,7 @@
     </row>
     <row r="606" spans="2:7">
       <c r="B606" s="3" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C606" t="s">
         <v>29</v>
@@ -14068,7 +14068,7 @@
     </row>
     <row r="607" spans="2:7">
       <c r="B607" s="3" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C607" t="s">
         <v>29</v>
@@ -14082,7 +14082,7 @@
     </row>
     <row r="608" spans="2:7">
       <c r="B608" s="3" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C608" t="s">
         <v>29</v>
@@ -14096,10 +14096,10 @@
     </row>
     <row r="609" spans="1:7">
       <c r="A609" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B609" s="3" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C609" t="s">
         <v>29</v>
@@ -14113,7 +14113,7 @@
     </row>
     <row r="610" spans="1:7">
       <c r="B610" s="3" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C610" t="s">
         <v>29</v>
@@ -14127,7 +14127,7 @@
     </row>
     <row r="611" spans="1:7">
       <c r="B611" s="3" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C611" t="s">
         <v>29</v>
@@ -14141,7 +14141,7 @@
     </row>
     <row r="612" spans="1:7">
       <c r="B612" s="3" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C612" t="s">
         <v>29</v>
@@ -14155,7 +14155,7 @@
     </row>
     <row r="613" spans="1:7">
       <c r="B613" s="3" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C613" t="s">
         <v>29</v>
@@ -14169,7 +14169,7 @@
     </row>
     <row r="614" spans="1:7">
       <c r="B614" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C614" t="s">
         <v>29</v>
@@ -14183,7 +14183,7 @@
     </row>
     <row r="615" spans="1:7">
       <c r="B615" s="3" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C615" t="s">
         <v>29</v>
@@ -14197,7 +14197,7 @@
     </row>
     <row r="616" spans="1:7">
       <c r="B616" s="3" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C616" t="s">
         <v>29</v>
@@ -14211,7 +14211,7 @@
     </row>
     <row r="617" spans="1:7">
       <c r="B617" s="3" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C617" t="s">
         <v>29</v>
@@ -14225,7 +14225,7 @@
     </row>
     <row r="618" spans="1:7">
       <c r="B618" s="3" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C618" t="s">
         <v>29</v>
@@ -14239,7 +14239,7 @@
     </row>
     <row r="619" spans="1:7">
       <c r="B619" s="3" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C619" t="s">
         <v>29</v>
@@ -14253,7 +14253,7 @@
     </row>
     <row r="620" spans="1:7">
       <c r="B620" s="3" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C620" t="s">
         <v>29</v>
@@ -14267,7 +14267,7 @@
     </row>
     <row r="621" spans="1:7">
       <c r="B621" s="3" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C621" t="s">
         <v>29</v>
@@ -14281,7 +14281,7 @@
     </row>
     <row r="622" spans="1:7">
       <c r="B622" s="3" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C622" t="s">
         <v>29</v>
@@ -14295,7 +14295,7 @@
     </row>
     <row r="623" spans="1:7">
       <c r="B623" s="3" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C623" t="s">
         <v>29</v>
@@ -14309,13 +14309,13 @@
     </row>
     <row r="624" spans="1:7">
       <c r="B624" s="3" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C624" t="s">
         <v>39</v>
       </c>
       <c r="D624" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F624" s="4">
         <v>1</v>
@@ -14326,7 +14326,7 @@
     </row>
     <row r="625" spans="1:7">
       <c r="B625" s="3" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C625" t="s">
         <v>29</v>
@@ -14340,7 +14340,7 @@
     </row>
     <row r="626" spans="1:7">
       <c r="B626" s="3" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C626" t="s">
         <v>29</v>
@@ -14354,7 +14354,7 @@
     </row>
     <row r="627" spans="1:7">
       <c r="B627" s="3" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C627" t="s">
         <v>29</v>
@@ -14368,7 +14368,7 @@
     </row>
     <row r="628" spans="1:7">
       <c r="B628" s="3" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C628" t="s">
         <v>29</v>
@@ -14382,7 +14382,7 @@
     </row>
     <row r="629" spans="1:7">
       <c r="B629" s="3" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C629" t="s">
         <v>29</v>
@@ -14396,7 +14396,7 @@
     </row>
     <row r="630" spans="1:7">
       <c r="B630" s="3" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C630" t="s">
         <v>29</v>
@@ -14410,7 +14410,7 @@
     </row>
     <row r="631" spans="1:7">
       <c r="B631" s="3" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C631" t="s">
         <v>29</v>
@@ -14424,7 +14424,7 @@
     </row>
     <row r="632" spans="1:7">
       <c r="B632" s="3" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C632" t="s">
         <v>29</v>
@@ -14438,10 +14438,10 @@
     </row>
     <row r="633" spans="1:7">
       <c r="A633" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B633" s="3" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C633" t="s">
         <v>29</v>
@@ -14455,7 +14455,7 @@
     </row>
     <row r="634" spans="1:7">
       <c r="B634" s="3" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C634" t="s">
         <v>29</v>
@@ -14469,13 +14469,13 @@
     </row>
     <row r="635" spans="1:7">
       <c r="B635" s="3" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C635" t="s">
         <v>39</v>
       </c>
       <c r="D635" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F635" s="4">
         <v>1</v>
@@ -14486,10 +14486,10 @@
     </row>
     <row r="636" spans="1:7">
       <c r="A636" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B636" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C636" t="s">
         <v>29</v>
@@ -14503,7 +14503,7 @@
     </row>
     <row r="637" spans="1:7">
       <c r="B637" s="3" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C637" t="s">
         <v>29</v>
@@ -14517,13 +14517,13 @@
     </row>
     <row r="638" spans="1:7">
       <c r="B638" s="3" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C638" t="s">
         <v>39</v>
       </c>
       <c r="D638" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F638" s="4">
         <v>1</v>
@@ -14534,7 +14534,7 @@
     </row>
     <row r="639" spans="1:7">
       <c r="B639" s="3" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C639" t="s">
         <v>29</v>
@@ -14548,13 +14548,13 @@
     </row>
     <row r="640" spans="1:7">
       <c r="B640" s="3" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C640" t="s">
         <v>39</v>
       </c>
       <c r="D640" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F640" s="4">
         <v>1</v>
@@ -14565,10 +14565,10 @@
     </row>
     <row r="641" spans="1:7">
       <c r="A641" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B641" s="3" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C641" t="s">
         <v>29</v>
@@ -14582,7 +14582,7 @@
     </row>
     <row r="642" spans="1:7">
       <c r="B642" s="3" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C642" t="s">
         <v>29</v>
@@ -14596,7 +14596,7 @@
     </row>
     <row r="643" spans="1:7">
       <c r="B643" s="3" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C643" t="s">
         <v>29</v>
@@ -14610,7 +14610,7 @@
     </row>
     <row r="644" spans="1:7">
       <c r="B644" s="3" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C644" t="s">
         <v>29</v>
@@ -14624,10 +14624,10 @@
     </row>
     <row r="645" spans="1:7">
       <c r="A645" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B645" s="3" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C645" t="s">
         <v>29</v>
@@ -14641,10 +14641,10 @@
     </row>
     <row r="646" spans="1:7">
       <c r="A646" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B646" s="3" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C646" t="s">
         <v>29</v>
@@ -14658,10 +14658,10 @@
     </row>
     <row r="647" spans="1:7">
       <c r="A647" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B647" s="3" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C647" t="s">
         <v>29</v>
@@ -14675,10 +14675,10 @@
     </row>
     <row r="648" spans="1:7">
       <c r="A648" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B648" s="3" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C648" t="s">
         <v>29</v>
@@ -14692,10 +14692,10 @@
     </row>
     <row r="649" spans="1:7">
       <c r="A649" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B649" s="3" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C649" t="s">
         <v>29</v>
@@ -14709,10 +14709,10 @@
     </row>
     <row r="650" spans="1:7">
       <c r="A650" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B650" s="3" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C650" t="s">
         <v>29</v>
@@ -14726,10 +14726,10 @@
     </row>
     <row r="651" spans="1:7">
       <c r="A651" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B651" s="3" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C651" t="s">
         <v>29</v>
@@ -14743,10 +14743,10 @@
     </row>
     <row r="652" spans="1:7">
       <c r="A652" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B652" s="3" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C652" t="s">
         <v>29</v>
@@ -14760,10 +14760,10 @@
     </row>
     <row r="653" spans="1:7">
       <c r="A653" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B653" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C653" t="s">
         <v>29</v>
@@ -14777,10 +14777,10 @@
     </row>
     <row r="654" spans="1:7">
       <c r="A654" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B654" s="3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C654" t="s">
         <v>29</v>
@@ -14794,10 +14794,10 @@
     </row>
     <row r="655" spans="1:7">
       <c r="A655" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B655" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C655" t="s">
         <v>29</v>
@@ -14811,10 +14811,10 @@
     </row>
     <row r="656" spans="1:7">
       <c r="A656" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B656" s="3" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C656" t="s">
         <v>29</v>
@@ -14828,10 +14828,10 @@
     </row>
     <row r="657" spans="1:7">
       <c r="A657" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B657" s="3" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C657" t="s">
         <v>29</v>
@@ -14845,10 +14845,10 @@
     </row>
     <row r="658" spans="1:7">
       <c r="A658" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B658" s="3" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C658" t="s">
         <v>29</v>
@@ -14862,10 +14862,10 @@
     </row>
     <row r="659" spans="1:7">
       <c r="A659" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B659" s="3" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C659" t="s">
         <v>29</v>
@@ -14879,7 +14879,7 @@
     </row>
     <row r="660" spans="1:7">
       <c r="B660" s="3" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C660" t="s">
         <v>29</v>
@@ -14893,7 +14893,7 @@
     </row>
     <row r="661" spans="1:7" ht="30">
       <c r="B661" s="3" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C661" t="s">
         <v>29</v>
@@ -14907,10 +14907,10 @@
     </row>
     <row r="662" spans="1:7">
       <c r="A662" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B662" s="3" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="C662" t="s">
         <v>29</v>
@@ -14924,10 +14924,10 @@
     </row>
     <row r="663" spans="1:7">
       <c r="A663" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B663" s="3" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C663" t="s">
         <v>29</v>
@@ -14941,10 +14941,10 @@
     </row>
     <row r="664" spans="1:7">
       <c r="A664" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B664" s="3" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="C664" t="s">
         <v>29</v>
@@ -14958,10 +14958,10 @@
     </row>
     <row r="665" spans="1:7">
       <c r="A665" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B665" s="3" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C665" t="s">
         <v>29</v>
@@ -14975,10 +14975,10 @@
     </row>
     <row r="666" spans="1:7">
       <c r="A666" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B666" s="3" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="C666" t="s">
         <v>29</v>
@@ -14992,10 +14992,10 @@
     </row>
     <row r="667" spans="1:7">
       <c r="A667" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B667" s="3" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C667" t="s">
         <v>29</v>
@@ -15009,10 +15009,10 @@
     </row>
     <row r="668" spans="1:7">
       <c r="A668" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B668" s="3" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="C668" t="s">
         <v>29</v>
@@ -15026,10 +15026,10 @@
     </row>
     <row r="669" spans="1:7">
       <c r="A669" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B669" s="3" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C669" t="s">
         <v>29</v>
@@ -15043,10 +15043,10 @@
     </row>
     <row r="670" spans="1:7">
       <c r="A670" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B670" s="3" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="C670" t="s">
         <v>29</v>
@@ -15060,10 +15060,10 @@
     </row>
     <row r="671" spans="1:7">
       <c r="A671" s="9" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B671" s="3" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="C671" t="s">
         <v>29</v>
@@ -15077,10 +15077,10 @@
     </row>
     <row r="672" spans="1:7">
       <c r="A672" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B672" s="3" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C672" t="s">
         <v>29</v>
@@ -15094,10 +15094,10 @@
     </row>
     <row r="673" spans="1:7">
       <c r="A673" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B673" s="3" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="C673" t="s">
         <v>29</v>
@@ -15111,10 +15111,10 @@
     </row>
     <row r="674" spans="1:7">
       <c r="A674" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B674" s="3" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C674" t="s">
         <v>29</v>
@@ -15128,10 +15128,10 @@
     </row>
     <row r="675" spans="1:7">
       <c r="A675" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B675" s="3" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C675" t="s">
         <v>29</v>
@@ -15145,10 +15145,10 @@
     </row>
     <row r="676" spans="1:7">
       <c r="A676" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B676" s="3" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="C676" t="s">
         <v>29</v>
@@ -15162,10 +15162,10 @@
     </row>
     <row r="677" spans="1:7">
       <c r="A677" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B677" s="3" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="C677" t="s">
         <v>29</v>
@@ -15179,10 +15179,10 @@
     </row>
     <row r="678" spans="1:7">
       <c r="A678" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B678" s="3" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C678" t="s">
         <v>29</v>
@@ -15196,10 +15196,10 @@
     </row>
     <row r="679" spans="1:7">
       <c r="A679" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B679" s="3" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="C679" t="s">
         <v>29</v>
@@ -15213,10 +15213,10 @@
     </row>
     <row r="680" spans="1:7">
       <c r="A680" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B680" s="3" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C680" t="s">
         <v>29</v>
@@ -15230,10 +15230,10 @@
     </row>
     <row r="681" spans="1:7">
       <c r="A681" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B681" s="3" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C681" t="s">
         <v>29</v>
@@ -15247,10 +15247,10 @@
     </row>
     <row r="682" spans="1:7">
       <c r="A682" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B682" s="3" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C682" t="s">
         <v>29</v>
@@ -15264,10 +15264,10 @@
     </row>
     <row r="683" spans="1:7">
       <c r="A683" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B683" s="3" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="C683" t="s">
         <v>29</v>
@@ -15281,10 +15281,10 @@
     </row>
     <row r="684" spans="1:7">
       <c r="A684" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B684" s="3" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="C684" t="s">
         <v>29</v>
@@ -15298,16 +15298,16 @@
     </row>
     <row r="685" spans="1:7">
       <c r="A685" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B685" s="3" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C685" t="s">
         <v>39</v>
       </c>
       <c r="D685" s="6" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F685">
         <v>1</v>
@@ -15318,10 +15318,10 @@
     </row>
     <row r="686" spans="1:7">
       <c r="A686" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B686" s="3" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="C686" t="s">
         <v>29</v>
@@ -15335,7 +15335,7 @@
     </row>
     <row r="687" spans="1:7">
       <c r="B687" s="3" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="C687" t="s">
         <v>29</v>
@@ -15349,13 +15349,13 @@
     </row>
     <row r="688" spans="1:7">
       <c r="B688" s="3" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="C688" t="s">
         <v>39</v>
       </c>
       <c r="D688" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F688" s="4">
         <v>1</v>
@@ -15366,10 +15366,10 @@
     </row>
     <row r="689" spans="1:7">
       <c r="A689" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="B689" s="3" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="C689" t="s">
         <v>29</v>
@@ -15383,10 +15383,10 @@
     </row>
     <row r="690" spans="1:7">
       <c r="A690" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="B690" s="3" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="C690" t="s">
         <v>29</v>
@@ -15400,10 +15400,10 @@
     </row>
     <row r="691" spans="1:7">
       <c r="A691" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B691" s="3" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="C691" t="s">
         <v>29</v>
@@ -15417,7 +15417,7 @@
     </row>
     <row r="692" spans="1:7">
       <c r="B692" s="3" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="C692" t="s">
         <v>29</v>
@@ -15431,13 +15431,13 @@
     </row>
     <row r="693" spans="1:7">
       <c r="B693" s="3" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="C693" t="s">
         <v>39</v>
       </c>
       <c r="D693" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F693" s="4">
         <v>1</v>
@@ -15448,10 +15448,10 @@
     </row>
     <row r="694" spans="1:7">
       <c r="A694" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="B694" s="3" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="C694" t="s">
         <v>29</v>
@@ -15465,10 +15465,10 @@
     </row>
     <row r="695" spans="1:7">
       <c r="A695" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="B695" s="3" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="C695" t="s">
         <v>29</v>
@@ -15482,13 +15482,13 @@
     </row>
     <row r="696" spans="1:7">
       <c r="B696" s="3" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="C696" t="s">
         <v>39</v>
       </c>
       <c r="D696" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F696" s="4">
         <v>1</v>
@@ -15499,13 +15499,13 @@
     </row>
     <row r="697" spans="1:7">
       <c r="B697" s="3" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="C697" t="s">
         <v>39</v>
       </c>
       <c r="D697" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F697" s="4">
         <v>1</v>
@@ -15516,10 +15516,10 @@
     </row>
     <row r="698" spans="1:7">
       <c r="A698" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="B698" s="3" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="C698" t="s">
         <v>29</v>
@@ -15533,7 +15533,7 @@
     </row>
     <row r="699" spans="1:7">
       <c r="B699" s="3" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="C699" t="s">
         <v>29</v>
@@ -15547,7 +15547,7 @@
     </row>
     <row r="700" spans="1:7">
       <c r="B700" s="3" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="C700" t="s">
         <v>29</v>
@@ -15561,7 +15561,7 @@
     </row>
     <row r="701" spans="1:7">
       <c r="B701" s="3" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="C701" t="s">
         <v>29</v>
@@ -15575,7 +15575,7 @@
     </row>
     <row r="702" spans="1:7">
       <c r="B702" s="3" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="C702" t="s">
         <v>29</v>
@@ -15589,7 +15589,7 @@
     </row>
     <row r="703" spans="1:7">
       <c r="B703" s="3" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="C703" t="s">
         <v>29</v>
@@ -15603,13 +15603,13 @@
     </row>
     <row r="704" spans="1:7">
       <c r="B704" s="3" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="C704" t="s">
         <v>39</v>
       </c>
       <c r="D704" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F704" s="4">
         <v>1</v>
@@ -15620,7 +15620,7 @@
     </row>
     <row r="705" spans="1:7">
       <c r="B705" s="3" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="C705" t="s">
         <v>29</v>
@@ -15634,7 +15634,7 @@
     </row>
     <row r="706" spans="1:7">
       <c r="B706" s="3" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="C706" t="s">
         <v>29</v>
@@ -15648,7 +15648,7 @@
     </row>
     <row r="707" spans="1:7">
       <c r="B707" s="3" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="C707" t="s">
         <v>29</v>
@@ -15662,7 +15662,7 @@
     </row>
     <row r="708" spans="1:7">
       <c r="B708" s="3" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="C708" t="s">
         <v>29</v>
@@ -15676,7 +15676,7 @@
     </row>
     <row r="709" spans="1:7">
       <c r="B709" s="3" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="C709" t="s">
         <v>29</v>
@@ -15690,7 +15690,7 @@
     </row>
     <row r="710" spans="1:7">
       <c r="B710" s="3" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="C710" t="s">
         <v>29</v>
@@ -15704,7 +15704,7 @@
     </row>
     <row r="711" spans="1:7">
       <c r="B711" s="3" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="C711" t="s">
         <v>29</v>
@@ -15718,7 +15718,7 @@
     </row>
     <row r="712" spans="1:7">
       <c r="B712" s="3" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="C712" t="s">
         <v>29</v>
@@ -15732,7 +15732,7 @@
     </row>
     <row r="713" spans="1:7">
       <c r="B713" s="3" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="C713" t="s">
         <v>29</v>
@@ -15746,7 +15746,7 @@
     </row>
     <row r="714" spans="1:7">
       <c r="B714" s="3" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="C714" t="s">
         <v>29</v>
@@ -15760,7 +15760,7 @@
     </row>
     <row r="715" spans="1:7">
       <c r="B715" s="3" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="C715" t="s">
         <v>29</v>
@@ -15774,7 +15774,7 @@
     </row>
     <row r="716" spans="1:7">
       <c r="B716" s="3" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="C716" t="s">
         <v>29</v>
@@ -15788,7 +15788,7 @@
     </row>
     <row r="717" spans="1:7">
       <c r="B717" s="3" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="C717" t="s">
         <v>29</v>
@@ -15802,7 +15802,7 @@
     </row>
     <row r="718" spans="1:7">
       <c r="B718" s="3" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="C718" t="s">
         <v>29</v>
@@ -15816,10 +15816,10 @@
     </row>
     <row r="719" spans="1:7">
       <c r="A719" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B719" s="3" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C719" t="s">
         <v>29</v>
@@ -15833,13 +15833,13 @@
     </row>
     <row r="720" spans="1:7">
       <c r="B720" s="3" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C720" t="s">
         <v>39</v>
       </c>
       <c r="D720" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F720" s="4">
         <v>1</v>
@@ -15850,7 +15850,7 @@
     </row>
     <row r="721" spans="1:7">
       <c r="B721" s="3" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="C721" t="s">
         <v>29</v>
@@ -15864,10 +15864,10 @@
     </row>
     <row r="722" spans="1:7">
       <c r="A722" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="B722" s="3" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="C722" t="s">
         <v>29</v>
@@ -15881,13 +15881,13 @@
     </row>
     <row r="723" spans="1:7">
       <c r="B723" s="3" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C723" t="s">
         <v>39</v>
       </c>
       <c r="D723" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F723" s="4">
         <v>1</v>
@@ -15898,10 +15898,10 @@
     </row>
     <row r="724" spans="1:7">
       <c r="A724" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="B724" s="3" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="C724" t="s">
         <v>29</v>
@@ -15915,13 +15915,13 @@
     </row>
     <row r="725" spans="1:7">
       <c r="B725" s="3" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C725" t="s">
         <v>39</v>
       </c>
       <c r="D725" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F725" s="4">
         <v>1</v>
@@ -15932,7 +15932,7 @@
     </row>
     <row r="726" spans="1:7">
       <c r="B726" s="3" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="C726" t="s">
         <v>29</v>
@@ -15946,13 +15946,13 @@
     </row>
     <row r="727" spans="1:7">
       <c r="B727" s="3" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C727" t="s">
         <v>39</v>
       </c>
       <c r="D727" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F727" s="4">
         <v>1</v>
@@ -15963,13 +15963,13 @@
     </row>
     <row r="728" spans="1:7">
       <c r="B728" s="3" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C728" t="s">
         <v>39</v>
       </c>
       <c r="D728" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F728" s="4">
         <v>1</v>
@@ -15980,13 +15980,13 @@
     </row>
     <row r="729" spans="1:7">
       <c r="B729" s="3" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="C729" t="s">
         <v>39</v>
       </c>
       <c r="D729" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F729" s="4">
         <v>1</v>
@@ -15997,10 +15997,10 @@
     </row>
     <row r="730" spans="1:7">
       <c r="A730" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B730" s="3" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="C730" t="s">
         <v>29</v>
@@ -16014,7 +16014,7 @@
     </row>
     <row r="731" spans="1:7">
       <c r="B731" s="3" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="C731" t="s">
         <v>29</v>
@@ -16028,7 +16028,7 @@
     </row>
     <row r="732" spans="1:7">
       <c r="B732" s="3" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="C732" t="s">
         <v>29</v>
@@ -16042,7 +16042,7 @@
     </row>
     <row r="733" spans="1:7">
       <c r="B733" s="3" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="C733" t="s">
         <v>29</v>
@@ -16056,13 +16056,13 @@
     </row>
     <row r="734" spans="1:7">
       <c r="B734" s="3" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="C734" t="s">
         <v>39</v>
       </c>
       <c r="D734" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F734" s="4">
         <v>1</v>
@@ -16073,10 +16073,10 @@
     </row>
     <row r="735" spans="1:7">
       <c r="A735" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="B735" s="3" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C735" t="s">
         <v>29</v>
@@ -16090,7 +16090,7 @@
     </row>
     <row r="736" spans="1:7">
       <c r="B736" s="3" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="C736" t="s">
         <v>29</v>
@@ -16104,7 +16104,7 @@
     </row>
     <row r="737" spans="1:7">
       <c r="B737" s="3" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C737" t="s">
         <v>29</v>
@@ -16118,7 +16118,7 @@
     </row>
     <row r="738" spans="1:7">
       <c r="B738" s="3" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="C738" t="s">
         <v>29</v>
@@ -16132,7 +16132,7 @@
     </row>
     <row r="739" spans="1:7">
       <c r="B739" s="3" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="C739" t="s">
         <v>29</v>
@@ -16146,7 +16146,7 @@
     </row>
     <row r="740" spans="1:7">
       <c r="B740" s="3" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C740" t="s">
         <v>29</v>
@@ -16160,13 +16160,13 @@
     </row>
     <row r="741" spans="1:7">
       <c r="B741" s="3" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="C741" t="s">
         <v>39</v>
       </c>
       <c r="D741" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F741" s="4">
         <v>1</v>
@@ -16177,16 +16177,16 @@
     </row>
     <row r="742" spans="1:7">
       <c r="A742" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="B742" s="3" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="C742" t="s">
         <v>39</v>
       </c>
       <c r="D742" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F742" s="4">
         <v>1</v>
@@ -16197,7 +16197,7 @@
     </row>
     <row r="743" spans="1:7">
       <c r="B743" s="3" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="C743" t="s">
         <v>29</v>
@@ -16211,16 +16211,16 @@
     </row>
     <row r="744" spans="1:7">
       <c r="A744" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="B744" s="3" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="C744" t="s">
         <v>39</v>
       </c>
       <c r="D744" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F744" s="4">
         <v>1</v>
@@ -16231,7 +16231,7 @@
     </row>
     <row r="745" spans="1:7">
       <c r="B745" s="3" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="C745" t="s">
         <v>29</v>
@@ -16245,13 +16245,13 @@
     </row>
     <row r="746" spans="1:7">
       <c r="B746" s="3" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="C746" t="s">
         <v>39</v>
       </c>
       <c r="D746" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F746" s="4">
         <v>1</v>
@@ -16262,7 +16262,7 @@
     </row>
     <row r="747" spans="1:7">
       <c r="B747" s="3" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="C747" t="s">
         <v>29</v>
@@ -16276,7 +16276,7 @@
     </row>
     <row r="748" spans="1:7" ht="30">
       <c r="B748" s="3" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C748" t="s">
         <v>29</v>
@@ -16290,13 +16290,13 @@
     </row>
     <row r="749" spans="1:7">
       <c r="B749" s="3" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="C749" t="s">
         <v>39</v>
       </c>
       <c r="D749" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F749" s="4">
         <v>1</v>
@@ -16307,10 +16307,10 @@
     </row>
     <row r="750" spans="1:7">
       <c r="A750" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B750" s="3" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="C750" t="s">
         <v>29</v>
@@ -16324,10 +16324,10 @@
     </row>
     <row r="751" spans="1:7">
       <c r="A751" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B751" s="3" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="C751" t="s">
         <v>29</v>
@@ -16341,10 +16341,10 @@
     </row>
     <row r="752" spans="1:7">
       <c r="A752" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="B752" s="3" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="C752" t="s">
         <v>29</v>
@@ -16358,10 +16358,10 @@
     </row>
     <row r="753" spans="1:7">
       <c r="A753" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B753" s="3" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="C753" t="s">
         <v>29</v>
@@ -16375,7 +16375,7 @@
     </row>
     <row r="754" spans="1:7">
       <c r="B754" s="3" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="C754" t="s">
         <v>29</v>
@@ -16389,7 +16389,7 @@
     </row>
     <row r="755" spans="1:7">
       <c r="B755" s="3" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C755" t="s">
         <v>29</v>
@@ -16403,7 +16403,7 @@
     </row>
     <row r="756" spans="1:7">
       <c r="B756" s="3" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="C756" t="s">
         <v>29</v>
@@ -16417,16 +16417,16 @@
     </row>
     <row r="757" spans="1:7">
       <c r="A757" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="B757" s="3" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="C757" t="s">
         <v>39</v>
       </c>
       <c r="D757" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F757" s="4">
         <v>1</v>
@@ -16437,13 +16437,13 @@
     </row>
     <row r="758" spans="1:7">
       <c r="B758" s="3" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C758" t="s">
         <v>39</v>
       </c>
       <c r="D758" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F758" s="4">
         <v>1</v>
@@ -16454,7 +16454,7 @@
     </row>
     <row r="759" spans="1:7">
       <c r="B759" s="3" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="C759" t="s">
         <v>29</v>
@@ -16468,10 +16468,10 @@
     </row>
     <row r="760" spans="1:7">
       <c r="A760" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="B760" s="3" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C760" t="s">
         <v>29</v>
@@ -16485,10 +16485,10 @@
     </row>
     <row r="761" spans="1:7">
       <c r="A761" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B761" s="3" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="C761" t="s">
         <v>29</v>
@@ -16502,10 +16502,10 @@
     </row>
     <row r="762" spans="1:7">
       <c r="A762" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="B762" s="3" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="C762" t="s">
         <v>29</v>
@@ -16519,10 +16519,10 @@
     </row>
     <row r="763" spans="1:7">
       <c r="A763" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B763" s="3" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C763" t="s">
         <v>29</v>
@@ -16536,10 +16536,10 @@
     </row>
     <row r="764" spans="1:7">
       <c r="A764" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="B764" s="3" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C764" t="s">
         <v>29</v>
@@ -16553,10 +16553,10 @@
     </row>
     <row r="765" spans="1:7">
       <c r="A765" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B765" s="3" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="C765" t="s">
         <v>29</v>
@@ -16570,10 +16570,10 @@
     </row>
     <row r="766" spans="1:7">
       <c r="A766" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B766" s="3" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C766" t="s">
         <v>29</v>
@@ -16587,10 +16587,10 @@
     </row>
     <row r="767" spans="1:7" ht="30">
       <c r="A767" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B767" s="3" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="C767" t="s">
         <v>29</v>
@@ -16604,10 +16604,10 @@
     </row>
     <row r="768" spans="1:7">
       <c r="A768" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B768" s="3" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C768" t="s">
         <v>29</v>
@@ -16621,7 +16621,7 @@
     </row>
     <row r="769" spans="1:7">
       <c r="B769" s="3" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="C769" t="s">
         <v>29</v>
@@ -16635,7 +16635,7 @@
     </row>
     <row r="770" spans="1:7">
       <c r="B770" s="3" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="C770" t="s">
         <v>29</v>
@@ -16649,7 +16649,7 @@
     </row>
     <row r="771" spans="1:7">
       <c r="B771" s="3" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C771" t="s">
         <v>29</v>
@@ -16663,7 +16663,7 @@
     </row>
     <row r="772" spans="1:7" ht="30">
       <c r="B772" s="3" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="C772" t="s">
         <v>29</v>
@@ -16677,10 +16677,10 @@
     </row>
     <row r="773" spans="1:7">
       <c r="A773" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B773" s="3" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="C773" t="s">
         <v>29</v>
@@ -16694,10 +16694,10 @@
     </row>
     <row r="774" spans="1:7" ht="30">
       <c r="A774" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="B774" s="3" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C774" t="s">
         <v>29</v>
@@ -16711,10 +16711,10 @@
     </row>
     <row r="775" spans="1:7" ht="30">
       <c r="A775" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B775" s="3" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="C775" t="s">
         <v>29</v>
@@ -16728,10 +16728,10 @@
     </row>
     <row r="776" spans="1:7">
       <c r="A776" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B776" s="3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="C776" t="s">
         <v>29</v>
@@ -16745,10 +16745,10 @@
     </row>
     <row r="777" spans="1:7">
       <c r="A777" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="B777" s="3" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="C777" t="s">
         <v>29</v>
@@ -16762,10 +16762,10 @@
     </row>
     <row r="778" spans="1:7">
       <c r="A778" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="B778" s="3" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="C778" t="s">
         <v>29</v>
@@ -16779,10 +16779,10 @@
     </row>
     <row r="779" spans="1:7">
       <c r="A779" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B779" s="3" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C779" t="s">
         <v>29</v>
@@ -16796,10 +16796,10 @@
     </row>
     <row r="780" spans="1:7">
       <c r="A780" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="B780" s="3" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="C780" t="s">
         <v>29</v>
@@ -16813,10 +16813,10 @@
     </row>
     <row r="781" spans="1:7">
       <c r="A781" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="B781" s="3" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="C781" t="s">
         <v>29</v>
@@ -16830,10 +16830,10 @@
     </row>
     <row r="782" spans="1:7">
       <c r="A782" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="B782" s="3" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C782" t="s">
         <v>29</v>
@@ -16847,10 +16847,10 @@
     </row>
     <row r="783" spans="1:7">
       <c r="A783" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B783" s="3" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C783" t="s">
         <v>29</v>
@@ -16864,10 +16864,10 @@
     </row>
     <row r="784" spans="1:7">
       <c r="A784" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B784" s="3" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="C784" t="s">
         <v>29</v>
@@ -16881,10 +16881,10 @@
     </row>
     <row r="785" spans="1:7">
       <c r="A785" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B785" s="3" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="C785" t="s">
         <v>29</v>
@@ -16898,16 +16898,16 @@
     </row>
     <row r="786" spans="1:7">
       <c r="A786" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B786" s="3" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="C786" t="s">
         <v>39</v>
       </c>
       <c r="D786" s="6" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="F786" s="4">
         <v>1</v>
@@ -16918,16 +16918,16 @@
     </row>
     <row r="787" spans="1:7">
       <c r="A787" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="B787" s="3" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="C787" t="s">
         <v>39</v>
       </c>
       <c r="D787" s="6" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="F787" s="4">
         <v>1</v>
@@ -16938,16 +16938,16 @@
     </row>
     <row r="788" spans="1:7">
       <c r="A788" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="B788" s="3" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C788" t="s">
         <v>39</v>
       </c>
       <c r="D788" s="6" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="F788" s="4">
         <v>1</v>
@@ -16958,16 +16958,16 @@
     </row>
     <row r="789" spans="1:7">
       <c r="A789" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="B789" s="3" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="C789" t="s">
         <v>39</v>
       </c>
       <c r="D789" s="6" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="F789" s="4">
         <v>1</v>
@@ -16978,16 +16978,16 @@
     </row>
     <row r="790" spans="1:7">
       <c r="A790" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B790" s="3" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="C790" t="s">
         <v>39</v>
       </c>
       <c r="D790" s="6" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="F790" s="4">
         <v>1</v>
@@ -16998,16 +16998,16 @@
     </row>
     <row r="791" spans="1:7">
       <c r="A791" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B791" s="3" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="C791" t="s">
         <v>39</v>
       </c>
       <c r="D791" s="6" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="F791" s="4">
         <v>1</v>
@@ -17018,16 +17018,16 @@
     </row>
     <row r="792" spans="1:7">
       <c r="A792" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="B792" s="3" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C792" t="s">
         <v>39</v>
       </c>
       <c r="D792" s="6" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="F792" s="4">
         <v>1</v>
@@ -17038,16 +17038,16 @@
     </row>
     <row r="793" spans="1:7">
       <c r="A793" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="B793" s="3" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C793" t="s">
         <v>39</v>
       </c>
       <c r="D793" s="6" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="F793" s="4">
         <v>1</v>
@@ -17058,16 +17058,16 @@
     </row>
     <row r="794" spans="1:7">
       <c r="A794" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="B794" s="3" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="C794" t="s">
         <v>39</v>
       </c>
       <c r="D794" s="6" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="F794" s="4">
         <v>1</v>
@@ -17078,16 +17078,16 @@
     </row>
     <row r="795" spans="1:7">
       <c r="A795" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B795" s="3" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C795" t="s">
         <v>39</v>
       </c>
       <c r="D795" s="6" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="F795" s="4">
         <v>1</v>
@@ -17098,16 +17098,16 @@
     </row>
     <row r="796" spans="1:7">
       <c r="A796" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B796" s="3" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="C796" t="s">
         <v>39</v>
       </c>
       <c r="D796" s="6" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="F796" s="4">
         <v>1</v>
@@ -17118,16 +17118,16 @@
     </row>
     <row r="797" spans="1:7">
       <c r="A797" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B797" s="3" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="C797" t="s">
         <v>39</v>
       </c>
       <c r="D797" s="6" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="F797" s="4">
         <v>1</v>
@@ -17276,7 +17276,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -17351,7 +17351,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -17372,10 +17372,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="B9" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -17390,18 +17390,18 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="B10" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="C10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -17416,21 +17416,21 @@
         <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="B11" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="C11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D11" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
@@ -17442,7 +17442,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
     </row>
   </sheetData>

--- a/resources/NoteAudit.xlsx
+++ b/resources/NoteAudit.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="1257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2265" uniqueCount="1253">
   <si>
     <t>Name</t>
   </si>
@@ -3492,15 +3492,6 @@
     <t>Failed to assign</t>
   </si>
   <si>
-    <t>(//td[@class="md-cell ng-binding" and @style="border: 0; text-align: right !important; color: blue;"])[1]</t>
-  </si>
-  <si>
-    <t>Not assigned to test qa</t>
-  </si>
-  <si>
-    <t>assign to test qa verification</t>
-  </si>
-  <si>
     <t>(//button[@aria-label="Order Audit" and @ng-click="vm.go(entry.state)"])</t>
   </si>
   <si>
@@ -3784,9 +3775,6 @@
   </si>
   <si>
     <t>S02.600B: Fracture of unspecified part of body of mandible, unspecified side, initial encounter for open fracture</t>
-  </si>
-  <si>
-    <t>Test Qa</t>
   </si>
 </sst>
 </file>
@@ -5179,7 +5167,7 @@
         <v>82</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="C48" t="s">
         <v>27</v>
@@ -5196,16 +5184,16 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="C49" t="s">
         <v>37</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="F49" s="4">
         <v>1</v>
@@ -5214,15 +5202,15 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="C50" t="s">
         <v>27</v>
@@ -5239,10 +5227,10 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="C51" t="s">
         <v>27</v>
@@ -5259,10 +5247,10 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="C52" t="s">
         <v>27</v>
@@ -5279,10 +5267,10 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="C53" t="s">
         <v>27</v>
@@ -5302,7 +5290,7 @@
         <v>122</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="C54" t="s">
         <v>27</v>
@@ -5322,7 +5310,7 @@
         <v>127</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="C55" t="s">
         <v>27</v>
@@ -5339,10 +5327,10 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="C56" t="s">
         <v>27</v>
@@ -5359,10 +5347,10 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="C57" t="s">
         <v>27</v>
@@ -5569,7 +5557,7 @@
         <v>132</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="C69" t="s">
         <v>27</v>
@@ -5760,16 +5748,16 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="C82" t="s">
         <v>37</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="F82" s="4">
         <v>1</v>
@@ -5778,7 +5766,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -7167,7 +7155,7 @@
     </row>
     <row r="178" spans="1:7">
       <c r="B178" s="3" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="C178" t="s">
         <v>27</v>
@@ -7201,7 +7189,7 @@
         <v>263</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="C180" t="s">
         <v>27</v>
@@ -7215,7 +7203,7 @@
     </row>
     <row r="181" spans="1:7">
       <c r="B181" s="3" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="C181" t="s">
         <v>27</v>
@@ -7229,7 +7217,7 @@
     </row>
     <row r="182" spans="1:7">
       <c r="B182" s="3" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="C182" t="s">
         <v>27</v>
@@ -7243,7 +7231,7 @@
     </row>
     <row r="183" spans="1:7">
       <c r="B183" s="3" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="C183" t="s">
         <v>27</v>
@@ -7271,7 +7259,7 @@
     </row>
     <row r="185" spans="1:7">
       <c r="B185" s="3" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="C185" t="s">
         <v>27</v>
@@ -14897,7 +14885,7 @@
         <v>1055</v>
       </c>
       <c r="B662" s="3" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="C662" t="s">
         <v>27</v>
@@ -14911,7 +14899,7 @@
     </row>
     <row r="663" spans="1:7" ht="30">
       <c r="B663" s="3" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="C663" t="s">
         <v>27</v>
@@ -14925,7 +14913,7 @@
     </row>
     <row r="664" spans="1:7">
       <c r="B664" s="3" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="C664" t="s">
         <v>37</v>
@@ -14942,10 +14930,10 @@
     </row>
     <row r="665" spans="1:7">
       <c r="A665" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="B665" s="3" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="C665" t="s">
         <v>27</v>
@@ -14959,10 +14947,10 @@
     </row>
     <row r="666" spans="1:7">
       <c r="A666" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="B666" s="3" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="C666" t="s">
         <v>27</v>
@@ -14979,7 +14967,7 @@
         <v>1056</v>
       </c>
       <c r="B667" s="3" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="C667" t="s">
         <v>27</v>
@@ -14993,7 +14981,7 @@
     </row>
     <row r="668" spans="1:7" ht="30">
       <c r="B668" s="3" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="C668" t="s">
         <v>27</v>
@@ -15007,7 +14995,7 @@
     </row>
     <row r="669" spans="1:7">
       <c r="B669" s="3" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="C669" t="s">
         <v>37</v>
@@ -15024,10 +15012,10 @@
     </row>
     <row r="670" spans="1:7">
       <c r="A670" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="B670" s="3" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="C670" t="s">
         <v>27</v>
@@ -15041,10 +15029,10 @@
     </row>
     <row r="671" spans="1:7">
       <c r="A671" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="B671" s="3" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="C671" t="s">
         <v>27</v>
@@ -15058,7 +15046,7 @@
     </row>
     <row r="672" spans="1:7">
       <c r="B672" s="3" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="C672" t="s">
         <v>37</v>
@@ -15075,7 +15063,7 @@
     </row>
     <row r="673" spans="1:7">
       <c r="B673" s="3" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="C673" t="s">
         <v>37</v>
@@ -15092,10 +15080,10 @@
     </row>
     <row r="674" spans="1:7" ht="30">
       <c r="A674" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="B674" s="3" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C674" t="s">
         <v>27</v>
@@ -15109,7 +15097,7 @@
     </row>
     <row r="675" spans="1:7" ht="30">
       <c r="B675" s="3" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="C675" t="s">
         <v>27</v>
@@ -15123,7 +15111,7 @@
     </row>
     <row r="676" spans="1:7" ht="30">
       <c r="B676" s="3" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="C676" t="s">
         <v>27</v>
@@ -15137,7 +15125,7 @@
     </row>
     <row r="677" spans="1:7" ht="30">
       <c r="B677" s="3" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="C677" t="s">
         <v>27</v>
@@ -15151,7 +15139,7 @@
     </row>
     <row r="678" spans="1:7" ht="30">
       <c r="B678" s="3" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="C678" t="s">
         <v>27</v>
@@ -15165,7 +15153,7 @@
     </row>
     <row r="679" spans="1:7" ht="30">
       <c r="B679" s="3" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="C679" t="s">
         <v>27</v>
@@ -15179,7 +15167,7 @@
     </row>
     <row r="680" spans="1:7">
       <c r="B680" s="3" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="C680" t="s">
         <v>37</v>
@@ -15196,7 +15184,7 @@
     </row>
     <row r="681" spans="1:7" ht="30">
       <c r="B681" s="3" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="C681" t="s">
         <v>27</v>
@@ -15210,7 +15198,7 @@
     </row>
     <row r="682" spans="1:7" ht="30">
       <c r="B682" s="3" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="C682" t="s">
         <v>27</v>
@@ -15224,7 +15212,7 @@
     </row>
     <row r="683" spans="1:7" ht="30">
       <c r="B683" s="3" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="C683" t="s">
         <v>27</v>
@@ -15238,7 +15226,7 @@
     </row>
     <row r="684" spans="1:7" ht="30">
       <c r="B684" s="3" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="C684" t="s">
         <v>27</v>
@@ -15252,7 +15240,7 @@
     </row>
     <row r="685" spans="1:7" ht="30">
       <c r="B685" s="3" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="C685" t="s">
         <v>27</v>
@@ -15266,7 +15254,7 @@
     </row>
     <row r="686" spans="1:7" ht="30">
       <c r="B686" s="3" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="C686" t="s">
         <v>27</v>
@@ -15280,7 +15268,7 @@
     </row>
     <row r="687" spans="1:7" ht="30">
       <c r="B687" s="3" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="C687" t="s">
         <v>27</v>
@@ -15294,7 +15282,7 @@
     </row>
     <row r="688" spans="1:7" ht="30">
       <c r="B688" s="3" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="C688" t="s">
         <v>27</v>
@@ -15308,7 +15296,7 @@
     </row>
     <row r="689" spans="1:7" ht="30">
       <c r="B689" s="3" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="C689" t="s">
         <v>27</v>
@@ -15322,7 +15310,7 @@
     </row>
     <row r="690" spans="1:7" ht="30">
       <c r="B690" s="3" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="C690" t="s">
         <v>27</v>
@@ -15336,7 +15324,7 @@
     </row>
     <row r="691" spans="1:7" ht="30">
       <c r="B691" s="3" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="C691" t="s">
         <v>27</v>
@@ -15350,7 +15338,7 @@
     </row>
     <row r="692" spans="1:7" ht="30">
       <c r="B692" s="3" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="C692" t="s">
         <v>27</v>
@@ -15364,7 +15352,7 @@
     </row>
     <row r="693" spans="1:7" ht="30">
       <c r="B693" s="3" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="C693" t="s">
         <v>27</v>
@@ -15378,7 +15366,7 @@
     </row>
     <row r="694" spans="1:7" ht="30">
       <c r="B694" s="3" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="C694" t="s">
         <v>27</v>
@@ -15426,7 +15414,7 @@
     </row>
     <row r="697" spans="1:7" ht="30">
       <c r="B697" s="3" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="C697" t="s">
         <v>27</v>
@@ -15440,10 +15428,10 @@
     </row>
     <row r="698" spans="1:7">
       <c r="A698" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="B698" s="3" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="C698" t="s">
         <v>27</v>
@@ -15474,10 +15462,10 @@
     </row>
     <row r="700" spans="1:7">
       <c r="A700" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="B700" s="3" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="C700" t="s">
         <v>27</v>
@@ -15508,7 +15496,7 @@
     </row>
     <row r="702" spans="1:7" ht="30">
       <c r="B702" s="3" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="C702" t="s">
         <v>27</v>
@@ -15556,7 +15544,7 @@
     </row>
     <row r="705" spans="1:7">
       <c r="B705" s="3" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="C705" t="s">
         <v>37</v>
@@ -15576,7 +15564,7 @@
         <v>1066</v>
       </c>
       <c r="B706" s="3" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="C706" t="s">
         <v>27</v>
@@ -15590,7 +15578,7 @@
     </row>
     <row r="707" spans="1:7" ht="30">
       <c r="B707" s="3" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="C707" t="s">
         <v>27</v>
@@ -15604,7 +15592,7 @@
     </row>
     <row r="708" spans="1:7" ht="30">
       <c r="B708" s="3" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="C708" t="s">
         <v>27</v>
@@ -15618,7 +15606,7 @@
     </row>
     <row r="709" spans="1:7" ht="30">
       <c r="B709" s="3" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="C709" t="s">
         <v>27</v>
@@ -15632,7 +15620,7 @@
     </row>
     <row r="710" spans="1:7">
       <c r="B710" s="3" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="C710" t="s">
         <v>37</v>
@@ -15649,7 +15637,7 @@
     </row>
     <row r="711" spans="1:7">
       <c r="A711" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="B711" s="3" t="s">
         <v>1067</v>
@@ -15736,7 +15724,7 @@
     </row>
     <row r="717" spans="1:7">
       <c r="B717" s="3" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="C717" t="s">
         <v>37</v>
@@ -15753,10 +15741,10 @@
     </row>
     <row r="718" spans="1:7">
       <c r="A718" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="B718" s="3" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="C718" t="s">
         <v>37</v>
@@ -15773,7 +15761,7 @@
     </row>
     <row r="719" spans="1:7">
       <c r="B719" s="3" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="C719" t="s">
         <v>27</v>
@@ -15787,10 +15775,10 @@
     </row>
     <row r="720" spans="1:7">
       <c r="A720" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="B720" s="3" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="C720" t="s">
         <v>37</v>
@@ -15807,7 +15795,7 @@
     </row>
     <row r="721" spans="1:7" ht="30">
       <c r="B721" s="3" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="C721" t="s">
         <v>27</v>
@@ -15821,7 +15809,7 @@
     </row>
     <row r="722" spans="1:7">
       <c r="B722" s="3" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="C722" t="s">
         <v>37</v>
@@ -15866,7 +15854,7 @@
     </row>
     <row r="725" spans="1:7">
       <c r="B725" s="3" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="C725" t="s">
         <v>37</v>
@@ -15951,7 +15939,7 @@
     </row>
     <row r="730" spans="1:7" ht="30">
       <c r="B730" s="3" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="C730" t="s">
         <v>27</v>
@@ -16081,7 +16069,7 @@
         <v>1091</v>
       </c>
       <c r="B738" s="3" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="C738" t="s">
         <v>27</v>
@@ -16483,7 +16471,7 @@
         <v>37</v>
       </c>
       <c r="D762" s="6" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="F762" s="4">
         <v>1</v>
@@ -16503,7 +16491,7 @@
         <v>37</v>
       </c>
       <c r="D763" s="6" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="F763" s="4">
         <v>1</v>
@@ -16523,7 +16511,7 @@
         <v>37</v>
       </c>
       <c r="D764" s="6" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="F764" s="4">
         <v>1</v>
@@ -16543,7 +16531,7 @@
         <v>37</v>
       </c>
       <c r="D765" s="6" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="F765" s="4">
         <v>1</v>
@@ -16563,7 +16551,7 @@
         <v>37</v>
       </c>
       <c r="D766" s="6" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="F766" s="4">
         <v>1</v>
@@ -16583,7 +16571,7 @@
         <v>37</v>
       </c>
       <c r="D767" s="6" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="F767" s="4">
         <v>1</v>
@@ -16603,7 +16591,7 @@
         <v>37</v>
       </c>
       <c r="D768" s="6" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="F768" s="4">
         <v>1</v>
@@ -16623,7 +16611,7 @@
         <v>37</v>
       </c>
       <c r="D769" s="6" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="F769" s="4">
         <v>1</v>
@@ -16643,7 +16631,7 @@
         <v>37</v>
       </c>
       <c r="D770" s="6" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="F770" s="4">
         <v>1</v>
@@ -16663,7 +16651,7 @@
         <v>37</v>
       </c>
       <c r="D771" s="6" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="F771" s="4">
         <v>1</v>
@@ -16683,7 +16671,7 @@
         <v>37</v>
       </c>
       <c r="D772" s="6" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="F772" s="4">
         <v>1</v>
@@ -16703,7 +16691,7 @@
         <v>37</v>
       </c>
       <c r="D773" s="6" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="F773" s="4">
         <v>1</v>
@@ -16720,10 +16708,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16825,7 +16813,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
@@ -16900,7 +16888,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
@@ -16940,32 +16928,6 @@
       </c>
       <c r="J8" t="s">
         <v>1157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C9" t="s">
-        <v>416</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1256</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>1159</v>
       </c>
     </row>
   </sheetData>
